--- a/app/Vocab list.xlsx
+++ b/app/Vocab list.xlsx
@@ -16,11 +16,11 @@
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Adjectives!$A$1:$E$118</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">Sheet1!$B$1:$J$210</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0B4F0204_0A23_4B5E_B8E1_9250788672F4_.wvu.FilterData">Words!$A$2:$J$775</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6E0C52AB_7A95_458F_A862_C394B287895C_.wvu.FilterData">Words!$A$2:$J$775</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B4F0204-0A23-4B5E-B8E1-9250788672F4}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6E0C52AB-7A95-458F-A862-C394B287895C}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -20532,7 +20532,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0B4F0204-0A23-4B5E-B8E1-9250788672F4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6E0C52AB-7A95-458F-A862-C394B287895C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$J$775">
         <filterColumn colId="2">
           <filters>

--- a/app/Vocab list.xlsx
+++ b/app/Vocab list.xlsx
@@ -18,11 +18,11 @@
   <definedNames>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Adjectives!$A$1:$E$118</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">Tense!$B$1:$J$210</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_204942AA_9808_46A9_8407_08F89D8B8C28_.wvu.FilterData">Words!$A$3:$J$791</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BC5F828C_9497_445F_80AF_16F5E5980D87_.wvu.FilterData">Words!$A$3:$J$791</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{204942AA-9808-46A9-8407-08F89D8B8C28}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BC5F828C-9497-445F-80AF-16F5E5980D87}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -41324,7 +41324,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{204942AA-9808-46A9-8407-08F89D8B8C28}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BC5F828C-9497-445F-80AF-16F5E5980D87}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$3:$J$791">
         <filterColumn colId="2">
           <filters>

--- a/app/Vocab list.xlsx
+++ b/app/Vocab list.xlsx
@@ -18,11 +18,11 @@
   <definedNames>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Adjectives!$A$1:$E$118</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">Tense!$B$1:$J$210</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9E488D05_B8C2_4DD7_8721_426C9426FAF4_.wvu.FilterData">Words!$A$3:$J$791</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_88B84655_F87D_49BF_A0C4_57E70660505C_.wvu.FilterData">Words!$A$3:$J$791</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E488D05-B8C2-4DD7-8721-426C9426FAF4}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{88B84655-F87D-49BF-A0C4-57E70660505C}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9248" uniqueCount="3938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="3948">
   <si>
     <t>word</t>
   </si>
@@ -9290,6 +9290,36 @@
   </si>
   <si>
     <t>I need help with my homework</t>
+  </si>
+  <si>
+    <t>I need help tying my tie</t>
+  </si>
+  <si>
+    <t>I need help to button my shirt</t>
+  </si>
+  <si>
+    <t>Can I have a glass of milk</t>
+  </si>
+  <si>
+    <t>I want to show you the drawing I made</t>
+  </si>
+  <si>
+    <t>Can I have a dog</t>
+  </si>
+  <si>
+    <t>Can I have a cat</t>
+  </si>
+  <si>
+    <t>Can I have a pet</t>
+  </si>
+  <si>
+    <t>Can I have a turn on the swing</t>
+  </si>
+  <si>
+    <t>Can I play with the building blocks</t>
+  </si>
+  <si>
+    <t>Can i have a sticker</t>
   </si>
   <si>
     <t>pos_id</t>
@@ -41363,7 +41393,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9E488D05-B8C2-4DD7-8721-426C9426FAF4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{88B84655-F87D-49BF-A0C4-57E70660505C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$3:$J$791">
         <filterColumn colId="2">
           <filters>
@@ -42402,7 +42432,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
@@ -42509,19 +42539,19 @@
     <row r="1">
       <c r="A1" s="52"/>
       <c r="B1" s="62" t="s">
-        <v>3896</v>
+        <v>3906</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>3897</v>
+        <v>3907</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>3898</v>
+        <v>3908</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>3303</v>
+        <v>3313</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>3899</v>
+        <v>3909</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>2</v>
@@ -42533,7 +42563,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>3900</v>
+        <v>3910</v>
       </c>
       <c r="K1" s="9"/>
       <c r="O1" s="52" t="s">
@@ -42550,10 +42580,10 @@
       </c>
       <c r="D2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>16</v>
@@ -42570,10 +42600,10 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>20</v>
@@ -42590,10 +42620,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>23</v>
@@ -42610,13 +42640,13 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>3903</v>
+        <v>3913</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>27</v>
@@ -42630,13 +42660,13 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>3904</v>
+        <v>3914</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>30</v>
@@ -42650,10 +42680,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>32</v>
@@ -42670,10 +42700,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>35</v>
@@ -42687,10 +42717,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>37</v>
@@ -42704,10 +42734,10 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>1311</v>
@@ -42721,10 +42751,10 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="12">
@@ -42735,10 +42765,10 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="13">
@@ -42749,100 +42779,100 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>3906</v>
+        <v>3916</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>3907</v>
+        <v>3917</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>3908</v>
+        <v>3918</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>3909</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>3910</v>
+        <v>3920</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>3909</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="20">
@@ -42853,122 +42883,122 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>3913</v>
+        <v>3923</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>3914</v>
+        <v>3924</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>3916</v>
+        <v>3926</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>3917</v>
+        <v>3927</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>3918</v>
+        <v>3928</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>3913</v>
+        <v>3923</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>3919</v>
+        <v>3929</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="29">
@@ -42979,10 +43009,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>3920</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="30">
@@ -42993,10 +43023,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>3920</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="31">
@@ -43007,10 +43037,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>3920</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="32">
@@ -43021,10 +43051,10 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="33">
@@ -43035,10 +43065,10 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="34">
@@ -43049,10 +43079,10 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="35">
@@ -43063,10 +43093,10 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="36">
@@ -43077,10 +43107,10 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="37">
@@ -43091,10 +43121,10 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="38">
@@ -43105,10 +43135,10 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="39">
@@ -43338,7 +43368,7 @@
     <row r="55">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>3922</v>
+        <v>3932</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -43884,7 +43914,7 @@
     <row r="94">
       <c r="A94" s="55"/>
       <c r="B94" s="55" t="s">
-        <v>3923</v>
+        <v>3933</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -43912,7 +43942,7 @@
     <row r="96">
       <c r="A96" s="55"/>
       <c r="B96" s="55" t="s">
-        <v>3437</v>
+        <v>3447</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -43934,7 +43964,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="98">
@@ -43948,7 +43978,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="99">
@@ -43962,7 +43992,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="100">
@@ -43976,7 +44006,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="101">
@@ -43990,7 +44020,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="102">
@@ -44004,7 +44034,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="103">
@@ -44018,7 +44048,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="104">
@@ -44032,7 +44062,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>3925</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="105">
@@ -44164,7 +44194,7 @@
     <row r="114">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>3926</v>
+        <v>3936</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -44354,7 +44384,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="128">
@@ -44368,7 +44398,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="129">
@@ -44382,7 +44412,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="130">
@@ -44396,7 +44426,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="131">
@@ -44410,7 +44440,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="132">
@@ -44424,7 +44454,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="133">
@@ -44438,7 +44468,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="134">
@@ -44452,7 +44482,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="135">
@@ -44466,7 +44496,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="136">
@@ -44480,7 +44510,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="137">
@@ -44494,7 +44524,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="138">
@@ -44508,7 +44538,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="139">
@@ -44522,7 +44552,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="140">
@@ -44536,7 +44566,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="141">
@@ -44550,7 +44580,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="142">
@@ -44564,7 +44594,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="143">
@@ -44578,7 +44608,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="144">
@@ -44592,7 +44622,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="145">
@@ -44606,7 +44636,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="146">
@@ -44620,7 +44650,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="147">
@@ -44634,7 +44664,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="148">
@@ -44648,7 +44678,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="149">
@@ -44662,7 +44692,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="150">
@@ -44676,7 +44706,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="151">
@@ -44690,7 +44720,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="152">
@@ -44704,7 +44734,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="153">
@@ -44718,13 +44748,13 @@
         <v>10</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>3929</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>3930</v>
+        <v>3940</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -44732,7 +44762,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>1311</v>
@@ -44749,7 +44779,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="156">
@@ -44763,7 +44793,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="157">
@@ -44777,7 +44807,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="158">
@@ -44791,7 +44821,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="159">
@@ -44805,7 +44835,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="160">
@@ -44819,7 +44849,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="161">
@@ -44833,7 +44863,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="162">
@@ -44847,7 +44877,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="163">
@@ -44861,7 +44891,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="164">
@@ -44875,7 +44905,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>3932</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="165">
@@ -44889,13 +44919,13 @@
         <v>53</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -44903,7 +44933,7 @@
         <v>53</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="167">
@@ -44917,7 +44947,7 @@
         <v>53</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="168">
@@ -44931,7 +44961,7 @@
         <v>53</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="169">
@@ -44945,7 +44975,7 @@
         <v>53</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="170">
@@ -44959,7 +44989,7 @@
         <v>53</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="171">
@@ -44973,7 +45003,7 @@
         <v>53</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="172">
@@ -44987,7 +45017,7 @@
         <v>53</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="173">
@@ -45001,7 +45031,7 @@
         <v>53</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="174">
@@ -45015,7 +45045,7 @@
         <v>53</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="175">
@@ -45029,7 +45059,7 @@
         <v>53</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="176">
@@ -45043,7 +45073,7 @@
         <v>53</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="177">
@@ -45052,10 +45082,10 @@
         <v>659</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="178">
@@ -45064,10 +45094,10 @@
         <v>630</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="179">
@@ -45076,10 +45106,10 @@
         <v>1219</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="180">
@@ -45088,10 +45118,10 @@
         <v>323</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="181">
@@ -45100,22 +45130,22 @@
         <v>551</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>3935</v>
+        <v>3945</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="183">
@@ -45124,10 +45154,10 @@
         <v>1569</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="184">
@@ -45136,10 +45166,10 @@
         <v>1524</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="185">
@@ -45148,22 +45178,22 @@
         <v>1516</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
-        <v>3552</v>
+        <v>3562</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="187">
@@ -45172,10 +45202,10 @@
         <v>672</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="188">
@@ -45184,10 +45214,10 @@
         <v>1631</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="189">
@@ -45196,10 +45226,10 @@
         <v>1233</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="190">
@@ -45208,10 +45238,10 @@
         <v>1461</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="191">
@@ -45220,10 +45250,10 @@
         <v>18</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="192">
@@ -45232,10 +45262,10 @@
         <v>47</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="193">
@@ -45244,10 +45274,10 @@
         <v>46</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="194">
@@ -45256,10 +45286,10 @@
         <v>683</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="195">
@@ -45268,10 +45298,10 @@
         <v>826</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="196">
@@ -45280,10 +45310,10 @@
         <v>1116</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="197">
@@ -45292,10 +45322,10 @@
         <v>802</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="198">
@@ -45304,10 +45334,10 @@
         <v>1383</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="199">
@@ -45316,10 +45346,10 @@
         <v>1560</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="200">
@@ -45328,10 +45358,10 @@
         <v>1041</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="201">
@@ -45340,10 +45370,10 @@
         <v>1018</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="202">
@@ -45352,10 +45382,10 @@
         <v>406</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="203">
@@ -45364,22 +45394,22 @@
         <v>428</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
-        <v>3936</v>
+        <v>3946</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="205">
@@ -45388,22 +45418,22 @@
         <v>1321</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
-        <v>3732</v>
+        <v>3742</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="207">
@@ -45412,10 +45442,10 @@
         <v>361</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="208">
@@ -45424,34 +45454,34 @@
         <v>1666</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>3746</v>
+        <v>3756</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="211">
@@ -55983,6 +56013,86 @@
         <v>224</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -56003,74 +56113,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3082</v>
+        <v>3092</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>3083</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="52" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3085</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>3086</v>
+        <v>3096</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3087</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3089</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3091</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>3092</v>
+        <v>3102</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3093</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3095</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>3096</v>
+        <v>3106</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3097</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3099</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="10">
@@ -59067,19 +59177,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>3082</v>
+        <v>3092</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3101</v>
+        <v>3111</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>3102</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="2">
@@ -59092,13 +59202,13 @@
         <v>above</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3103</v>
+        <v>3113</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3104</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="3">
@@ -59111,13 +59221,13 @@
         <v>adult</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3105</v>
+        <v>3115</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3106</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="4">
@@ -59130,13 +59240,13 @@
         <v>aesthetic</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3107</v>
+        <v>3117</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="5">
@@ -59149,13 +59259,13 @@
         <v>alive</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3109</v>
+        <v>3119</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3110</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="6">
@@ -59168,13 +59278,13 @@
         <v>alone</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3112</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="7">
@@ -59187,13 +59297,13 @@
         <v>alternative</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3113</v>
+        <v>3123</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3114</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="8">
@@ -59206,13 +59316,13 @@
         <v>amazing</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3115</v>
+        <v>3125</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>3116</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="9">
@@ -59225,13 +59335,13 @@
         <v>ambiguous</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3117</v>
+        <v>3127</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3118</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="10">
@@ -59244,13 +59354,13 @@
         <v>ancient</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3119</v>
+        <v>3129</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3120</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="11">
@@ -59263,13 +59373,13 @@
         <v>angry</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3121</v>
+        <v>3131</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3122</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="12">
@@ -59282,13 +59392,13 @@
         <v>angry</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>3123</v>
+        <v>3133</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3124</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="13">
@@ -59301,13 +59411,13 @@
         <v>annual</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3125</v>
+        <v>3135</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3126</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="14">
@@ -59320,13 +59430,13 @@
         <v>another</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3127</v>
+        <v>3137</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3128</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="15">
@@ -59339,13 +59449,13 @@
         <v>anxious</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3129</v>
+        <v>3139</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3130</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="16">
@@ -59358,13 +59468,13 @@
         <v>appropriate</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3131</v>
+        <v>3141</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3132</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="17">
@@ -59377,13 +59487,13 @@
         <v>average</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3133</v>
+        <v>3143</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3134</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="18">
@@ -59396,13 +59506,13 @@
         <v>baby</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3135</v>
+        <v>3145</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3136</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="19">
@@ -59415,13 +59525,13 @@
         <v>back</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3137</v>
+        <v>3147</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3138</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="20">
@@ -59434,13 +59544,13 @@
         <v>bad</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3139</v>
+        <v>3149</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3140</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="21">
@@ -59453,13 +59563,13 @@
         <v>beautiful</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3141</v>
+        <v>3151</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3142</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="22">
@@ -59472,13 +59582,13 @@
         <v>beginning</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3143</v>
+        <v>3153</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3144</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="23">
@@ -59491,13 +59601,13 @@
         <v>believable</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3145</v>
+        <v>3155</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3146</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="24">
@@ -59510,13 +59620,13 @@
         <v>big</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3147</v>
+        <v>3157</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3148</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="25">
@@ -59529,13 +59639,13 @@
         <v>bitter</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3149</v>
+        <v>3159</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3150</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="26">
@@ -59548,13 +59658,13 @@
         <v>black</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3151</v>
+        <v>3161</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3152</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="27">
@@ -59567,13 +59677,13 @@
         <v>blue</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3153</v>
+        <v>3163</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3154</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="28">
@@ -59586,13 +59696,13 @@
         <v>boiled</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3155</v>
+        <v>3165</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3156</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="29">
@@ -59605,13 +59715,13 @@
         <v>bored</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3157</v>
+        <v>3167</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3158</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="30">
@@ -59624,13 +59734,13 @@
         <v>brown</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3159</v>
+        <v>3169</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3160</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="31">
@@ -59643,13 +59753,13 @@
         <v>bumpy</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3161</v>
+        <v>3171</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>3162</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="32">
@@ -59662,13 +59772,13 @@
         <v>centi-</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3163</v>
+        <v>3173</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3164</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="33">
@@ -59681,13 +59791,13 @@
         <v>child</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3165</v>
+        <v>3175</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3166</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="34">
@@ -59700,13 +59810,13 @@
         <v>cold</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>3167</v>
+        <v>3177</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>3168</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="35">
@@ -59719,13 +59829,13 @@
         <v>colourful</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3169</v>
+        <v>3179</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3170</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="36">
@@ -59738,13 +59848,13 @@
         <v>confused</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3171</v>
+        <v>3181</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>3172</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="37">
@@ -59757,13 +59867,13 @@
         <v>cool</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>3173</v>
+        <v>3183</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>3174</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="38">
@@ -59776,13 +59886,13 @@
         <v>creative</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>3175</v>
+        <v>3185</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>3176</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="39">
@@ -59795,13 +59905,13 @@
         <v>curious</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>3177</v>
+        <v>3187</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>3178</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="40">
@@ -59814,13 +59924,13 @@
         <v>curved</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>3179</v>
+        <v>3189</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>3180</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="41">
@@ -59833,13 +59943,13 @@
         <v>delicious</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>3175</v>
+        <v>3185</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>3176</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="42">
@@ -59852,13 +59962,13 @@
         <v>different</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>3181</v>
+        <v>3191</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>3182</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="43">
@@ -59871,13 +59981,13 @@
         <v>down</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>3183</v>
+        <v>3193</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>3184</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="44">
@@ -59890,13 +60000,13 @@
         <v>dramatic</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>3185</v>
+        <v>3195</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>3186</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="45">
@@ -59909,13 +60019,13 @@
         <v>eager</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>3187</v>
+        <v>3197</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>3188</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="46">
@@ -59928,13 +60038,13 @@
         <v>elder</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>3189</v>
+        <v>3199</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>3190</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="47">
@@ -59947,13 +60057,13 @@
         <v>elderly</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>3191</v>
+        <v>3201</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>3192</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="48">
@@ -59966,13 +60076,13 @@
         <v>electronic</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>3193</v>
+        <v>3203</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>3194</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="49">
@@ -59985,13 +60095,13 @@
         <v>embarrassed</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>3195</v>
+        <v>3205</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>3196</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="50">
@@ -60004,13 +60114,13 @@
         <v>end</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>3197</v>
+        <v>3207</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>3198</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="51">
@@ -60023,13 +60133,13 @@
         <v>envious</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>3199</v>
+        <v>3209</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>3200</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="52">
@@ -60042,13 +60152,13 @@
         <v>excited</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>3201</v>
+        <v>3211</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>3202</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="53">
@@ -60061,13 +60171,13 @@
         <v>exciting</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3203</v>
+        <v>3213</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>3204</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="54">
@@ -60080,13 +60190,13 @@
         <v>fat</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>3205</v>
+        <v>3215</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>3206</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="55">
@@ -60099,13 +60209,13 @@
         <v>favourite</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>3207</v>
+        <v>3217</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>3208</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="56">
@@ -60118,13 +60228,13 @@
         <v>fluffy</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3209</v>
+        <v>3219</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>3210</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="57">
@@ -60137,13 +60247,13 @@
         <v>fried</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3211</v>
+        <v>3221</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>3212</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="58">
@@ -60156,13 +60266,13 @@
         <v>friendly</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>3213</v>
+        <v>3223</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>3214</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="59">
@@ -60175,13 +60285,13 @@
         <v>Frustrated</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>3211</v>
+        <v>3221</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>3212</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="60">
@@ -60194,13 +60304,13 @@
         <v>fun</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>3215</v>
+        <v>3225</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>3216</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="61">
@@ -60213,13 +60323,13 @@
         <v>funny</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3217</v>
+        <v>3227</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>3218</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="62">
@@ -60232,13 +60342,13 @@
         <v>goal</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>3219</v>
+        <v>3229</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>3220</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="63">
@@ -60251,13 +60361,13 @@
         <v>good</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3221</v>
+        <v>3231</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>3222</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="64">
@@ -60270,13 +60380,13 @@
         <v>gram</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>3223</v>
+        <v>3233</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>3224</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="65">
@@ -60289,13 +60399,13 @@
         <v>graphic</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>3225</v>
+        <v>3235</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>3226</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="66">
@@ -60308,13 +60418,13 @@
         <v>grateful</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>3227</v>
+        <v>3237</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>3228</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="67">
@@ -60327,13 +60437,13 @@
         <v>greater than</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3227</v>
+        <v>3237</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>3228</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="68">
@@ -60346,13 +60456,13 @@
         <v>green</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>3229</v>
+        <v>3239</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>3230</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="69">
@@ -60365,13 +60475,13 @@
         <v>happy</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>3229</v>
+        <v>3239</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>3230</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="70">
@@ -60384,13 +60494,13 @@
         <v>heavy</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3231</v>
+        <v>3241</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>3232</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="71">
@@ -60403,13 +60513,13 @@
         <v>helpful</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3233</v>
+        <v>3243</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>3234</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="72">
@@ -60422,13 +60532,13 @@
         <v>her</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3235</v>
+        <v>3245</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>3236</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="73">
@@ -60441,13 +60551,13 @@
         <v>high-pitched</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3237</v>
+        <v>3247</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>3238</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="74">
@@ -60460,13 +60570,13 @@
         <v>hot</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>3239</v>
+        <v>3249</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>3240</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="75">
@@ -60479,13 +60589,13 @@
         <v>hungry</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>3241</v>
+        <v>3251</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>3242</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="76">
@@ -60498,13 +60608,13 @@
         <v>ill</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>3243</v>
+        <v>3253</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>3244</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="77">
@@ -60517,13 +60627,13 @@
         <v>impatient</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>3245</v>
+        <v>3255</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>3246</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="78">
@@ -60536,13 +60646,13 @@
         <v>important</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3247</v>
+        <v>3257</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>3248</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="79">
@@ -60555,13 +60665,13 @@
         <v>in</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3249</v>
+        <v>3259</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>3250</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="80">
@@ -60574,13 +60684,13 @@
         <v>infant</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>3249</v>
+        <v>3259</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>3250</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="81">
@@ -60593,13 +60703,13 @@
         <v>intense</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>3251</v>
+        <v>3261</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>3252</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="82">
@@ -60612,13 +60722,13 @@
         <v>international</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>3253</v>
+        <v>3263</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>3254</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="83">
@@ -60631,13 +60741,13 @@
         <v>intersecting</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>3255</v>
+        <v>3265</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>3256</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="84">
@@ -60650,13 +60760,13 @@
         <v>jealous</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>3257</v>
+        <v>3267</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>3258</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="85">
@@ -60669,13 +60779,13 @@
         <v>kick</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>3247</v>
+        <v>3257</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>3248</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="86">
@@ -60688,13 +60798,13 @@
         <v>kilo-</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3249</v>
+        <v>3259</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>3250</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="87">
@@ -60707,13 +60817,13 @@
         <v>large</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>3247</v>
+        <v>3257</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>3248</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="88">
@@ -60726,13 +60836,13 @@
         <v>left</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>3259</v>
+        <v>3269</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>3260</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="89">
@@ -60745,13 +60855,13 @@
         <v>less than</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>3261</v>
+        <v>3271</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>3262</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="90">
@@ -60764,13 +60874,13 @@
         <v>light</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>3263</v>
+        <v>3273</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>3264</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="91">
@@ -60783,13 +60893,13 @@
         <v>like</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>3265</v>
+        <v>3275</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>3266</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="92">
@@ -60802,13 +60912,13 @@
         <v>litre</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D92" s="55" t="s">
-        <v>3267</v>
+        <v>3277</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>3268</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="93">
@@ -60821,13 +60931,13 @@
         <v>lonely</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>3269</v>
+        <v>3279</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>3270</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="94">
@@ -60840,13 +60950,13 @@
         <v>long</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D94" s="55" t="s">
-        <v>3271</v>
+        <v>3281</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>3272</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="95">
@@ -60859,13 +60969,13 @@
         <v>mad</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D95" s="55" t="s">
-        <v>3273</v>
+        <v>3283</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>3274</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="96">
@@ -60878,13 +60988,13 @@
         <v>metre</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>3275</v>
+        <v>3285</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>3276</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="97">
@@ -60897,13 +61007,13 @@
         <v>middle</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>3277</v>
+        <v>3287</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="98">
@@ -60916,7 +61026,7 @@
         <v>middle</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="99">
@@ -60929,7 +61039,7 @@
         <v>middle-aged</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="100">
@@ -60942,13 +61052,13 @@
         <v>milli-</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>3177</v>
+        <v>3187</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>3178</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="101">
@@ -60961,13 +61071,13 @@
         <v>musical</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>3279</v>
+        <v>3289</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>3280</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="102">
@@ -60980,13 +61090,13 @@
         <v>my</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>3179</v>
+        <v>3189</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>3180</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="103">
@@ -60999,13 +61109,13 @@
         <v>narrow</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>3281</v>
+        <v>3291</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>3282</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="104">
@@ -61018,13 +61128,13 @@
         <v>nervous</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>3283</v>
+        <v>3293</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>3284</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="105">
@@ -61037,13 +61147,13 @@
         <v>next</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>3263</v>
+        <v>3273</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>3264</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="106">
@@ -61056,13 +61166,13 @@
         <v>nice</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>3285</v>
+        <v>3295</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>3286</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="107">
@@ -61075,13 +61185,13 @@
         <v>noisy</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>3287</v>
+        <v>3297</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>3288</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="108">
@@ -61094,13 +61204,13 @@
         <v>older</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>3265</v>
+        <v>3275</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>3266</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="109">
@@ -61113,13 +61223,13 @@
         <v>orange</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>3289</v>
+        <v>3299</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>3290</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="110">
@@ -61132,13 +61242,13 @@
         <v>original</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>3291</v>
+        <v>3301</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>3292</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="111">
@@ -61151,13 +61261,13 @@
         <v>outstanding</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>3293</v>
+        <v>3303</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>3294</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="112">
@@ -61170,13 +61280,13 @@
         <v>oval</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>3295</v>
+        <v>3305</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>3296</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="113">
@@ -61189,13 +61299,13 @@
         <v>over</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>3161</v>
+        <v>3171</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>3162</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="114">
@@ -61208,13 +61318,13 @@
         <v>overjoyed</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>3297</v>
+        <v>3307</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>3298</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="115">
@@ -61227,13 +61337,13 @@
         <v>parallel</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>3299</v>
+        <v>3309</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>3300</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="116">
@@ -61246,13 +61356,13 @@
         <v>perpendicular</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>3301</v>
+        <v>3311</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>3302</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="117">
@@ -64353,23 +64463,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52" t="s">
-        <v>3082</v>
+        <v>3092</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>3303</v>
+        <v>3313</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>3304</v>
+        <v>3314</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>3305</v>
+        <v>3315</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="2">
@@ -64382,13 +64492,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>3307</v>
+        <v>3317</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>3308</v>
+        <v>3318</v>
       </c>
       <c r="F2" s="55" t="s">
         <v>50</v>
@@ -64407,19 +64517,19 @@
         <v>0.04166666667</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3309</v>
+        <v>3319</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3310</v>
+        <v>3320</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>3311</v>
+        <v>3321</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>3312</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="4">
@@ -64432,19 +64542,19 @@
         <v>0.08333333333</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3313</v>
+        <v>3323</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3314</v>
+        <v>3324</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>3315</v>
+        <v>3325</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="5">
@@ -64457,19 +64567,19 @@
         <v>0.125</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3317</v>
+        <v>3327</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3318</v>
+        <v>3328</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>3319</v>
+        <v>3329</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>3320</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="6">
@@ -64482,19 +64592,19 @@
         <v>0.1666666667</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3321</v>
+        <v>3331</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3322</v>
+        <v>3332</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>3315</v>
+        <v>3325</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="7">
@@ -64507,19 +64617,19 @@
         <v>0.2083333333</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3323</v>
+        <v>3333</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3324</v>
+        <v>3334</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="8">
@@ -64532,19 +64642,19 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3327</v>
+        <v>3337</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>3328</v>
+        <v>3338</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>3329</v>
+        <v>3339</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>3330</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="9">
@@ -64557,19 +64667,19 @@
         <v>0.2916666667</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3331</v>
+        <v>3341</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3332</v>
+        <v>3342</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>3333</v>
+        <v>3343</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>3334</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="10">
@@ -64582,19 +64692,19 @@
         <v>0.3333333333</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3336</v>
+        <v>3346</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>3338</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="11">
@@ -64607,13 +64717,13 @@
         <v>0.375</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3339</v>
+        <v>3349</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3340</v>
+        <v>3350</v>
       </c>
       <c r="F11" s="55" t="s">
         <v>50</v>
@@ -64632,13 +64742,13 @@
         <v>0.4166666667</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>3341</v>
+        <v>3351</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3342</v>
+        <v>3352</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>50</v>
@@ -64657,19 +64767,19 @@
         <v>0.4583333333</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3343</v>
+        <v>3353</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3344</v>
+        <v>3354</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>3338</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="14">
@@ -64682,19 +64792,19 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3345</v>
+        <v>3355</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3346</v>
+        <v>3356</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>3347</v>
+        <v>3357</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>3338</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="15">
@@ -64707,13 +64817,13 @@
         <v>0.5416666667</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3348</v>
+        <v>3358</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3349</v>
+        <v>3359</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>50</v>
@@ -64732,19 +64842,19 @@
         <v>0.5833333333</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3350</v>
+        <v>3360</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3351</v>
+        <v>3361</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="17">
@@ -64757,16 +64867,16 @@
         <v>0.625</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3352</v>
+        <v>3362</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3353</v>
+        <v>3363</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>3315</v>
+        <v>3325</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>50</v>
@@ -64782,19 +64892,19 @@
         <v>0.6666666667</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3354</v>
+        <v>3364</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3355</v>
+        <v>3365</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="19">
@@ -64807,19 +64917,19 @@
         <v>0.7083333333</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3357</v>
+        <v>3367</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="20">
@@ -64832,19 +64942,19 @@
         <v>0.75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3359</v>
+        <v>3369</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3360</v>
+        <v>3370</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>3361</v>
+        <v>3371</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>3320</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="21">
@@ -64857,19 +64967,19 @@
         <v>0.7916666667</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3362</v>
+        <v>3372</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3363</v>
+        <v>3373</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>3361</v>
+        <v>3371</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>3320</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="22">
@@ -64882,13 +64992,13 @@
         <v>0.8333333333</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3364</v>
+        <v>3374</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3365</v>
+        <v>3375</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>50</v>
@@ -64907,19 +65017,19 @@
         <v>0.875</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D23" s="55" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F23" s="55" t="s">
         <v>3366</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>3367</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>3356</v>
-      </c>
       <c r="G23" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="24">
@@ -64932,19 +65042,19 @@
         <v>0.9166666667</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3368</v>
+        <v>3378</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3369</v>
+        <v>3379</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="25">
@@ -64957,19 +65067,19 @@
         <v>0.9583333333</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3370</v>
+        <v>3380</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3371</v>
+        <v>3381</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="26">
@@ -64982,19 +65092,19 @@
         <v>above</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3372</v>
+        <v>3382</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3373</v>
+        <v>3383</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>3315</v>
+        <v>3325</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="27">
@@ -65007,19 +65117,19 @@
         <v>accident</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3374</v>
+        <v>3384</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3375</v>
+        <v>3385</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="28">
@@ -65032,19 +65142,19 @@
         <v>achievement</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3376</v>
+        <v>3386</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3377</v>
+        <v>3387</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="29">
@@ -65057,19 +65167,19 @@
         <v>Ackee</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3378</v>
+        <v>3388</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3379</v>
+        <v>3389</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="30">
@@ -65082,19 +65192,19 @@
         <v>addition</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3381</v>
+        <v>3391</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>3382</v>
+        <v>3392</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>3383</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="31">
@@ -65107,13 +65217,13 @@
         <v>adventure</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3384</v>
+        <v>3394</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>3385</v>
+        <v>3395</v>
       </c>
       <c r="F31" s="55" t="s">
         <v>50</v>
@@ -65132,13 +65242,13 @@
         <v>adversary</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3386</v>
+        <v>3396</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3387</v>
+        <v>3397</v>
       </c>
       <c r="F32" s="55" t="s">
         <v>50</v>
@@ -65157,13 +65267,13 @@
         <v>Africa</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3388</v>
+        <v>3398</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3389</v>
+        <v>3399</v>
       </c>
       <c r="F33" s="55" t="s">
         <v>50</v>
@@ -65182,19 +65292,19 @@
         <v>ambition</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>3321</v>
+        <v>3331</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>3322</v>
+        <v>3332</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>3315</v>
+        <v>3325</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="35">
@@ -65207,19 +65317,19 @@
         <v>ambulance</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3336</v>
+        <v>3346</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>3338</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="36">
@@ -65232,13 +65342,13 @@
         <v>analysis</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3390</v>
+        <v>3400</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>3391</v>
+        <v>3401</v>
       </c>
       <c r="F36" s="55" t="s">
         <v>50</v>
@@ -65257,13 +65367,13 @@
         <v>ankle</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>3392</v>
+        <v>3402</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>3393</v>
+        <v>3403</v>
       </c>
       <c r="F37" s="55" t="s">
         <v>50</v>
@@ -65282,13 +65392,13 @@
         <v>answer</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="F38" s="55" t="s">
         <v>50</v>
@@ -65307,13 +65417,13 @@
         <v>antonyms</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>3395</v>
+        <v>3405</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>50</v>
@@ -65332,13 +65442,13 @@
         <v>appetite</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>3397</v>
+        <v>3407</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>3398</v>
+        <v>3408</v>
       </c>
       <c r="F40" s="55" t="s">
         <v>50</v>
@@ -65357,13 +65467,13 @@
         <v>apple</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>3399</v>
+        <v>3409</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>3400</v>
+        <v>3410</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>50</v>
@@ -65382,13 +65492,13 @@
         <v>April</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>3401</v>
+        <v>3411</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>3402</v>
+        <v>3412</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>50</v>
@@ -65407,13 +65517,13 @@
         <v>architecture</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>3403</v>
+        <v>3413</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>50</v>
@@ -65432,13 +65542,13 @@
         <v>Arm</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>3404</v>
+        <v>3414</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>3405</v>
+        <v>3415</v>
       </c>
       <c r="F44" s="55" t="s">
         <v>50</v>
@@ -65457,13 +65567,13 @@
         <v>Asia</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>3406</v>
+        <v>3416</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>3407</v>
+        <v>3417</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>50</v>
@@ -65482,13 +65592,13 @@
         <v>association</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>3408</v>
+        <v>3418</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>3409</v>
+        <v>3419</v>
       </c>
       <c r="F46" s="55" t="s">
         <v>50</v>
@@ -65507,13 +65617,13 @@
         <v>at</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>3410</v>
+        <v>3420</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>50</v>
@@ -65532,13 +65642,13 @@
         <v>athletics</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>3412</v>
+        <v>3422</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>3413</v>
+        <v>3423</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>50</v>
@@ -65557,13 +65667,13 @@
         <v>audience</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>3414</v>
+        <v>3424</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>3415</v>
+        <v>3425</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>50</v>
@@ -65582,13 +65692,13 @@
         <v>audio</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>3416</v>
+        <v>3426</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>50</v>
@@ -65607,13 +65717,13 @@
         <v>August</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>3418</v>
+        <v>3428</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>50</v>
@@ -65632,13 +65742,13 @@
         <v>aunt</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>3419</v>
+        <v>3429</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>3420</v>
+        <v>3430</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>50</v>
@@ -65657,13 +65767,13 @@
         <v>aural</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3421</v>
+        <v>3431</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>3422</v>
+        <v>3432</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>50</v>
@@ -65682,13 +65792,13 @@
         <v>Australia</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>3423</v>
+        <v>3433</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>3424</v>
+        <v>3434</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>50</v>
@@ -65707,13 +65817,13 @@
         <v>authority</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>3425</v>
+        <v>3435</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>3426</v>
+        <v>3436</v>
       </c>
       <c r="F55" s="55" t="s">
         <v>50</v>
@@ -65732,13 +65842,13 @@
         <v>awareness</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3427</v>
+        <v>3437</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>3428</v>
+        <v>3438</v>
       </c>
       <c r="F56" s="55" t="s">
         <v>50</v>
@@ -65757,13 +65867,13 @@
         <v>baby</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3429</v>
+        <v>3439</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>3430</v>
+        <v>3440</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>50</v>
@@ -65782,13 +65892,13 @@
         <v>Back</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>3431</v>
+        <v>3441</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="F58" s="55" t="s">
         <v>50</v>
@@ -65807,13 +65917,13 @@
         <v>backpack</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>3433</v>
+        <v>3443</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>3434</v>
+        <v>3444</v>
       </c>
       <c r="F59" s="55" t="s">
         <v>50</v>
@@ -65832,13 +65942,13 @@
         <v>backyard</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>3435</v>
+        <v>3445</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>50</v>
@@ -65857,13 +65967,13 @@
         <v>bacon</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3437</v>
+        <v>3447</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>3438</v>
+        <v>3448</v>
       </c>
       <c r="F61" s="55" t="s">
         <v>50</v>
@@ -65882,13 +65992,13 @@
         <v>bad</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>3439</v>
+        <v>3449</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>3440</v>
+        <v>3450</v>
       </c>
       <c r="F62" s="55" t="s">
         <v>50</v>
@@ -65907,13 +66017,13 @@
         <v>ball</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3441</v>
+        <v>3451</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>3442</v>
+        <v>3452</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>50</v>
@@ -65932,13 +66042,13 @@
         <v>banana</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>3443</v>
+        <v>3453</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>3444</v>
+        <v>3454</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>50</v>
@@ -65957,13 +66067,13 @@
         <v>dinner</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>3445</v>
+        <v>3455</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>3446</v>
+        <v>3456</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>50</v>
@@ -65982,13 +66092,13 @@
         <v>bar graphs</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>3447</v>
+        <v>3457</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>3448</v>
+        <v>3458</v>
       </c>
       <c r="F66" s="55" t="s">
         <v>50</v>
@@ -66007,13 +66117,13 @@
         <v>basketball</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3449</v>
+        <v>3459</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>3450</v>
+        <v>3460</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>50</v>
@@ -66032,13 +66142,13 @@
         <v>bat</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>3451</v>
+        <v>3461</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>3452</v>
+        <v>3462</v>
       </c>
       <c r="F68" s="55" t="s">
         <v>50</v>
@@ -66057,13 +66167,13 @@
         <v>bat</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>3453</v>
+        <v>3463</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>50</v>
@@ -66082,13 +66192,13 @@
         <v>bathroom</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3454</v>
+        <v>3464</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>3455</v>
+        <v>3465</v>
       </c>
       <c r="F70" s="55" t="s">
         <v>50</v>
@@ -66107,13 +66217,13 @@
         <v>beach</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3456</v>
+        <v>3466</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>3457</v>
+        <v>3467</v>
       </c>
       <c r="F71" s="55" t="s">
         <v>50</v>
@@ -66132,13 +66242,13 @@
         <v>beans</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3458</v>
+        <v>3468</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>3459</v>
+        <v>3469</v>
       </c>
       <c r="F72" s="55" t="s">
         <v>50</v>
@@ -66157,13 +66267,13 @@
         <v>bedroom</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3460</v>
+        <v>3470</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>3461</v>
+        <v>3471</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>50</v>
@@ -66182,13 +66292,13 @@
         <v>bee</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>3462</v>
+        <v>3472</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>3463</v>
+        <v>3473</v>
       </c>
       <c r="F74" s="55" t="s">
         <v>50</v>
@@ -66207,13 +66317,13 @@
         <v>beginning</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>3464</v>
+        <v>3474</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>3465</v>
+        <v>3475</v>
       </c>
       <c r="F75" s="55" t="s">
         <v>50</v>
@@ -66232,13 +66342,13 @@
         <v>behind</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>3466</v>
+        <v>3476</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>3467</v>
+        <v>3477</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>50</v>
@@ -66257,13 +66367,13 @@
         <v>belly</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>3469</v>
+        <v>3479</v>
       </c>
       <c r="F77" s="55" t="s">
         <v>50</v>
@@ -66282,13 +66392,13 @@
         <v>belt</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3470</v>
+        <v>3480</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>3471</v>
+        <v>3481</v>
       </c>
       <c r="F78" s="55" t="s">
         <v>50</v>
@@ -66307,13 +66417,13 @@
         <v>bend</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3472</v>
+        <v>3482</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>3473</v>
+        <v>3483</v>
       </c>
       <c r="F79" s="55" t="s">
         <v>50</v>
@@ -66332,13 +66442,13 @@
         <v>bibliography</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>3474</v>
+        <v>3484</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>3475</v>
+        <v>3485</v>
       </c>
       <c r="F80" s="55" t="s">
         <v>50</v>
@@ -66357,13 +66467,13 @@
         <v>biohazard</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>3476</v>
+        <v>3486</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>3477</v>
+        <v>3487</v>
       </c>
       <c r="F81" s="55" t="s">
         <v>50</v>
@@ -66382,13 +66492,13 @@
         <v>bird</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>3478</v>
+        <v>3488</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>3479</v>
+        <v>3489</v>
       </c>
       <c r="F82" s="55" t="s">
         <v>50</v>
@@ -66407,13 +66517,13 @@
         <v>birthday</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>3480</v>
+        <v>3490</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>3481</v>
+        <v>3491</v>
       </c>
       <c r="F83" s="55" t="s">
         <v>50</v>
@@ -66432,13 +66542,13 @@
         <v>blanket</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>3482</v>
+        <v>3492</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>3483</v>
+        <v>3493</v>
       </c>
       <c r="F84" s="55" t="s">
         <v>50</v>
@@ -66457,13 +66567,13 @@
         <v>blazer</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>3485</v>
+        <v>3495</v>
       </c>
       <c r="F85" s="55" t="s">
         <v>50</v>
@@ -66482,13 +66592,13 @@
         <v>blouse</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3486</v>
+        <v>3496</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>3487</v>
+        <v>3497</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>50</v>
@@ -66507,13 +66617,13 @@
         <v>Blue Mahoe</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>3488</v>
+        <v>3498</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>3489</v>
+        <v>3499</v>
       </c>
       <c r="F87" s="55" t="s">
         <v>50</v>
@@ -66532,13 +66642,13 @@
         <v>Blue Mountain </v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>3490</v>
+        <v>3500</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>3491</v>
+        <v>3501</v>
       </c>
       <c r="F88" s="55" t="s">
         <v>50</v>
@@ -66557,13 +66667,13 @@
         <v>body</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>3492</v>
+        <v>3502</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>50</v>
@@ -66582,13 +66692,13 @@
         <v>book</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>3493</v>
+        <v>3503</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>3494</v>
+        <v>3504</v>
       </c>
       <c r="F90" s="55" t="s">
         <v>50</v>
@@ -66607,13 +66717,13 @@
         <v>boots</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>3495</v>
+        <v>3505</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>3496</v>
+        <v>3506</v>
       </c>
       <c r="F91" s="55" t="s">
         <v>50</v>
@@ -66632,13 +66742,13 @@
         <v>bounce</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>3497</v>
+        <v>3507</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>50</v>
@@ -66657,13 +66767,13 @@
         <v>bread</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>3498</v>
+        <v>3508</v>
       </c>
       <c r="F93" s="55" t="s">
         <v>50</v>
@@ -66682,13 +66792,13 @@
         <v>breakfast</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>3499</v>
+        <v>3509</v>
       </c>
       <c r="F94" s="55" t="s">
         <v>50</v>
@@ -66707,13 +66817,13 @@
         <v>broom</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>3500</v>
+        <v>3510</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>50</v>
@@ -66732,13 +66842,13 @@
         <v>brother</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>3501</v>
+        <v>3511</v>
       </c>
       <c r="F96" s="55" t="s">
         <v>50</v>
@@ -66757,13 +66867,13 @@
         <v>bull in a pen</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>3502</v>
+        <v>3512</v>
       </c>
       <c r="F97" s="55" t="s">
         <v>50</v>
@@ -66782,13 +66892,13 @@
         <v>butter</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D98" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>3503</v>
+        <v>3513</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>50</v>
@@ -66807,13 +66917,13 @@
         <v>button</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>3504</v>
+        <v>3514</v>
       </c>
       <c r="F99" s="55" t="s">
         <v>50</v>
@@ -66832,13 +66942,13 @@
         <v>cake</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>3505</v>
+        <v>3515</v>
       </c>
       <c r="F100" s="55" t="s">
         <v>50</v>
@@ -66857,13 +66967,13 @@
         <v>calendar</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="F101" s="55" t="s">
         <v>50</v>
@@ -66882,13 +66992,13 @@
         <v>callaloo</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D102" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>3507</v>
+        <v>3517</v>
       </c>
       <c r="F102" s="55" t="s">
         <v>50</v>
@@ -66907,13 +67017,13 @@
         <v>captain</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D103" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>3508</v>
+        <v>3518</v>
       </c>
       <c r="F103" s="55" t="s">
         <v>50</v>
@@ -66932,13 +67042,13 @@
         <v>car</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D104" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>3509</v>
+        <v>3519</v>
       </c>
       <c r="F104" s="55" t="s">
         <v>50</v>
@@ -66957,13 +67067,13 @@
         <v>carbohydrate</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D105" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>3510</v>
+        <v>3520</v>
       </c>
       <c r="F105" s="55" t="s">
         <v>50</v>
@@ -66982,13 +67092,13 @@
         <v>cardigan</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D106" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>3511</v>
+        <v>3521</v>
       </c>
       <c r="F106" s="55" t="s">
         <v>50</v>
@@ -67007,13 +67117,13 @@
         <v>career</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D107" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>3512</v>
+        <v>3522</v>
       </c>
       <c r="F107" s="55" t="s">
         <v>50</v>
@@ -67032,13 +67142,13 @@
         <v>cargo pants</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D108" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>3513</v>
+        <v>3523</v>
       </c>
       <c r="F108" s="55" t="s">
         <v>50</v>
@@ -67057,13 +67167,13 @@
         <v>carpet</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D109" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>3514</v>
+        <v>3524</v>
       </c>
       <c r="F109" s="55" t="s">
         <v>50</v>
@@ -67082,13 +67192,13 @@
         <v>cartoon</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D110" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>3515</v>
+        <v>3525</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>50</v>
@@ -67107,13 +67217,13 @@
         <v>cat</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D111" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>3516</v>
+        <v>3526</v>
       </c>
       <c r="F111" s="55" t="s">
         <v>50</v>
@@ -67132,13 +67242,13 @@
         <v>catalogue</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D112" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>3517</v>
+        <v>3527</v>
       </c>
       <c r="F112" s="55" t="s">
         <v>50</v>
@@ -67157,13 +67267,13 @@
         <v>catch</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D113" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>3518</v>
+        <v>3528</v>
       </c>
       <c r="F113" s="55" t="s">
         <v>50</v>
@@ -67182,13 +67292,13 @@
         <v>caution</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D114" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>3519</v>
+        <v>3529</v>
       </c>
       <c r="F114" s="55" t="s">
         <v>50</v>
@@ -67207,13 +67317,13 @@
         <v>cell phone</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D115" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>3520</v>
+        <v>3530</v>
       </c>
       <c r="F115" s="55" t="s">
         <v>50</v>
@@ -67232,13 +67342,13 @@
         <v>Celsius</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D116" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>3521</v>
+        <v>3531</v>
       </c>
       <c r="F116" s="55" t="s">
         <v>50</v>
@@ -67257,13 +67367,13 @@
         <v>century</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D117" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E117" s="55" t="s">
-        <v>3522</v>
+        <v>3532</v>
       </c>
       <c r="F117" s="55" t="s">
         <v>50</v>
@@ -67282,16 +67392,16 @@
         <v>cereal</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>2199</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>3523</v>
+        <v>3533</v>
       </c>
       <c r="F118" s="55" t="s">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="G118" s="55" t="s">
         <v>50</v>
@@ -67307,13 +67417,13 @@
         <v>chair</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>3525</v>
+        <v>3535</v>
       </c>
       <c r="E119" s="55" t="s">
-        <v>3526</v>
+        <v>3536</v>
       </c>
       <c r="F119" s="55" t="s">
         <v>50</v>
@@ -67332,13 +67442,13 @@
         <v>chalkboard</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>3527</v>
+        <v>3537</v>
       </c>
       <c r="E120" s="55" t="s">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="F120" s="55" t="s">
         <v>50</v>
@@ -67357,13 +67467,13 @@
         <v>chapter</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>3529</v>
+        <v>3539</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>3530</v>
+        <v>3540</v>
       </c>
       <c r="F121" s="55" t="s">
         <v>50</v>
@@ -67382,13 +67492,13 @@
         <v>characters</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>3531</v>
+        <v>3541</v>
       </c>
       <c r="E122" s="55" t="s">
-        <v>3532</v>
+        <v>3542</v>
       </c>
       <c r="F122" s="55" t="s">
         <v>50</v>
@@ -67407,13 +67517,13 @@
         <v>characters</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>3533</v>
+        <v>3543</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>3534</v>
+        <v>3544</v>
       </c>
       <c r="F123" s="55" t="s">
         <v>50</v>
@@ -67432,13 +67542,13 @@
         <v>checklist </v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D124" s="55" t="s">
-        <v>3535</v>
+        <v>3545</v>
       </c>
       <c r="E124" s="55" t="s">
-        <v>3536</v>
+        <v>3546</v>
       </c>
       <c r="F124" s="55" t="s">
         <v>50</v>
@@ -67457,13 +67567,13 @@
         <v>Chest</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>3537</v>
+        <v>3547</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>3538</v>
+        <v>3548</v>
       </c>
       <c r="F125" s="55" t="s">
         <v>50</v>
@@ -67482,13 +67592,13 @@
         <v>chicken</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D126" s="55" t="s">
-        <v>3539</v>
+        <v>3549</v>
       </c>
       <c r="E126" s="55" t="s">
-        <v>3540</v>
+        <v>3550</v>
       </c>
       <c r="F126" s="55" t="s">
         <v>50</v>
@@ -67507,13 +67617,13 @@
         <v>chiney-skip</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D127" s="55" t="s">
         <v>1771</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>3541</v>
+        <v>3551</v>
       </c>
       <c r="F127" s="55" t="s">
         <v>50</v>
@@ -67532,16 +67642,16 @@
         <v>Christmas</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D128" s="55" t="s">
-        <v>3542</v>
+        <v>3552</v>
       </c>
       <c r="E128" s="55" t="s">
-        <v>3543</v>
+        <v>3553</v>
       </c>
       <c r="F128" s="55" t="s">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="G128" s="55" t="s">
         <v>692</v>
@@ -67557,13 +67667,13 @@
         <v>church</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>3544</v>
+        <v>3554</v>
       </c>
       <c r="E129" s="55" t="s">
-        <v>3545</v>
+        <v>3555</v>
       </c>
       <c r="F129" s="55" t="s">
         <v>50</v>
@@ -67582,13 +67692,13 @@
         <v>circle graph</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D130" s="55" t="s">
-        <v>3546</v>
+        <v>3556</v>
       </c>
       <c r="E130" s="55" t="s">
-        <v>3547</v>
+        <v>3557</v>
       </c>
       <c r="F130" s="55" t="s">
         <v>50</v>
@@ -67607,7 +67717,7 @@
         <v>clap</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D131" s="55" t="s">
         <v>50</v>
@@ -67616,10 +67726,10 @@
         <v>50</v>
       </c>
       <c r="F131" s="55" t="s">
-        <v>3548</v>
+        <v>3558</v>
       </c>
       <c r="G131" s="55" t="s">
-        <v>3548</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="132">
@@ -67632,13 +67742,13 @@
         <v>Clarendon</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>3549</v>
+        <v>3559</v>
       </c>
       <c r="E132" s="55" t="s">
-        <v>3550</v>
+        <v>3560</v>
       </c>
       <c r="F132" s="55" t="s">
         <v>50</v>
@@ -67657,13 +67767,13 @@
         <v>classroom</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E133" s="55" t="s">
-        <v>3551</v>
+        <v>3561</v>
       </c>
       <c r="F133" s="55" t="s">
         <v>50</v>
@@ -67682,13 +67792,13 @@
         <v>coat</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>3552</v>
+        <v>3562</v>
       </c>
       <c r="E134" s="55" t="s">
-        <v>3553</v>
+        <v>3563</v>
       </c>
       <c r="F134" s="55" t="s">
         <v>50</v>
@@ -67707,13 +67817,13 @@
         <v>collar</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>3554</v>
+        <v>3564</v>
       </c>
       <c r="E135" s="55" t="s">
-        <v>3555</v>
+        <v>3565</v>
       </c>
       <c r="F135" s="55" t="s">
         <v>50</v>
@@ -67732,13 +67842,13 @@
         <v>cold</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>3556</v>
+        <v>3566</v>
       </c>
       <c r="E136" s="55" t="s">
-        <v>3557</v>
+        <v>3567</v>
       </c>
       <c r="F136" s="55" t="s">
         <v>50</v>
@@ -67757,13 +67867,13 @@
         <v>cuff</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D137" s="55" t="s">
-        <v>3558</v>
+        <v>3568</v>
       </c>
       <c r="E137" s="55" t="s">
-        <v>3559</v>
+        <v>3569</v>
       </c>
       <c r="F137" s="55" t="s">
         <v>50</v>
@@ -67782,13 +67892,13 @@
         <v>community</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D138" s="55" t="s">
-        <v>3560</v>
+        <v>3570</v>
       </c>
       <c r="E138" s="55" t="s">
-        <v>3561</v>
+        <v>3571</v>
       </c>
       <c r="F138" s="55" t="s">
         <v>50</v>
@@ -67807,13 +67917,13 @@
         <v>competition</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>3562</v>
+        <v>3572</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>3563</v>
+        <v>3573</v>
       </c>
       <c r="F139" s="55" t="s">
         <v>50</v>
@@ -67832,13 +67942,13 @@
         <v>concept</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D140" s="55" t="s">
-        <v>3564</v>
+        <v>3574</v>
       </c>
       <c r="E140" s="55" t="s">
-        <v>3565</v>
+        <v>3575</v>
       </c>
       <c r="F140" s="55" t="s">
         <v>50</v>
@@ -67857,13 +67967,13 @@
         <v>conductor</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D141" s="55" t="s">
-        <v>3566</v>
+        <v>3576</v>
       </c>
       <c r="E141" s="55" t="s">
-        <v>3567</v>
+        <v>3577</v>
       </c>
       <c r="F141" s="55" t="s">
         <v>50</v>
@@ -67882,13 +67992,13 @@
         <v>country</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D142" s="55" t="s">
-        <v>3568</v>
+        <v>3578</v>
       </c>
       <c r="E142" s="55" t="s">
-        <v>3569</v>
+        <v>3579</v>
       </c>
       <c r="F142" s="55" t="s">
         <v>50</v>
@@ -67907,16 +68017,16 @@
         <v>couplet </v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D143" s="55" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="55" t="s">
-        <v>3570</v>
+        <v>3580</v>
       </c>
       <c r="F143" s="55" t="s">
-        <v>3571</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="144">
@@ -67929,13 +68039,13 @@
         <v>cousin</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D144" s="55" t="s">
-        <v>3572</v>
+        <v>3582</v>
       </c>
       <c r="E144" s="55" t="s">
-        <v>3573</v>
+        <v>3583</v>
       </c>
       <c r="F144" s="55" t="s">
         <v>50</v>
@@ -67954,13 +68064,13 @@
         <v>cover page</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>3574</v>
+        <v>3584</v>
       </c>
       <c r="E145" s="55" t="s">
-        <v>3575</v>
+        <v>3585</v>
       </c>
       <c r="F145" s="55" t="s">
         <v>50</v>
@@ -67979,13 +68089,13 @@
         <v>cow</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D146" s="55" t="s">
-        <v>3576</v>
+        <v>3586</v>
       </c>
       <c r="E146" s="55" t="s">
-        <v>3577</v>
+        <v>3587</v>
       </c>
       <c r="F146" s="55" t="s">
         <v>50</v>
@@ -68004,13 +68114,13 @@
         <v>CPR</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D147" s="55" t="s">
-        <v>3578</v>
+        <v>3588</v>
       </c>
       <c r="E147" s="55" t="s">
-        <v>3579</v>
+        <v>3589</v>
       </c>
       <c r="F147" s="55" t="s">
         <v>50</v>
@@ -68029,13 +68139,13 @@
         <v>crab</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>3580</v>
+        <v>3590</v>
       </c>
       <c r="E148" s="55" t="s">
-        <v>3581</v>
+        <v>3591</v>
       </c>
       <c r="F148" s="55" t="s">
         <v>50</v>
@@ -68054,13 +68164,13 @@
         <v>Creole</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D149" s="55" t="s">
-        <v>3582</v>
+        <v>3592</v>
       </c>
       <c r="E149" s="55" t="s">
-        <v>3583</v>
+        <v>3593</v>
       </c>
       <c r="F149" s="55" t="s">
         <v>50</v>
@@ -68079,13 +68189,13 @@
         <v>cricket</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D150" s="55" t="s">
-        <v>3584</v>
+        <v>3594</v>
       </c>
       <c r="E150" s="55" t="s">
-        <v>3585</v>
+        <v>3595</v>
       </c>
       <c r="F150" s="55" t="s">
         <v>50</v>
@@ -68104,7 +68214,7 @@
         <v>crocodile</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>50</v>
@@ -68129,13 +68239,13 @@
         <v>curtains</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D152" s="55" t="s">
-        <v>3586</v>
+        <v>3596</v>
       </c>
       <c r="E152" s="55" t="s">
-        <v>3587</v>
+        <v>3597</v>
       </c>
       <c r="F152" s="55" t="s">
         <v>50</v>
@@ -68154,7 +68264,7 @@
         <v>cursive</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D153" s="55" t="s">
         <v>50</v>
@@ -68179,7 +68289,7 @@
         <v>dining room</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D154" s="55" t="s">
         <v>50</v>
@@ -68204,7 +68314,7 @@
         <v>dance</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D155" s="55" t="s">
         <v>50</v>
@@ -68229,7 +68339,7 @@
         <v>dandy-shandy</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D156" s="55" t="s">
         <v>50</v>
@@ -68254,7 +68364,7 @@
         <v>danger</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D157" s="55" t="s">
         <v>50</v>
@@ -68279,13 +68389,13 @@
         <v>data</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D158" s="55" t="s">
-        <v>3588</v>
+        <v>3598</v>
       </c>
       <c r="E158" s="55" t="s">
-        <v>3589</v>
+        <v>3599</v>
       </c>
       <c r="F158" s="55" t="s">
         <v>50</v>
@@ -68304,13 +68414,13 @@
         <v>December</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D159" s="55" t="s">
-        <v>3590</v>
+        <v>3600</v>
       </c>
       <c r="E159" s="55" t="s">
-        <v>3591</v>
+        <v>3601</v>
       </c>
       <c r="F159" s="55" t="s">
         <v>50</v>
@@ -68329,13 +68439,13 @@
         <v>deed</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D160" s="55" t="s">
-        <v>3592</v>
+        <v>3602</v>
       </c>
       <c r="E160" s="55" t="s">
-        <v>3593</v>
+        <v>3603</v>
       </c>
       <c r="F160" s="55" t="s">
         <v>50</v>
@@ -68354,7 +68464,7 @@
         <v>degrees</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D161" s="55" t="s">
         <v>50</v>
@@ -68379,13 +68489,13 @@
         <v>description</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D162" s="55" t="s">
-        <v>3594</v>
+        <v>3604</v>
       </c>
       <c r="E162" s="55" t="s">
-        <v>3595</v>
+        <v>3605</v>
       </c>
       <c r="F162" s="55" t="s">
         <v>50</v>
@@ -68404,7 +68514,7 @@
         <v>desperation</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D163" s="55" t="s">
         <v>50</v>
@@ -68429,13 +68539,13 @@
         <v>Devon House</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D164" s="55" t="s">
-        <v>3596</v>
+        <v>3606</v>
       </c>
       <c r="E164" s="55" t="s">
-        <v>3597</v>
+        <v>3607</v>
       </c>
       <c r="F164" s="55" t="s">
         <v>50</v>
@@ -68454,13 +68564,13 @@
         <v>dialogue</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D165" s="55" t="s">
-        <v>3598</v>
+        <v>3608</v>
       </c>
       <c r="E165" s="55" t="s">
-        <v>3599</v>
+        <v>3609</v>
       </c>
       <c r="F165" s="55" t="s">
         <v>50</v>
@@ -68479,13 +68589,13 @@
         <v>different</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D166" s="55" t="s">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="E166" s="55" t="s">
-        <v>3601</v>
+        <v>3611</v>
       </c>
       <c r="F166" s="55" t="s">
         <v>50</v>
@@ -68504,13 +68614,13 @@
         <v>door</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D167" s="55" t="s">
-        <v>3602</v>
+        <v>3612</v>
       </c>
       <c r="E167" s="55" t="s">
-        <v>3603</v>
+        <v>3613</v>
       </c>
       <c r="F167" s="55" t="s">
         <v>50</v>
@@ -68529,13 +68639,13 @@
         <v>dinner</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D168" s="55" t="s">
         <v>2585</v>
       </c>
       <c r="E168" s="55" t="s">
-        <v>3604</v>
+        <v>3614</v>
       </c>
       <c r="F168" s="55" t="s">
         <v>50</v>
@@ -68554,13 +68664,13 @@
         <v>disaster</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D169" s="55" t="s">
-        <v>3605</v>
+        <v>3615</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>3606</v>
+        <v>3616</v>
       </c>
       <c r="F169" s="55" t="s">
         <v>50</v>
@@ -68579,13 +68689,13 @@
         <v>dislike</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D170" s="55" t="s">
-        <v>3607</v>
+        <v>3617</v>
       </c>
       <c r="E170" s="55" t="s">
-        <v>3608</v>
+        <v>3618</v>
       </c>
       <c r="F170" s="55" t="s">
         <v>50</v>
@@ -68604,7 +68714,7 @@
         <v>dodge</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D171" s="55" t="s">
         <v>50</v>
@@ -68629,13 +68739,13 @@
         <v>dog</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D172" s="55" t="s">
-        <v>3609</v>
+        <v>3619</v>
       </c>
       <c r="E172" s="55" t="s">
-        <v>3610</v>
+        <v>3620</v>
       </c>
       <c r="F172" s="55" t="s">
         <v>50</v>
@@ -68654,13 +68764,13 @@
         <v>dolphin</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>3611</v>
+        <v>3621</v>
       </c>
       <c r="E173" s="55" t="s">
-        <v>3612</v>
+        <v>3622</v>
       </c>
       <c r="F173" s="55" t="s">
         <v>50</v>
@@ -68679,13 +68789,13 @@
         <v>Dolphin Cove </v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>3613</v>
+        <v>3623</v>
       </c>
       <c r="E174" s="55" t="s">
-        <v>3614</v>
+        <v>3624</v>
       </c>
       <c r="F174" s="55" t="s">
         <v>50</v>
@@ -68704,13 +68814,13 @@
         <v>dress</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>3615</v>
+        <v>3625</v>
       </c>
       <c r="E175" s="55" t="s">
-        <v>3616</v>
+        <v>3626</v>
       </c>
       <c r="F175" s="55" t="s">
         <v>50</v>
@@ -68729,13 +68839,13 @@
         <v>down</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>3617</v>
+        <v>3627</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>3618</v>
+        <v>3628</v>
       </c>
       <c r="F176" s="55" t="s">
         <v>50</v>
@@ -68754,13 +68864,13 @@
         <v>dragon-fly</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>3619</v>
+        <v>3629</v>
       </c>
       <c r="E177" s="55" t="s">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="F177" s="55" t="s">
         <v>50</v>
@@ -68779,7 +68889,7 @@
         <v>dryer</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D178" s="55" t="s">
         <v>50</v>
@@ -68804,13 +68914,13 @@
         <v>flip flops</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D179" s="55" t="s">
-        <v>3621</v>
+        <v>3631</v>
       </c>
       <c r="E179" s="55" t="s">
-        <v>3622</v>
+        <v>3632</v>
       </c>
       <c r="F179" s="55" t="s">
         <v>50</v>
@@ -68829,13 +68939,13 @@
         <v>dumpling</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>3623</v>
+        <v>3633</v>
       </c>
       <c r="E180" s="55" t="s">
-        <v>3624</v>
+        <v>3634</v>
       </c>
       <c r="F180" s="55" t="s">
         <v>50</v>
@@ -68854,13 +68964,13 @@
         <v>Dunn's River Fallls</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>3625</v>
+        <v>3635</v>
       </c>
       <c r="E181" s="55" t="s">
-        <v>3626</v>
+        <v>3636</v>
       </c>
       <c r="F181" s="55" t="s">
         <v>50</v>
@@ -68879,13 +68989,13 @@
         <v>duration</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D182" s="55" t="s">
-        <v>3627</v>
+        <v>3637</v>
       </c>
       <c r="E182" s="55" t="s">
-        <v>3628</v>
+        <v>3638</v>
       </c>
       <c r="F182" s="55" t="s">
         <v>50</v>
@@ -68904,7 +69014,7 @@
         <v>dynamics</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D183" s="55" t="s">
         <v>50</v>
@@ -68929,7 +69039,7 @@
         <v>Ear</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D184" s="55" t="s">
         <v>50</v>
@@ -68938,10 +69048,10 @@
         <v>50</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>3629</v>
+        <v>3639</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>3629</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="185">
@@ -68954,13 +69064,13 @@
         <v>earthquake</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>3630</v>
+        <v>3640</v>
       </c>
       <c r="E185" s="55" t="s">
-        <v>3631</v>
+        <v>3641</v>
       </c>
       <c r="F185" s="55" t="s">
         <v>50</v>
@@ -68979,7 +69089,7 @@
         <v>egg</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>50</v>
@@ -69004,13 +69114,13 @@
         <v>Elbow</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>3632</v>
+        <v>3642</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>3633</v>
+        <v>3643</v>
       </c>
       <c r="F187" s="55" t="s">
         <v>50</v>
@@ -69029,13 +69139,13 @@
         <v>elder</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D188" s="55" t="s">
-        <v>3634</v>
+        <v>3644</v>
       </c>
       <c r="E188" s="55" t="s">
-        <v>3635</v>
+        <v>3645</v>
       </c>
       <c r="F188" s="55" t="s">
         <v>50</v>
@@ -69054,13 +69164,13 @@
         <v>Emanciapation Park </v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>3636</v>
+        <v>3646</v>
       </c>
       <c r="E189" s="55" t="s">
-        <v>3637</v>
+        <v>3647</v>
       </c>
       <c r="F189" s="55" t="s">
         <v>50</v>
@@ -69079,13 +69189,13 @@
         <v>emergency</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D190" s="55" t="s">
-        <v>3638</v>
+        <v>3648</v>
       </c>
       <c r="E190" s="55" t="s">
-        <v>3639</v>
+        <v>3649</v>
       </c>
       <c r="F190" s="55" t="s">
         <v>50</v>
@@ -69104,13 +69214,13 @@
         <v>end</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D191" s="55" t="s">
-        <v>3640</v>
+        <v>3650</v>
       </c>
       <c r="E191" s="55" t="s">
-        <v>3641</v>
+        <v>3651</v>
       </c>
       <c r="F191" s="55" t="s">
         <v>50</v>
@@ -69129,7 +69239,7 @@
         <v>endurance</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D192" s="55" t="s">
         <v>50</v>
@@ -69154,7 +69264,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>50</v>
@@ -69179,7 +69289,7 @@
         <v>environment</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D194" s="55" t="s">
         <v>50</v>
@@ -69204,7 +69314,7 @@
         <v>estimation</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D195" s="55" t="s">
         <v>50</v>
@@ -69229,7 +69339,7 @@
         <v>ethnic</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>50</v>
@@ -69254,13 +69364,13 @@
         <v>Europe</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>3642</v>
+        <v>3652</v>
       </c>
       <c r="E197" s="55" t="s">
-        <v>3643</v>
+        <v>3653</v>
       </c>
       <c r="F197" s="55" t="s">
         <v>50</v>
@@ -69279,13 +69389,13 @@
         <v>evcuation plan</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>3644</v>
+        <v>3654</v>
       </c>
       <c r="E198" s="55" t="s">
-        <v>3645</v>
+        <v>3655</v>
       </c>
       <c r="F198" s="55" t="s">
         <v>50</v>
@@ -69304,13 +69414,13 @@
         <v>evening</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>3646</v>
+        <v>3656</v>
       </c>
       <c r="E199" s="55" t="s">
-        <v>3647</v>
+        <v>3657</v>
       </c>
       <c r="F199" s="55" t="s">
         <v>50</v>
@@ -69329,13 +69439,13 @@
         <v>exercise</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>3648</v>
+        <v>3658</v>
       </c>
       <c r="E200" s="55" t="s">
-        <v>3649</v>
+        <v>3659</v>
       </c>
       <c r="F200" s="55" t="s">
         <v>50</v>
@@ -69354,13 +69464,13 @@
         <v>exit</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D201" s="55" t="s">
         <v>1091</v>
       </c>
       <c r="E201" s="55" t="s">
-        <v>3650</v>
+        <v>3660</v>
       </c>
       <c r="F201" s="55" t="s">
         <v>50</v>
@@ -69379,13 +69489,13 @@
         <v>exploration</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>3651</v>
+        <v>3661</v>
       </c>
       <c r="E202" s="55" t="s">
-        <v>3652</v>
+        <v>3662</v>
       </c>
       <c r="F202" s="55" t="s">
         <v>50</v>
@@ -69404,13 +69514,13 @@
         <v>explosive</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>3653</v>
+        <v>3663</v>
       </c>
       <c r="E203" s="55" t="s">
-        <v>3654</v>
+        <v>3664</v>
       </c>
       <c r="F203" s="55" t="s">
         <v>50</v>
@@ -69429,13 +69539,13 @@
         <v>Eye</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>3655</v>
+        <v>3665</v>
       </c>
       <c r="E204" s="55" t="s">
-        <v>3656</v>
+        <v>3666</v>
       </c>
       <c r="F204" s="55" t="s">
         <v>50</v>
@@ -69454,13 +69564,13 @@
         <v>fact</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>3657</v>
+        <v>3667</v>
       </c>
       <c r="E205" s="55" t="s">
-        <v>3658</v>
+        <v>3668</v>
       </c>
       <c r="F205" s="55" t="s">
         <v>50</v>
@@ -69479,7 +69589,7 @@
         <v>family</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D206" s="55" t="s">
         <v>50</v>
@@ -69504,13 +69614,13 @@
         <v>farmer</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D207" s="55" t="s">
         <v>223</v>
       </c>
       <c r="E207" s="55" t="s">
-        <v>3659</v>
+        <v>3669</v>
       </c>
       <c r="F207" s="55" t="s">
         <v>50</v>
@@ -69529,19 +69639,19 @@
         <v>fat</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>3660</v>
+        <v>3670</v>
       </c>
       <c r="E208" s="55" t="s">
-        <v>3661</v>
+        <v>3671</v>
       </c>
       <c r="F208" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G208" s="55" t="s">
-        <v>3662</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="209">
@@ -69554,19 +69664,19 @@
         <v>father</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>3663</v>
+        <v>3673</v>
       </c>
       <c r="E209" s="55" t="s">
-        <v>3664</v>
+        <v>3674</v>
       </c>
       <c r="F209" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G209" s="55" t="s">
-        <v>3665</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="210">
@@ -69579,13 +69689,13 @@
         <v>February</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>3666</v>
+        <v>3676</v>
       </c>
       <c r="E210" s="55" t="s">
-        <v>3667</v>
+        <v>3677</v>
       </c>
       <c r="F210" s="55" t="s">
         <v>622</v>
@@ -69604,13 +69714,13 @@
         <v>feeling</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>3668</v>
+        <v>3678</v>
       </c>
       <c r="E211" s="55" t="s">
-        <v>3669</v>
+        <v>3679</v>
       </c>
       <c r="F211" s="55" t="s">
         <v>50</v>
@@ -69629,7 +69739,7 @@
         <v>feet</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D212" s="55" t="s">
         <v>50</v>
@@ -69654,7 +69764,7 @@
         <v>fiction</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D213" s="55" t="s">
         <v>50</v>
@@ -69679,7 +69789,7 @@
         <v>Fingers</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D214" s="55" t="s">
         <v>50</v>
@@ -69704,7 +69814,7 @@
         <v>fire</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D215" s="55" t="s">
         <v>50</v>
@@ -69729,7 +69839,7 @@
         <v>first aid</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>50</v>
@@ -69754,7 +69864,7 @@
         <v>fish</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D217" s="55" t="s">
         <v>50</v>
@@ -69779,7 +69889,7 @@
         <v>furniture</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D218" s="55" t="s">
         <v>50</v>
@@ -69804,7 +69914,7 @@
         <v>flood</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>50</v>
@@ -69829,7 +69939,7 @@
         <v>folk-tales</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D220" s="55" t="s">
         <v>50</v>
@@ -69854,7 +69964,7 @@
         <v>food</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D221" s="55" t="s">
         <v>50</v>
@@ -69879,7 +69989,7 @@
         <v>Foot</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D222" s="55" t="s">
         <v>50</v>
@@ -69904,7 +70014,7 @@
         <v>football</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D223" s="55" t="s">
         <v>50</v>
@@ -69929,7 +70039,7 @@
         <v>forehead</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D224" s="55" t="s">
         <v>50</v>
@@ -69954,7 +70064,7 @@
         <v>fowl</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D225" s="55" t="s">
         <v>50</v>
@@ -69979,7 +70089,7 @@
         <v>fractions</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>50</v>
@@ -70004,7 +70114,7 @@
         <v>Friday</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D227" s="55" t="s">
         <v>50</v>
@@ -70029,7 +70139,7 @@
         <v>friend</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D228" s="55" t="s">
         <v>50</v>
@@ -70054,7 +70164,7 @@
         <v>friend</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D229" s="55" t="s">
         <v>50</v>
@@ -70079,7 +70189,7 @@
         <v>friendship</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D230" s="55" t="s">
         <v>50</v>
@@ -70104,7 +70214,7 @@
         <v>frog</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D231" s="55" t="s">
         <v>50</v>
@@ -70129,7 +70239,7 @@
         <v>gloves</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D232" s="55" t="s">
         <v>50</v>
@@ -70154,7 +70264,7 @@
         <v>game</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D233" s="55" t="s">
         <v>50</v>
@@ -70179,7 +70289,7 @@
         <v>game</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D234" s="55" t="s">
         <v>50</v>
@@ -70204,7 +70314,7 @@
         <v>girl</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>3084</v>
+        <v>3094</v>
       </c>
       <c r="D235" s="55" t="s">
         <v>50</v>
@@ -74865,34 +74975,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>3082</v>
+        <v>3092</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>3303</v>
+        <v>3313</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>3670</v>
+        <v>3680</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>3671</v>
+        <v>3681</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>3672</v>
+        <v>3682</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>3673</v>
+        <v>3683</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>3674</v>
+        <v>3684</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>3675</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="2">
@@ -74905,28 +75015,28 @@
         <v>abstain</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>3676</v>
+        <v>3686</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>3677</v>
+        <v>3687</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>3678</v>
+        <v>3688</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>3679</v>
+        <v>3689</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>3680</v>
+        <v>3690</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>3681</v>
+        <v>3691</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>3682</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="3">
@@ -74939,28 +75049,28 @@
         <v>accomplish</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3683</v>
+        <v>3693</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3684</v>
+        <v>3694</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>3685</v>
+        <v>3695</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>3686</v>
+        <v>3696</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>3687</v>
+        <v>3697</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>3688</v>
+        <v>3698</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>3689</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="4">
@@ -74973,28 +75083,28 @@
         <v>accumulate</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3690</v>
+        <v>3700</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3691</v>
+        <v>3701</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>3692</v>
+        <v>3702</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>3693</v>
+        <v>3703</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>3694</v>
+        <v>3704</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>3695</v>
+        <v>3705</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>3696</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="5">
@@ -75007,28 +75117,28 @@
         <v>aggravate</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3697</v>
+        <v>3707</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3698</v>
+        <v>3708</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>3699</v>
+        <v>3709</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>3700</v>
+        <v>3710</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>3701</v>
+        <v>3711</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>3702</v>
+        <v>3712</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>3703</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="6">
@@ -75041,28 +75151,28 @@
         <v>aim</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3704</v>
+        <v>3714</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3705</v>
+        <v>3715</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>3706</v>
+        <v>3716</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>3707</v>
+        <v>3717</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>3708</v>
+        <v>3718</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>3709</v>
+        <v>3719</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>3710</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="7">
@@ -75075,28 +75185,28 @@
         <v>allocate</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3711</v>
+        <v>3721</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3712</v>
+        <v>3722</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>3713</v>
+        <v>3723</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>3714</v>
+        <v>3724</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>3715</v>
+        <v>3725</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>3716</v>
+        <v>3726</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>3717</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="8">
@@ -75109,28 +75219,28 @@
         <v>amplify</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3718</v>
+        <v>3728</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>1233</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>3719</v>
+        <v>3729</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>3720</v>
+        <v>3730</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>3721</v>
+        <v>3731</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>3722</v>
+        <v>3732</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>3723</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="9">
@@ -75143,28 +75253,28 @@
         <v>angle</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3724</v>
+        <v>3734</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3725</v>
+        <v>3735</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>3726</v>
+        <v>3736</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>3727</v>
+        <v>3737</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>3728</v>
+        <v>3738</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>3729</v>
+        <v>3739</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>3730</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="10">
@@ -75177,28 +75287,28 @@
         <v>answer</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3731</v>
+        <v>3741</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3732</v>
+        <v>3742</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>3733</v>
+        <v>3743</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>3734</v>
+        <v>3744</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>3735</v>
+        <v>3745</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>3736</v>
+        <v>3746</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>3737</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="11">
@@ -75211,28 +75321,28 @@
         <v>anticipate</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3738</v>
+        <v>3748</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3739</v>
+        <v>3749</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>3740</v>
+        <v>3750</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>3741</v>
+        <v>3751</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>3743</v>
+        <v>3753</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>3744</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="12">
@@ -75245,28 +75355,28 @@
         <v>apprehend</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3745</v>
+        <v>3755</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>3746</v>
+        <v>3756</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>3747</v>
+        <v>3757</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>3748</v>
+        <v>3758</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>3749</v>
+        <v>3759</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>3750</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="13">
@@ -75279,28 +75389,28 @@
         <v>arbirate</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>754</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3751</v>
+        <v>3761</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>3752</v>
+        <v>3762</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>3753</v>
+        <v>3763</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>3754</v>
+        <v>3764</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>3755</v>
+        <v>3765</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>3756</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="14">
@@ -75313,28 +75423,28 @@
         <v>ascend</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3757</v>
+        <v>3767</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3758</v>
+        <v>3768</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>3759</v>
+        <v>3769</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>3760</v>
+        <v>3770</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>3761</v>
+        <v>3771</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>3762</v>
+        <v>3772</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>3763</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="15">
@@ -75347,28 +75457,28 @@
         <v>ask</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3764</v>
+        <v>3774</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3765</v>
+        <v>3775</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>3766</v>
+        <v>3776</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>3767</v>
+        <v>3777</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>3768</v>
+        <v>3778</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>3769</v>
+        <v>3779</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>3770</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="16">
@@ -75381,28 +75491,28 @@
         <v>aspire</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3771</v>
+        <v>3781</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3772</v>
+        <v>3782</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>3773</v>
+        <v>3783</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>3774</v>
+        <v>3784</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>3775</v>
+        <v>3785</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>3776</v>
+        <v>3786</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>3777</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="17">
@@ -75415,28 +75525,28 @@
         <v>assemble</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3778</v>
+        <v>3788</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3779</v>
+        <v>3789</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>3781</v>
+        <v>3791</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>3782</v>
+        <v>3792</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>3783</v>
+        <v>3793</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>3784</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="18">
@@ -75449,28 +75559,28 @@
         <v>attack</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3785</v>
+        <v>3795</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3786</v>
+        <v>3796</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>3787</v>
+        <v>3797</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>3788</v>
+        <v>3798</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>3789</v>
+        <v>3799</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>3790</v>
+        <v>3800</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>3791</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="19">
@@ -75483,28 +75593,28 @@
         <v>authenicate</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3792</v>
+        <v>3802</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3793</v>
+        <v>3803</v>
       </c>
       <c r="F19" s="55" t="s">
         <v>2788</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>3794</v>
+        <v>3804</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>3795</v>
+        <v>3805</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>3796</v>
+        <v>3806</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>3797</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="20">
@@ -75517,28 +75627,28 @@
         <v>baby</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3798</v>
+        <v>3808</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3799</v>
+        <v>3809</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>3800</v>
+        <v>3810</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>3801</v>
+        <v>3811</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>3802</v>
+        <v>3812</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>3803</v>
+        <v>3813</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>3804</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="21">
@@ -75551,28 +75661,28 @@
         <v>back</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3805</v>
+        <v>3815</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3806</v>
+        <v>3816</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>3807</v>
+        <v>3817</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>3808</v>
+        <v>3818</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>3809</v>
+        <v>3819</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>3811</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="22">
@@ -75585,28 +75695,28 @@
         <v>bad</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3812</v>
+        <v>3822</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3813</v>
+        <v>3823</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>3814</v>
+        <v>3824</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>3815</v>
+        <v>3825</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>3816</v>
+        <v>3826</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>3817</v>
+        <v>3827</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>3818</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="23">
@@ -75619,28 +75729,28 @@
         <v>be</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3819</v>
+        <v>3829</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3820</v>
+        <v>3830</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>3821</v>
+        <v>3831</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>3822</v>
+        <v>3832</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>3823</v>
+        <v>3833</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>3824</v>
+        <v>3834</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>3825</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="24">
@@ -75653,28 +75763,28 @@
         <v>beach</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3826</v>
+        <v>3836</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3827</v>
+        <v>3837</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>3828</v>
+        <v>3838</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>3829</v>
+        <v>3839</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>3830</v>
+        <v>3840</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>3831</v>
+        <v>3841</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>3832</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="25">
@@ -75687,28 +75797,28 @@
         <v>beg</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3833</v>
+        <v>3843</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3834</v>
+        <v>3844</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>3835</v>
+        <v>3845</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>3836</v>
+        <v>3846</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>3837</v>
+        <v>3847</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>3838</v>
+        <v>3848</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>3839</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="26">
@@ -75721,28 +75831,28 @@
         <v>beginning</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3840</v>
+        <v>3850</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3841</v>
+        <v>3851</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>3842</v>
+        <v>3852</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>3843</v>
+        <v>3853</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>3844</v>
+        <v>3854</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>3845</v>
+        <v>3855</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>3846</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="27">
@@ -75755,28 +75865,28 @@
         <v>bend</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3847</v>
+        <v>3857</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3848</v>
+        <v>3858</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>3849</v>
+        <v>3859</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>3850</v>
+        <v>3860</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>3851</v>
+        <v>3861</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>3852</v>
+        <v>3862</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>3853</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="28">
@@ -75789,28 +75899,28 @@
         <v>boiled</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3854</v>
+        <v>3864</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3855</v>
+        <v>3865</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>3856</v>
+        <v>3866</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>3857</v>
+        <v>3867</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>3858</v>
+        <v>3868</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>3859</v>
+        <v>3869</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>3860</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="29">
@@ -75823,28 +75933,28 @@
         <v>bounce</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3861</v>
+        <v>3871</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3862</v>
+        <v>3872</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>3863</v>
+        <v>3873</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>3864</v>
+        <v>3874</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>3865</v>
+        <v>3875</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>3866</v>
+        <v>3876</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>3867</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="30">
@@ -75857,28 +75967,28 @@
         <v>boxing</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3868</v>
+        <v>3878</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3869</v>
+        <v>3879</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>3870</v>
+        <v>3880</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>3871</v>
+        <v>3881</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>3872</v>
+        <v>3882</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>3873</v>
+        <v>3883</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>3874</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="31">
@@ -75891,28 +76001,28 @@
         <v>brainstorm</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3724</v>
+        <v>3734</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>3875</v>
+        <v>3885</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>3726</v>
+        <v>3736</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>3727</v>
+        <v>3737</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>3728</v>
+        <v>3738</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>3729</v>
+        <v>3739</v>
       </c>
       <c r="J31" s="58" t="s">
-        <v>3730</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="32">
@@ -75925,28 +76035,28 @@
         <v>bread</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3876</v>
+        <v>3886</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3877</v>
+        <v>3887</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>3879</v>
+        <v>3889</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>3880</v>
+        <v>3890</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>3881</v>
+        <v>3891</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>3882</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="33">
@@ -75959,28 +76069,28 @@
         <v>breakfast</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3738</v>
+        <v>3748</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3883</v>
+        <v>3893</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>3740</v>
+        <v>3750</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>3741</v>
+        <v>3751</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>3743</v>
+        <v>3753</v>
       </c>
       <c r="J33" s="58" t="s">
-        <v>3744</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="34">
@@ -75993,22 +76103,22 @@
         <v>burn</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>3884</v>
+        <v>3894</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>3885</v>
+        <v>3895</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>3886</v>
+        <v>3896</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3887</v>
+        <v>3897</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>3888</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="35">
@@ -76021,28 +76131,28 @@
         <v>butter</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3889</v>
+        <v>3899</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3890</v>
+        <v>3900</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>3891</v>
+        <v>3901</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>3892</v>
+        <v>3902</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>3893</v>
+        <v>3903</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>3894</v>
+        <v>3904</v>
       </c>
       <c r="J35" s="58" t="s">
-        <v>3895</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="36">
@@ -81890,7 +82000,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>

--- a/app/Vocab list.xlsx
+++ b/app/Vocab list.xlsx
@@ -18,11 +18,11 @@
   <definedNames>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Adjectives!$A$1:$E$118</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">Tense!$B$1:$J$210</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_88B84655_F87D_49BF_A0C4_57E70660505C_.wvu.FilterData">Words!$A$3:$J$791</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EF37B758_EE2B_4163_8442_129C7087316B_.wvu.FilterData">Words!$A$3:$J$791</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{88B84655-F87D-49BF-A0C4-57E70660505C}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EF37B758-EE2B-4163-8442-129C7087316B}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="3948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="3958">
   <si>
     <t>word</t>
   </si>
@@ -9320,6 +9320,36 @@
   </si>
   <si>
     <t>Can i have a sticker</t>
+  </si>
+  <si>
+    <t>I can't find my toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I play </t>
+  </si>
+  <si>
+    <t>Can I use the marker</t>
+  </si>
+  <si>
+    <t>Can I use the glue stick</t>
+  </si>
+  <si>
+    <t>Can I use the crayons</t>
+  </si>
+  <si>
+    <t>May I use the computer</t>
+  </si>
+  <si>
+    <t>Can you help me with my homework</t>
+  </si>
+  <si>
+    <t>Can I have chicken for dinner</t>
+  </si>
+  <si>
+    <t>Can I have a sandwich</t>
+  </si>
+  <si>
+    <t>Can you explain</t>
   </si>
   <si>
     <t>pos_id</t>
@@ -41393,7 +41423,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{88B84655-F87D-49BF-A0C4-57E70660505C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EF37B758-EE2B-4163-8442-129C7087316B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$3:$J$791">
         <filterColumn colId="2">
           <filters>
@@ -42432,7 +42462,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>3110</v>
+        <v>3120</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
@@ -42539,19 +42569,19 @@
     <row r="1">
       <c r="A1" s="52"/>
       <c r="B1" s="62" t="s">
-        <v>3906</v>
+        <v>3916</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>3907</v>
+        <v>3917</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>3908</v>
+        <v>3918</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>3313</v>
+        <v>3323</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>3909</v>
+        <v>3919</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>2</v>
@@ -42563,7 +42593,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>3910</v>
+        <v>3920</v>
       </c>
       <c r="K1" s="9"/>
       <c r="O1" s="52" t="s">
@@ -42580,10 +42610,10 @@
       </c>
       <c r="D2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>16</v>
@@ -42600,10 +42630,10 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>20</v>
@@ -42620,10 +42650,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>23</v>
@@ -42640,13 +42670,13 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>3913</v>
+        <v>3923</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>27</v>
@@ -42660,13 +42690,13 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>3914</v>
+        <v>3924</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>30</v>
@@ -42680,10 +42710,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>32</v>
@@ -42700,10 +42730,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>35</v>
@@ -42717,10 +42747,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>37</v>
@@ -42734,10 +42764,10 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>3912</v>
+        <v>3922</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>1311</v>
@@ -42751,10 +42781,10 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="12">
@@ -42765,10 +42795,10 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="13">
@@ -42779,100 +42809,100 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>3916</v>
+        <v>3926</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>3917</v>
+        <v>3927</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>3918</v>
+        <v>3928</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>3919</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>3920</v>
+        <v>3930</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>3919</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>3922</v>
+        <v>3932</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="20">
@@ -42883,122 +42913,122 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>3923</v>
+        <v>3933</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>3924</v>
+        <v>3934</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>3925</v>
+        <v>3935</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>3926</v>
+        <v>3936</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>3927</v>
+        <v>3937</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>3928</v>
+        <v>3938</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>3923</v>
+        <v>3933</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>3929</v>
+        <v>3939</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>3915</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="29">
@@ -43009,10 +43039,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>3930</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="30">
@@ -43023,10 +43053,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>3930</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="31">
@@ -43037,10 +43067,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>3930</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="32">
@@ -43051,10 +43081,10 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="33">
@@ -43065,10 +43095,10 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="34">
@@ -43079,10 +43109,10 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="35">
@@ -43093,10 +43123,10 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="36">
@@ -43107,10 +43137,10 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="37">
@@ -43121,10 +43151,10 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="38">
@@ -43135,10 +43165,10 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>3911</v>
+        <v>3921</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="39">
@@ -43368,7 +43398,7 @@
     <row r="55">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>3932</v>
+        <v>3942</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -43914,7 +43944,7 @@
     <row r="94">
       <c r="A94" s="55"/>
       <c r="B94" s="55" t="s">
-        <v>3933</v>
+        <v>3943</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -43942,7 +43972,7 @@
     <row r="96">
       <c r="A96" s="55"/>
       <c r="B96" s="55" t="s">
-        <v>3447</v>
+        <v>3457</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -43964,7 +43994,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="98">
@@ -43978,7 +44008,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="99">
@@ -43992,7 +44022,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="100">
@@ -44006,7 +44036,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="101">
@@ -44020,7 +44050,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="102">
@@ -44034,7 +44064,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="103">
@@ -44048,7 +44078,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>3934</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="104">
@@ -44062,7 +44092,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>3935</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="105">
@@ -44194,7 +44224,7 @@
     <row r="114">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>3936</v>
+        <v>3946</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -44384,7 +44414,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="128">
@@ -44398,7 +44428,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="129">
@@ -44412,7 +44442,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="130">
@@ -44426,7 +44456,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="131">
@@ -44440,7 +44470,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="132">
@@ -44454,7 +44484,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="133">
@@ -44468,7 +44498,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="134">
@@ -44482,7 +44512,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="135">
@@ -44496,7 +44526,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="136">
@@ -44510,7 +44540,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="137">
@@ -44524,7 +44554,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="138">
@@ -44538,7 +44568,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>3937</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="139">
@@ -44552,7 +44582,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="140">
@@ -44566,7 +44596,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="141">
@@ -44580,7 +44610,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="142">
@@ -44594,7 +44624,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="143">
@@ -44608,7 +44638,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="144">
@@ -44622,7 +44652,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="145">
@@ -44636,7 +44666,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="146">
@@ -44650,7 +44680,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="147">
@@ -44664,7 +44694,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="148">
@@ -44678,7 +44708,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="149">
@@ -44692,7 +44722,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="150">
@@ -44706,7 +44736,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="151">
@@ -44720,7 +44750,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="152">
@@ -44734,7 +44764,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="153">
@@ -44748,13 +44778,13 @@
         <v>10</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>3939</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>3940</v>
+        <v>3950</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -44762,7 +44792,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>3941</v>
+        <v>3951</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>1311</v>
@@ -44779,7 +44809,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>3941</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="156">
@@ -44793,7 +44823,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>3941</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="157">
@@ -44807,7 +44837,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>3941</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="158">
@@ -44821,7 +44851,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>3941</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="159">
@@ -44835,7 +44865,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>3941</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="160">
@@ -44849,7 +44879,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="161">
@@ -44863,7 +44893,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="162">
@@ -44877,7 +44907,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="163">
@@ -44891,7 +44921,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="164">
@@ -44905,7 +44935,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>3942</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="165">
@@ -44919,13 +44949,13 @@
         <v>53</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>3944</v>
+        <v>3954</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -44933,7 +44963,7 @@
         <v>53</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="167">
@@ -44947,7 +44977,7 @@
         <v>53</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="168">
@@ -44961,7 +44991,7 @@
         <v>53</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="169">
@@ -44975,7 +45005,7 @@
         <v>53</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="170">
@@ -44989,7 +45019,7 @@
         <v>53</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="171">
@@ -45003,7 +45033,7 @@
         <v>53</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="172">
@@ -45017,7 +45047,7 @@
         <v>53</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="173">
@@ -45031,7 +45061,7 @@
         <v>53</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="174">
@@ -45045,7 +45075,7 @@
         <v>53</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="175">
@@ -45059,7 +45089,7 @@
         <v>53</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="176">
@@ -45073,7 +45103,7 @@
         <v>53</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="177">
@@ -45082,10 +45112,10 @@
         <v>659</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="178">
@@ -45094,10 +45124,10 @@
         <v>630</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="179">
@@ -45106,10 +45136,10 @@
         <v>1219</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="180">
@@ -45118,10 +45148,10 @@
         <v>323</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="181">
@@ -45130,22 +45160,22 @@
         <v>551</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>3945</v>
+        <v>3955</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="183">
@@ -45154,10 +45184,10 @@
         <v>1569</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="184">
@@ -45166,10 +45196,10 @@
         <v>1524</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="185">
@@ -45178,22 +45208,22 @@
         <v>1516</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
-        <v>3562</v>
+        <v>3572</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="187">
@@ -45202,10 +45232,10 @@
         <v>672</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="188">
@@ -45214,10 +45244,10 @@
         <v>1631</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="189">
@@ -45226,10 +45256,10 @@
         <v>1233</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="190">
@@ -45238,10 +45268,10 @@
         <v>1461</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="191">
@@ -45250,10 +45280,10 @@
         <v>18</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="192">
@@ -45262,10 +45292,10 @@
         <v>47</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="193">
@@ -45274,10 +45304,10 @@
         <v>46</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="194">
@@ -45286,10 +45316,10 @@
         <v>683</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="195">
@@ -45298,10 +45328,10 @@
         <v>826</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="196">
@@ -45310,10 +45340,10 @@
         <v>1116</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="197">
@@ -45322,10 +45352,10 @@
         <v>802</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="198">
@@ -45334,10 +45364,10 @@
         <v>1383</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="199">
@@ -45346,10 +45376,10 @@
         <v>1560</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="200">
@@ -45358,10 +45388,10 @@
         <v>1041</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="201">
@@ -45370,10 +45400,10 @@
         <v>1018</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="202">
@@ -45382,10 +45412,10 @@
         <v>406</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="203">
@@ -45394,22 +45424,22 @@
         <v>428</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
-        <v>3946</v>
+        <v>3956</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="205">
@@ -45418,22 +45448,22 @@
         <v>1321</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="207">
@@ -45442,10 +45472,10 @@
         <v>361</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="208">
@@ -45454,34 +45484,34 @@
         <v>1666</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
-        <v>3947</v>
+        <v>3957</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>3756</v>
+        <v>3766</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>3931</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="211">
@@ -56093,6 +56123,86 @@
         <v>111</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -56113,74 +56223,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3092</v>
+        <v>3102</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>3093</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="52" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3095</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>3096</v>
+        <v>3106</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3097</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3099</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3101</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>3102</v>
+        <v>3112</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3103</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>3104</v>
+        <v>3114</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3105</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>3106</v>
+        <v>3116</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3107</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3109</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="10">
@@ -59177,19 +59287,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3110</v>
+        <v>3120</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>3092</v>
+        <v>3102</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>3112</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="2">
@@ -59202,13 +59312,13 @@
         <v>above</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3113</v>
+        <v>3123</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3114</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="3">
@@ -59221,13 +59331,13 @@
         <v>adult</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3115</v>
+        <v>3125</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3116</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="4">
@@ -59240,13 +59350,13 @@
         <v>aesthetic</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3117</v>
+        <v>3127</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3118</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="5">
@@ -59259,13 +59369,13 @@
         <v>alive</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3119</v>
+        <v>3129</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3120</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="6">
@@ -59278,13 +59388,13 @@
         <v>alone</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3121</v>
+        <v>3131</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3122</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="7">
@@ -59297,13 +59407,13 @@
         <v>alternative</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3123</v>
+        <v>3133</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3124</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="8">
@@ -59316,13 +59426,13 @@
         <v>amazing</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3125</v>
+        <v>3135</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>3126</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="9">
@@ -59335,13 +59445,13 @@
         <v>ambiguous</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3127</v>
+        <v>3137</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3128</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="10">
@@ -59354,13 +59464,13 @@
         <v>ancient</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3129</v>
+        <v>3139</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3130</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="11">
@@ -59373,13 +59483,13 @@
         <v>angry</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3131</v>
+        <v>3141</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3132</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="12">
@@ -59392,13 +59502,13 @@
         <v>angry</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>3133</v>
+        <v>3143</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3134</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="13">
@@ -59411,13 +59521,13 @@
         <v>annual</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3135</v>
+        <v>3145</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3136</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="14">
@@ -59430,13 +59540,13 @@
         <v>another</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3137</v>
+        <v>3147</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3138</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="15">
@@ -59449,13 +59559,13 @@
         <v>anxious</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3139</v>
+        <v>3149</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3140</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="16">
@@ -59468,13 +59578,13 @@
         <v>appropriate</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3141</v>
+        <v>3151</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3142</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="17">
@@ -59487,13 +59597,13 @@
         <v>average</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3143</v>
+        <v>3153</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3144</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="18">
@@ -59506,13 +59616,13 @@
         <v>baby</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3145</v>
+        <v>3155</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3146</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="19">
@@ -59525,13 +59635,13 @@
         <v>back</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3147</v>
+        <v>3157</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3148</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="20">
@@ -59544,13 +59654,13 @@
         <v>bad</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3149</v>
+        <v>3159</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3150</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="21">
@@ -59563,13 +59673,13 @@
         <v>beautiful</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3151</v>
+        <v>3161</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3152</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="22">
@@ -59582,13 +59692,13 @@
         <v>beginning</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3153</v>
+        <v>3163</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3154</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="23">
@@ -59601,13 +59711,13 @@
         <v>believable</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3155</v>
+        <v>3165</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3156</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="24">
@@ -59620,13 +59730,13 @@
         <v>big</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3157</v>
+        <v>3167</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3158</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="25">
@@ -59639,13 +59749,13 @@
         <v>bitter</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3159</v>
+        <v>3169</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3160</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="26">
@@ -59658,13 +59768,13 @@
         <v>black</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3161</v>
+        <v>3171</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3162</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="27">
@@ -59677,13 +59787,13 @@
         <v>blue</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3163</v>
+        <v>3173</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3164</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="28">
@@ -59696,13 +59806,13 @@
         <v>boiled</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3165</v>
+        <v>3175</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3166</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="29">
@@ -59715,13 +59825,13 @@
         <v>bored</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3167</v>
+        <v>3177</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3168</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="30">
@@ -59734,13 +59844,13 @@
         <v>brown</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3169</v>
+        <v>3179</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3170</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="31">
@@ -59753,13 +59863,13 @@
         <v>bumpy</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3171</v>
+        <v>3181</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>3172</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="32">
@@ -59772,13 +59882,13 @@
         <v>centi-</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3173</v>
+        <v>3183</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3174</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="33">
@@ -59791,13 +59901,13 @@
         <v>child</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3175</v>
+        <v>3185</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3176</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="34">
@@ -59810,13 +59920,13 @@
         <v>cold</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>3177</v>
+        <v>3187</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>3178</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="35">
@@ -59829,13 +59939,13 @@
         <v>colourful</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3179</v>
+        <v>3189</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3180</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="36">
@@ -59848,13 +59958,13 @@
         <v>confused</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3181</v>
+        <v>3191</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>3182</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="37">
@@ -59867,13 +59977,13 @@
         <v>cool</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>3183</v>
+        <v>3193</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>3184</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="38">
@@ -59886,13 +59996,13 @@
         <v>creative</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>3185</v>
+        <v>3195</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>3186</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="39">
@@ -59905,13 +60015,13 @@
         <v>curious</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>3187</v>
+        <v>3197</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>3188</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="40">
@@ -59924,13 +60034,13 @@
         <v>curved</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>3189</v>
+        <v>3199</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>3190</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="41">
@@ -59943,13 +60053,13 @@
         <v>delicious</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>3185</v>
+        <v>3195</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>3186</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="42">
@@ -59962,13 +60072,13 @@
         <v>different</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>3191</v>
+        <v>3201</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>3192</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="43">
@@ -59981,13 +60091,13 @@
         <v>down</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>3193</v>
+        <v>3203</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>3194</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="44">
@@ -60000,13 +60110,13 @@
         <v>dramatic</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>3195</v>
+        <v>3205</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>3196</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="45">
@@ -60019,13 +60129,13 @@
         <v>eager</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>3197</v>
+        <v>3207</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>3198</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="46">
@@ -60038,13 +60148,13 @@
         <v>elder</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>3199</v>
+        <v>3209</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>3200</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="47">
@@ -60057,13 +60167,13 @@
         <v>elderly</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>3201</v>
+        <v>3211</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>3202</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="48">
@@ -60076,13 +60186,13 @@
         <v>electronic</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>3203</v>
+        <v>3213</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>3204</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="49">
@@ -60095,13 +60205,13 @@
         <v>embarrassed</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>3205</v>
+        <v>3215</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>3206</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="50">
@@ -60114,13 +60224,13 @@
         <v>end</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>3207</v>
+        <v>3217</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>3208</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="51">
@@ -60133,13 +60243,13 @@
         <v>envious</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>3209</v>
+        <v>3219</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>3210</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="52">
@@ -60152,13 +60262,13 @@
         <v>excited</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>3211</v>
+        <v>3221</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>3212</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="53">
@@ -60171,13 +60281,13 @@
         <v>exciting</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3213</v>
+        <v>3223</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>3214</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="54">
@@ -60190,13 +60300,13 @@
         <v>fat</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>3215</v>
+        <v>3225</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>3216</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="55">
@@ -60209,13 +60319,13 @@
         <v>favourite</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>3217</v>
+        <v>3227</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>3218</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="56">
@@ -60228,13 +60338,13 @@
         <v>fluffy</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3219</v>
+        <v>3229</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>3220</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="57">
@@ -60247,13 +60357,13 @@
         <v>fried</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3221</v>
+        <v>3231</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>3222</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="58">
@@ -60266,13 +60376,13 @@
         <v>friendly</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>3223</v>
+        <v>3233</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>3224</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="59">
@@ -60285,13 +60395,13 @@
         <v>Frustrated</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>3221</v>
+        <v>3231</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>3222</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="60">
@@ -60304,13 +60414,13 @@
         <v>fun</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>3225</v>
+        <v>3235</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>3226</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="61">
@@ -60323,13 +60433,13 @@
         <v>funny</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3227</v>
+        <v>3237</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>3228</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="62">
@@ -60342,13 +60452,13 @@
         <v>goal</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>3229</v>
+        <v>3239</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>3230</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="63">
@@ -60361,13 +60471,13 @@
         <v>good</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3231</v>
+        <v>3241</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>3232</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="64">
@@ -60380,13 +60490,13 @@
         <v>gram</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>3233</v>
+        <v>3243</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>3234</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="65">
@@ -60399,13 +60509,13 @@
         <v>graphic</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>3235</v>
+        <v>3245</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>3236</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="66">
@@ -60418,13 +60528,13 @@
         <v>grateful</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>3237</v>
+        <v>3247</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>3238</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="67">
@@ -60437,13 +60547,13 @@
         <v>greater than</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3237</v>
+        <v>3247</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>3238</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="68">
@@ -60456,13 +60566,13 @@
         <v>green</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>3239</v>
+        <v>3249</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>3240</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="69">
@@ -60475,13 +60585,13 @@
         <v>happy</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>3239</v>
+        <v>3249</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>3240</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="70">
@@ -60494,13 +60604,13 @@
         <v>heavy</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3241</v>
+        <v>3251</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>3242</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="71">
@@ -60513,13 +60623,13 @@
         <v>helpful</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3243</v>
+        <v>3253</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>3244</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="72">
@@ -60532,13 +60642,13 @@
         <v>her</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3245</v>
+        <v>3255</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>3246</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="73">
@@ -60551,13 +60661,13 @@
         <v>high-pitched</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3247</v>
+        <v>3257</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>3248</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="74">
@@ -60570,13 +60680,13 @@
         <v>hot</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>3249</v>
+        <v>3259</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>3250</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="75">
@@ -60589,13 +60699,13 @@
         <v>hungry</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>3251</v>
+        <v>3261</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>3252</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="76">
@@ -60608,13 +60718,13 @@
         <v>ill</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>3253</v>
+        <v>3263</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>3254</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="77">
@@ -60627,13 +60737,13 @@
         <v>impatient</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>3255</v>
+        <v>3265</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>3256</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="78">
@@ -60646,13 +60756,13 @@
         <v>important</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3257</v>
+        <v>3267</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>3258</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="79">
@@ -60665,13 +60775,13 @@
         <v>in</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3259</v>
+        <v>3269</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>3260</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="80">
@@ -60684,13 +60794,13 @@
         <v>infant</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>3259</v>
+        <v>3269</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>3260</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="81">
@@ -60703,13 +60813,13 @@
         <v>intense</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>3261</v>
+        <v>3271</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>3262</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="82">
@@ -60722,13 +60832,13 @@
         <v>international</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>3263</v>
+        <v>3273</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>3264</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="83">
@@ -60741,13 +60851,13 @@
         <v>intersecting</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>3265</v>
+        <v>3275</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>3266</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="84">
@@ -60760,13 +60870,13 @@
         <v>jealous</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>3267</v>
+        <v>3277</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>3268</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="85">
@@ -60779,13 +60889,13 @@
         <v>kick</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>3257</v>
+        <v>3267</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>3258</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="86">
@@ -60798,13 +60908,13 @@
         <v>kilo-</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3259</v>
+        <v>3269</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>3260</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="87">
@@ -60817,13 +60927,13 @@
         <v>large</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>3257</v>
+        <v>3267</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>3258</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="88">
@@ -60836,13 +60946,13 @@
         <v>left</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>3269</v>
+        <v>3279</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>3270</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="89">
@@ -60855,13 +60965,13 @@
         <v>less than</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>3271</v>
+        <v>3281</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>3272</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="90">
@@ -60874,13 +60984,13 @@
         <v>light</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>3273</v>
+        <v>3283</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>3274</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="91">
@@ -60893,13 +61003,13 @@
         <v>like</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>3275</v>
+        <v>3285</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>3276</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="92">
@@ -60912,13 +61022,13 @@
         <v>litre</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D92" s="55" t="s">
-        <v>3277</v>
+        <v>3287</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="93">
@@ -60931,13 +61041,13 @@
         <v>lonely</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>3279</v>
+        <v>3289</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>3280</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="94">
@@ -60950,13 +61060,13 @@
         <v>long</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D94" s="55" t="s">
-        <v>3281</v>
+        <v>3291</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>3282</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="95">
@@ -60969,13 +61079,13 @@
         <v>mad</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D95" s="55" t="s">
-        <v>3283</v>
+        <v>3293</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>3284</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="96">
@@ -60988,13 +61098,13 @@
         <v>metre</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>3285</v>
+        <v>3295</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>3286</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="97">
@@ -61007,13 +61117,13 @@
         <v>middle</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>3287</v>
+        <v>3297</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>3288</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="98">
@@ -61026,7 +61136,7 @@
         <v>middle</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="99">
@@ -61039,7 +61149,7 @@
         <v>middle-aged</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="100">
@@ -61052,13 +61162,13 @@
         <v>milli-</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>3187</v>
+        <v>3197</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>3188</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="101">
@@ -61071,13 +61181,13 @@
         <v>musical</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>3289</v>
+        <v>3299</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>3290</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="102">
@@ -61090,13 +61200,13 @@
         <v>my</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>3189</v>
+        <v>3199</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>3190</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="103">
@@ -61109,13 +61219,13 @@
         <v>narrow</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>3291</v>
+        <v>3301</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>3292</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="104">
@@ -61128,13 +61238,13 @@
         <v>nervous</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>3293</v>
+        <v>3303</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>3294</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="105">
@@ -61147,13 +61257,13 @@
         <v>next</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>3273</v>
+        <v>3283</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>3274</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="106">
@@ -61166,13 +61276,13 @@
         <v>nice</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>3295</v>
+        <v>3305</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>3296</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="107">
@@ -61185,13 +61295,13 @@
         <v>noisy</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>3297</v>
+        <v>3307</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>3298</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="108">
@@ -61204,13 +61314,13 @@
         <v>older</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>3275</v>
+        <v>3285</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>3276</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="109">
@@ -61223,13 +61333,13 @@
         <v>orange</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>3299</v>
+        <v>3309</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>3300</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="110">
@@ -61242,13 +61352,13 @@
         <v>original</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>3301</v>
+        <v>3311</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>3302</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="111">
@@ -61261,13 +61371,13 @@
         <v>outstanding</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>3303</v>
+        <v>3313</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>3304</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="112">
@@ -61280,13 +61390,13 @@
         <v>oval</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>3305</v>
+        <v>3315</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="113">
@@ -61299,13 +61409,13 @@
         <v>over</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>3171</v>
+        <v>3181</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>3172</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="114">
@@ -61318,13 +61428,13 @@
         <v>overjoyed</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>3307</v>
+        <v>3317</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>3308</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="115">
@@ -61337,13 +61447,13 @@
         <v>parallel</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>3309</v>
+        <v>3319</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>3310</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="116">
@@ -61356,13 +61466,13 @@
         <v>perpendicular</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>3311</v>
+        <v>3321</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>3312</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="117">
@@ -64463,23 +64573,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3110</v>
+        <v>3120</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52" t="s">
-        <v>3092</v>
+        <v>3102</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>3313</v>
+        <v>3323</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>3314</v>
+        <v>3324</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>3315</v>
+        <v>3325</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="2">
@@ -64492,13 +64602,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>3317</v>
+        <v>3327</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>3318</v>
+        <v>3328</v>
       </c>
       <c r="F2" s="55" t="s">
         <v>50</v>
@@ -64517,19 +64627,19 @@
         <v>0.04166666667</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3319</v>
+        <v>3329</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3320</v>
+        <v>3330</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>3321</v>
+        <v>3331</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>3322</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="4">
@@ -64542,19 +64652,19 @@
         <v>0.08333333333</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3323</v>
+        <v>3333</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3324</v>
+        <v>3334</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="5">
@@ -64567,19 +64677,19 @@
         <v>0.125</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3327</v>
+        <v>3337</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3328</v>
+        <v>3338</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>3329</v>
+        <v>3339</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>3330</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="6">
@@ -64592,19 +64702,19 @@
         <v>0.1666666667</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3331</v>
+        <v>3341</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3332</v>
+        <v>3342</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="7">
@@ -64617,19 +64727,19 @@
         <v>0.2083333333</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3333</v>
+        <v>3343</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3334</v>
+        <v>3344</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>3336</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="8">
@@ -64642,19 +64752,19 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>3338</v>
+        <v>3348</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>3339</v>
+        <v>3349</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>3340</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="9">
@@ -64667,19 +64777,19 @@
         <v>0.2916666667</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3341</v>
+        <v>3351</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3342</v>
+        <v>3352</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>3343</v>
+        <v>3353</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>3344</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="10">
@@ -64692,19 +64802,19 @@
         <v>0.3333333333</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3345</v>
+        <v>3355</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3346</v>
+        <v>3356</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>3347</v>
+        <v>3357</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>3348</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="11">
@@ -64717,13 +64827,13 @@
         <v>0.375</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3349</v>
+        <v>3359</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3350</v>
+        <v>3360</v>
       </c>
       <c r="F11" s="55" t="s">
         <v>50</v>
@@ -64742,13 +64852,13 @@
         <v>0.4166666667</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>3351</v>
+        <v>3361</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3352</v>
+        <v>3362</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>50</v>
@@ -64767,19 +64877,19 @@
         <v>0.4583333333</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3353</v>
+        <v>3363</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3354</v>
+        <v>3364</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>3347</v>
+        <v>3357</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>3348</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="14">
@@ -64792,19 +64902,19 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3355</v>
+        <v>3365</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3356</v>
+        <v>3366</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>3357</v>
+        <v>3367</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>3348</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="15">
@@ -64817,13 +64927,13 @@
         <v>0.5416666667</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3359</v>
+        <v>3369</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>50</v>
@@ -64842,19 +64952,19 @@
         <v>0.5833333333</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3360</v>
+        <v>3370</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3361</v>
+        <v>3371</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>3336</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="17">
@@ -64867,16 +64977,16 @@
         <v>0.625</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3362</v>
+        <v>3372</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3363</v>
+        <v>3373</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>50</v>
@@ -64892,19 +65002,19 @@
         <v>0.6666666667</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3364</v>
+        <v>3374</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3365</v>
+        <v>3375</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="19">
@@ -64917,19 +65027,19 @@
         <v>0.7083333333</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3367</v>
+        <v>3377</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3368</v>
+        <v>3378</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="20">
@@ -64942,19 +65052,19 @@
         <v>0.75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3369</v>
+        <v>3379</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3370</v>
+        <v>3380</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>3371</v>
+        <v>3381</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>3330</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="21">
@@ -64967,19 +65077,19 @@
         <v>0.7916666667</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3372</v>
+        <v>3382</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3373</v>
+        <v>3383</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>3371</v>
+        <v>3381</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>3330</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="22">
@@ -64992,13 +65102,13 @@
         <v>0.8333333333</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3374</v>
+        <v>3384</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3375</v>
+        <v>3385</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>50</v>
@@ -65017,19 +65127,19 @@
         <v>0.875</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D23" s="55" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F23" s="55" t="s">
         <v>3376</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>3366</v>
-      </c>
       <c r="G23" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="24">
@@ -65042,19 +65152,19 @@
         <v>0.9166666667</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3378</v>
+        <v>3388</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3379</v>
+        <v>3389</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="25">
@@ -65067,19 +65177,19 @@
         <v>0.9583333333</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3381</v>
+        <v>3391</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="26">
@@ -65092,19 +65202,19 @@
         <v>above</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3382</v>
+        <v>3392</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3383</v>
+        <v>3393</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="27">
@@ -65117,19 +65227,19 @@
         <v>accident</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3384</v>
+        <v>3394</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3385</v>
+        <v>3395</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>3336</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="28">
@@ -65142,19 +65252,19 @@
         <v>achievement</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3386</v>
+        <v>3396</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3387</v>
+        <v>3397</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="29">
@@ -65167,19 +65277,19 @@
         <v>Ackee</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3388</v>
+        <v>3398</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3389</v>
+        <v>3399</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>3316</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="30">
@@ -65192,19 +65302,19 @@
         <v>addition</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3390</v>
+        <v>3400</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3391</v>
+        <v>3401</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>3392</v>
+        <v>3402</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>3393</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="31">
@@ -65217,13 +65327,13 @@
         <v>adventure</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>3395</v>
+        <v>3405</v>
       </c>
       <c r="F31" s="55" t="s">
         <v>50</v>
@@ -65242,13 +65352,13 @@
         <v>adversary</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3397</v>
+        <v>3407</v>
       </c>
       <c r="F32" s="55" t="s">
         <v>50</v>
@@ -65267,13 +65377,13 @@
         <v>Africa</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3398</v>
+        <v>3408</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3399</v>
+        <v>3409</v>
       </c>
       <c r="F33" s="55" t="s">
         <v>50</v>
@@ -65292,19 +65402,19 @@
         <v>ambition</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>3331</v>
+        <v>3341</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>3332</v>
+        <v>3342</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="35">
@@ -65317,19 +65427,19 @@
         <v>ambulance</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3345</v>
+        <v>3355</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3346</v>
+        <v>3356</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>3347</v>
+        <v>3357</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>3348</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="36">
@@ -65342,13 +65452,13 @@
         <v>analysis</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3400</v>
+        <v>3410</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>3401</v>
+        <v>3411</v>
       </c>
       <c r="F36" s="55" t="s">
         <v>50</v>
@@ -65367,13 +65477,13 @@
         <v>ankle</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>3402</v>
+        <v>3412</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>3403</v>
+        <v>3413</v>
       </c>
       <c r="F37" s="55" t="s">
         <v>50</v>
@@ -65392,13 +65502,13 @@
         <v>answer</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>3404</v>
+        <v>3414</v>
       </c>
       <c r="F38" s="55" t="s">
         <v>50</v>
@@ -65417,13 +65527,13 @@
         <v>antonyms</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>3405</v>
+        <v>3415</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>3406</v>
+        <v>3416</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>50</v>
@@ -65442,13 +65552,13 @@
         <v>appetite</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>3407</v>
+        <v>3417</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>3408</v>
+        <v>3418</v>
       </c>
       <c r="F40" s="55" t="s">
         <v>50</v>
@@ -65467,13 +65577,13 @@
         <v>apple</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>3409</v>
+        <v>3419</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>3410</v>
+        <v>3420</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>50</v>
@@ -65492,13 +65602,13 @@
         <v>April</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>3412</v>
+        <v>3422</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>50</v>
@@ -65517,13 +65627,13 @@
         <v>architecture</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>3413</v>
+        <v>3423</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>50</v>
@@ -65542,13 +65652,13 @@
         <v>Arm</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>3414</v>
+        <v>3424</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>3415</v>
+        <v>3425</v>
       </c>
       <c r="F44" s="55" t="s">
         <v>50</v>
@@ -65567,13 +65677,13 @@
         <v>Asia</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>3416</v>
+        <v>3426</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>50</v>
@@ -65592,13 +65702,13 @@
         <v>association</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>3418</v>
+        <v>3428</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>3419</v>
+        <v>3429</v>
       </c>
       <c r="F46" s="55" t="s">
         <v>50</v>
@@ -65617,13 +65727,13 @@
         <v>at</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>3420</v>
+        <v>3430</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>3421</v>
+        <v>3431</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>50</v>
@@ -65642,13 +65752,13 @@
         <v>athletics</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>3422</v>
+        <v>3432</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>3423</v>
+        <v>3433</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>50</v>
@@ -65667,13 +65777,13 @@
         <v>audience</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>3424</v>
+        <v>3434</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>3425</v>
+        <v>3435</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>50</v>
@@ -65692,13 +65802,13 @@
         <v>audio</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>3426</v>
+        <v>3436</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>3427</v>
+        <v>3437</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>50</v>
@@ -65717,13 +65827,13 @@
         <v>August</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>3428</v>
+        <v>3438</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>50</v>
@@ -65742,13 +65852,13 @@
         <v>aunt</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>3429</v>
+        <v>3439</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>3430</v>
+        <v>3440</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>50</v>
@@ -65767,13 +65877,13 @@
         <v>aural</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3431</v>
+        <v>3441</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>50</v>
@@ -65792,13 +65902,13 @@
         <v>Australia</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>3433</v>
+        <v>3443</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>3434</v>
+        <v>3444</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>50</v>
@@ -65817,13 +65927,13 @@
         <v>authority</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>3435</v>
+        <v>3445</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="F55" s="55" t="s">
         <v>50</v>
@@ -65842,13 +65952,13 @@
         <v>awareness</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3437</v>
+        <v>3447</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>3438</v>
+        <v>3448</v>
       </c>
       <c r="F56" s="55" t="s">
         <v>50</v>
@@ -65867,13 +65977,13 @@
         <v>baby</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3439</v>
+        <v>3449</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>3440</v>
+        <v>3450</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>50</v>
@@ -65892,13 +66002,13 @@
         <v>Back</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>3441</v>
+        <v>3451</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>3442</v>
+        <v>3452</v>
       </c>
       <c r="F58" s="55" t="s">
         <v>50</v>
@@ -65917,13 +66027,13 @@
         <v>backpack</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>3443</v>
+        <v>3453</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>3444</v>
+        <v>3454</v>
       </c>
       <c r="F59" s="55" t="s">
         <v>50</v>
@@ -65942,13 +66052,13 @@
         <v>backyard</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>3445</v>
+        <v>3455</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>3446</v>
+        <v>3456</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>50</v>
@@ -65967,13 +66077,13 @@
         <v>bacon</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3447</v>
+        <v>3457</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>3448</v>
+        <v>3458</v>
       </c>
       <c r="F61" s="55" t="s">
         <v>50</v>
@@ -65992,13 +66102,13 @@
         <v>bad</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>3449</v>
+        <v>3459</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>3450</v>
+        <v>3460</v>
       </c>
       <c r="F62" s="55" t="s">
         <v>50</v>
@@ -66017,13 +66127,13 @@
         <v>ball</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3451</v>
+        <v>3461</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>3452</v>
+        <v>3462</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>50</v>
@@ -66042,13 +66152,13 @@
         <v>banana</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>3453</v>
+        <v>3463</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>3454</v>
+        <v>3464</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>50</v>
@@ -66067,13 +66177,13 @@
         <v>dinner</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>3455</v>
+        <v>3465</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>3456</v>
+        <v>3466</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>50</v>
@@ -66092,13 +66202,13 @@
         <v>bar graphs</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>3457</v>
+        <v>3467</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>3458</v>
+        <v>3468</v>
       </c>
       <c r="F66" s="55" t="s">
         <v>50</v>
@@ -66117,13 +66227,13 @@
         <v>basketball</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3459</v>
+        <v>3469</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>3460</v>
+        <v>3470</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>50</v>
@@ -66142,13 +66252,13 @@
         <v>bat</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>3461</v>
+        <v>3471</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>3462</v>
+        <v>3472</v>
       </c>
       <c r="F68" s="55" t="s">
         <v>50</v>
@@ -66167,13 +66277,13 @@
         <v>bat</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>3463</v>
+        <v>3473</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>50</v>
@@ -66192,13 +66302,13 @@
         <v>bathroom</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3464</v>
+        <v>3474</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>3465</v>
+        <v>3475</v>
       </c>
       <c r="F70" s="55" t="s">
         <v>50</v>
@@ -66217,13 +66327,13 @@
         <v>beach</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3466</v>
+        <v>3476</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>3467</v>
+        <v>3477</v>
       </c>
       <c r="F71" s="55" t="s">
         <v>50</v>
@@ -66242,13 +66352,13 @@
         <v>beans</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>3469</v>
+        <v>3479</v>
       </c>
       <c r="F72" s="55" t="s">
         <v>50</v>
@@ -66267,13 +66377,13 @@
         <v>bedroom</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3470</v>
+        <v>3480</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>3471</v>
+        <v>3481</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>50</v>
@@ -66292,13 +66402,13 @@
         <v>bee</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>3472</v>
+        <v>3482</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>3473</v>
+        <v>3483</v>
       </c>
       <c r="F74" s="55" t="s">
         <v>50</v>
@@ -66317,13 +66427,13 @@
         <v>beginning</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>3474</v>
+        <v>3484</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>3475</v>
+        <v>3485</v>
       </c>
       <c r="F75" s="55" t="s">
         <v>50</v>
@@ -66342,13 +66452,13 @@
         <v>behind</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>3476</v>
+        <v>3486</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>3477</v>
+        <v>3487</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>50</v>
@@ -66367,13 +66477,13 @@
         <v>belly</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>3478</v>
+        <v>3488</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>3479</v>
+        <v>3489</v>
       </c>
       <c r="F77" s="55" t="s">
         <v>50</v>
@@ -66392,13 +66502,13 @@
         <v>belt</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3480</v>
+        <v>3490</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>3481</v>
+        <v>3491</v>
       </c>
       <c r="F78" s="55" t="s">
         <v>50</v>
@@ -66417,13 +66527,13 @@
         <v>bend</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3482</v>
+        <v>3492</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>3483</v>
+        <v>3493</v>
       </c>
       <c r="F79" s="55" t="s">
         <v>50</v>
@@ -66442,13 +66552,13 @@
         <v>bibliography</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>3485</v>
+        <v>3495</v>
       </c>
       <c r="F80" s="55" t="s">
         <v>50</v>
@@ -66467,13 +66577,13 @@
         <v>biohazard</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>3486</v>
+        <v>3496</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>3487</v>
+        <v>3497</v>
       </c>
       <c r="F81" s="55" t="s">
         <v>50</v>
@@ -66492,13 +66602,13 @@
         <v>bird</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>3488</v>
+        <v>3498</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>3489</v>
+        <v>3499</v>
       </c>
       <c r="F82" s="55" t="s">
         <v>50</v>
@@ -66517,13 +66627,13 @@
         <v>birthday</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>3490</v>
+        <v>3500</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>3491</v>
+        <v>3501</v>
       </c>
       <c r="F83" s="55" t="s">
         <v>50</v>
@@ -66542,13 +66652,13 @@
         <v>blanket</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>3492</v>
+        <v>3502</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>3493</v>
+        <v>3503</v>
       </c>
       <c r="F84" s="55" t="s">
         <v>50</v>
@@ -66567,13 +66677,13 @@
         <v>blazer</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>3494</v>
+        <v>3504</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>3495</v>
+        <v>3505</v>
       </c>
       <c r="F85" s="55" t="s">
         <v>50</v>
@@ -66592,13 +66702,13 @@
         <v>blouse</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3496</v>
+        <v>3506</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>3497</v>
+        <v>3507</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>50</v>
@@ -66617,13 +66727,13 @@
         <v>Blue Mahoe</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>3498</v>
+        <v>3508</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>3499</v>
+        <v>3509</v>
       </c>
       <c r="F87" s="55" t="s">
         <v>50</v>
@@ -66642,13 +66752,13 @@
         <v>Blue Mountain </v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>3500</v>
+        <v>3510</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>3501</v>
+        <v>3511</v>
       </c>
       <c r="F88" s="55" t="s">
         <v>50</v>
@@ -66667,13 +66777,13 @@
         <v>body</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>3502</v>
+        <v>3512</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>50</v>
@@ -66692,13 +66802,13 @@
         <v>book</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>3503</v>
+        <v>3513</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>3504</v>
+        <v>3514</v>
       </c>
       <c r="F90" s="55" t="s">
         <v>50</v>
@@ -66717,13 +66827,13 @@
         <v>boots</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>3505</v>
+        <v>3515</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="F91" s="55" t="s">
         <v>50</v>
@@ -66742,13 +66852,13 @@
         <v>bounce</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>3507</v>
+        <v>3517</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>50</v>
@@ -66767,13 +66877,13 @@
         <v>bread</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>3508</v>
+        <v>3518</v>
       </c>
       <c r="F93" s="55" t="s">
         <v>50</v>
@@ -66792,13 +66902,13 @@
         <v>breakfast</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>3509</v>
+        <v>3519</v>
       </c>
       <c r="F94" s="55" t="s">
         <v>50</v>
@@ -66817,13 +66927,13 @@
         <v>broom</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>3510</v>
+        <v>3520</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>50</v>
@@ -66842,13 +66952,13 @@
         <v>brother</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>3511</v>
+        <v>3521</v>
       </c>
       <c r="F96" s="55" t="s">
         <v>50</v>
@@ -66867,13 +66977,13 @@
         <v>bull in a pen</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>3512</v>
+        <v>3522</v>
       </c>
       <c r="F97" s="55" t="s">
         <v>50</v>
@@ -66892,13 +67002,13 @@
         <v>butter</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D98" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>3513</v>
+        <v>3523</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>50</v>
@@ -66917,13 +67027,13 @@
         <v>button</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>3514</v>
+        <v>3524</v>
       </c>
       <c r="F99" s="55" t="s">
         <v>50</v>
@@ -66942,13 +67052,13 @@
         <v>cake</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>3515</v>
+        <v>3525</v>
       </c>
       <c r="F100" s="55" t="s">
         <v>50</v>
@@ -66967,13 +67077,13 @@
         <v>calendar</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>3516</v>
+        <v>3526</v>
       </c>
       <c r="F101" s="55" t="s">
         <v>50</v>
@@ -66992,13 +67102,13 @@
         <v>callaloo</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D102" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>3517</v>
+        <v>3527</v>
       </c>
       <c r="F102" s="55" t="s">
         <v>50</v>
@@ -67017,13 +67127,13 @@
         <v>captain</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D103" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>3518</v>
+        <v>3528</v>
       </c>
       <c r="F103" s="55" t="s">
         <v>50</v>
@@ -67042,13 +67152,13 @@
         <v>car</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D104" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>3519</v>
+        <v>3529</v>
       </c>
       <c r="F104" s="55" t="s">
         <v>50</v>
@@ -67067,13 +67177,13 @@
         <v>carbohydrate</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D105" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>3520</v>
+        <v>3530</v>
       </c>
       <c r="F105" s="55" t="s">
         <v>50</v>
@@ -67092,13 +67202,13 @@
         <v>cardigan</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D106" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>3521</v>
+        <v>3531</v>
       </c>
       <c r="F106" s="55" t="s">
         <v>50</v>
@@ -67117,13 +67227,13 @@
         <v>career</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D107" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>3522</v>
+        <v>3532</v>
       </c>
       <c r="F107" s="55" t="s">
         <v>50</v>
@@ -67142,13 +67252,13 @@
         <v>cargo pants</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D108" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>3523</v>
+        <v>3533</v>
       </c>
       <c r="F108" s="55" t="s">
         <v>50</v>
@@ -67167,13 +67277,13 @@
         <v>carpet</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D109" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="F109" s="55" t="s">
         <v>50</v>
@@ -67192,13 +67302,13 @@
         <v>cartoon</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D110" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>3525</v>
+        <v>3535</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>50</v>
@@ -67217,13 +67327,13 @@
         <v>cat</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D111" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>3526</v>
+        <v>3536</v>
       </c>
       <c r="F111" s="55" t="s">
         <v>50</v>
@@ -67242,13 +67352,13 @@
         <v>catalogue</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D112" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>3527</v>
+        <v>3537</v>
       </c>
       <c r="F112" s="55" t="s">
         <v>50</v>
@@ -67267,13 +67377,13 @@
         <v>catch</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D113" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="F113" s="55" t="s">
         <v>50</v>
@@ -67292,13 +67402,13 @@
         <v>caution</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D114" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>3529</v>
+        <v>3539</v>
       </c>
       <c r="F114" s="55" t="s">
         <v>50</v>
@@ -67317,13 +67427,13 @@
         <v>cell phone</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D115" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>3530</v>
+        <v>3540</v>
       </c>
       <c r="F115" s="55" t="s">
         <v>50</v>
@@ -67342,13 +67452,13 @@
         <v>Celsius</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D116" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>3531</v>
+        <v>3541</v>
       </c>
       <c r="F116" s="55" t="s">
         <v>50</v>
@@ -67367,13 +67477,13 @@
         <v>century</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D117" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E117" s="55" t="s">
-        <v>3532</v>
+        <v>3542</v>
       </c>
       <c r="F117" s="55" t="s">
         <v>50</v>
@@ -67392,16 +67502,16 @@
         <v>cereal</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>2199</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>3533</v>
+        <v>3543</v>
       </c>
       <c r="F118" s="55" t="s">
-        <v>3534</v>
+        <v>3544</v>
       </c>
       <c r="G118" s="55" t="s">
         <v>50</v>
@@ -67417,13 +67527,13 @@
         <v>chair</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>3535</v>
+        <v>3545</v>
       </c>
       <c r="E119" s="55" t="s">
-        <v>3536</v>
+        <v>3546</v>
       </c>
       <c r="F119" s="55" t="s">
         <v>50</v>
@@ -67442,13 +67552,13 @@
         <v>chalkboard</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>3537</v>
+        <v>3547</v>
       </c>
       <c r="E120" s="55" t="s">
-        <v>3538</v>
+        <v>3548</v>
       </c>
       <c r="F120" s="55" t="s">
         <v>50</v>
@@ -67467,13 +67577,13 @@
         <v>chapter</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>3539</v>
+        <v>3549</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>3540</v>
+        <v>3550</v>
       </c>
       <c r="F121" s="55" t="s">
         <v>50</v>
@@ -67492,13 +67602,13 @@
         <v>characters</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>3541</v>
+        <v>3551</v>
       </c>
       <c r="E122" s="55" t="s">
-        <v>3542</v>
+        <v>3552</v>
       </c>
       <c r="F122" s="55" t="s">
         <v>50</v>
@@ -67517,13 +67627,13 @@
         <v>characters</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>3543</v>
+        <v>3553</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>3544</v>
+        <v>3554</v>
       </c>
       <c r="F123" s="55" t="s">
         <v>50</v>
@@ -67542,13 +67652,13 @@
         <v>checklist </v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D124" s="55" t="s">
-        <v>3545</v>
+        <v>3555</v>
       </c>
       <c r="E124" s="55" t="s">
-        <v>3546</v>
+        <v>3556</v>
       </c>
       <c r="F124" s="55" t="s">
         <v>50</v>
@@ -67567,13 +67677,13 @@
         <v>Chest</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>3547</v>
+        <v>3557</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>3548</v>
+        <v>3558</v>
       </c>
       <c r="F125" s="55" t="s">
         <v>50</v>
@@ -67592,13 +67702,13 @@
         <v>chicken</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D126" s="55" t="s">
-        <v>3549</v>
+        <v>3559</v>
       </c>
       <c r="E126" s="55" t="s">
-        <v>3550</v>
+        <v>3560</v>
       </c>
       <c r="F126" s="55" t="s">
         <v>50</v>
@@ -67617,13 +67727,13 @@
         <v>chiney-skip</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D127" s="55" t="s">
         <v>1771</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>3551</v>
+        <v>3561</v>
       </c>
       <c r="F127" s="55" t="s">
         <v>50</v>
@@ -67642,16 +67752,16 @@
         <v>Christmas</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D128" s="55" t="s">
-        <v>3552</v>
+        <v>3562</v>
       </c>
       <c r="E128" s="55" t="s">
-        <v>3553</v>
+        <v>3563</v>
       </c>
       <c r="F128" s="55" t="s">
-        <v>3534</v>
+        <v>3544</v>
       </c>
       <c r="G128" s="55" t="s">
         <v>692</v>
@@ -67667,13 +67777,13 @@
         <v>church</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>3554</v>
+        <v>3564</v>
       </c>
       <c r="E129" s="55" t="s">
-        <v>3555</v>
+        <v>3565</v>
       </c>
       <c r="F129" s="55" t="s">
         <v>50</v>
@@ -67692,13 +67802,13 @@
         <v>circle graph</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D130" s="55" t="s">
-        <v>3556</v>
+        <v>3566</v>
       </c>
       <c r="E130" s="55" t="s">
-        <v>3557</v>
+        <v>3567</v>
       </c>
       <c r="F130" s="55" t="s">
         <v>50</v>
@@ -67717,7 +67827,7 @@
         <v>clap</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D131" s="55" t="s">
         <v>50</v>
@@ -67726,10 +67836,10 @@
         <v>50</v>
       </c>
       <c r="F131" s="55" t="s">
-        <v>3558</v>
+        <v>3568</v>
       </c>
       <c r="G131" s="55" t="s">
-        <v>3558</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="132">
@@ -67742,13 +67852,13 @@
         <v>Clarendon</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>3559</v>
+        <v>3569</v>
       </c>
       <c r="E132" s="55" t="s">
-        <v>3560</v>
+        <v>3570</v>
       </c>
       <c r="F132" s="55" t="s">
         <v>50</v>
@@ -67767,13 +67877,13 @@
         <v>classroom</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E133" s="55" t="s">
-        <v>3561</v>
+        <v>3571</v>
       </c>
       <c r="F133" s="55" t="s">
         <v>50</v>
@@ -67792,13 +67902,13 @@
         <v>coat</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>3562</v>
+        <v>3572</v>
       </c>
       <c r="E134" s="55" t="s">
-        <v>3563</v>
+        <v>3573</v>
       </c>
       <c r="F134" s="55" t="s">
         <v>50</v>
@@ -67817,13 +67927,13 @@
         <v>collar</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>3564</v>
+        <v>3574</v>
       </c>
       <c r="E135" s="55" t="s">
-        <v>3565</v>
+        <v>3575</v>
       </c>
       <c r="F135" s="55" t="s">
         <v>50</v>
@@ -67842,13 +67952,13 @@
         <v>cold</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>3566</v>
+        <v>3576</v>
       </c>
       <c r="E136" s="55" t="s">
-        <v>3567</v>
+        <v>3577</v>
       </c>
       <c r="F136" s="55" t="s">
         <v>50</v>
@@ -67867,13 +67977,13 @@
         <v>cuff</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D137" s="55" t="s">
-        <v>3568</v>
+        <v>3578</v>
       </c>
       <c r="E137" s="55" t="s">
-        <v>3569</v>
+        <v>3579</v>
       </c>
       <c r="F137" s="55" t="s">
         <v>50</v>
@@ -67892,13 +68002,13 @@
         <v>community</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D138" s="55" t="s">
-        <v>3570</v>
+        <v>3580</v>
       </c>
       <c r="E138" s="55" t="s">
-        <v>3571</v>
+        <v>3581</v>
       </c>
       <c r="F138" s="55" t="s">
         <v>50</v>
@@ -67917,13 +68027,13 @@
         <v>competition</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>3572</v>
+        <v>3582</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>3573</v>
+        <v>3583</v>
       </c>
       <c r="F139" s="55" t="s">
         <v>50</v>
@@ -67942,13 +68052,13 @@
         <v>concept</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D140" s="55" t="s">
-        <v>3574</v>
+        <v>3584</v>
       </c>
       <c r="E140" s="55" t="s">
-        <v>3575</v>
+        <v>3585</v>
       </c>
       <c r="F140" s="55" t="s">
         <v>50</v>
@@ -67967,13 +68077,13 @@
         <v>conductor</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D141" s="55" t="s">
-        <v>3576</v>
+        <v>3586</v>
       </c>
       <c r="E141" s="55" t="s">
-        <v>3577</v>
+        <v>3587</v>
       </c>
       <c r="F141" s="55" t="s">
         <v>50</v>
@@ -67992,13 +68102,13 @@
         <v>country</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D142" s="55" t="s">
-        <v>3578</v>
+        <v>3588</v>
       </c>
       <c r="E142" s="55" t="s">
-        <v>3579</v>
+        <v>3589</v>
       </c>
       <c r="F142" s="55" t="s">
         <v>50</v>
@@ -68017,16 +68127,16 @@
         <v>couplet </v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D143" s="55" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="55" t="s">
-        <v>3580</v>
+        <v>3590</v>
       </c>
       <c r="F143" s="55" t="s">
-        <v>3581</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="144">
@@ -68039,13 +68149,13 @@
         <v>cousin</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D144" s="55" t="s">
-        <v>3582</v>
+        <v>3592</v>
       </c>
       <c r="E144" s="55" t="s">
-        <v>3583</v>
+        <v>3593</v>
       </c>
       <c r="F144" s="55" t="s">
         <v>50</v>
@@ -68064,13 +68174,13 @@
         <v>cover page</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>3584</v>
+        <v>3594</v>
       </c>
       <c r="E145" s="55" t="s">
-        <v>3585</v>
+        <v>3595</v>
       </c>
       <c r="F145" s="55" t="s">
         <v>50</v>
@@ -68089,13 +68199,13 @@
         <v>cow</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D146" s="55" t="s">
-        <v>3586</v>
+        <v>3596</v>
       </c>
       <c r="E146" s="55" t="s">
-        <v>3587</v>
+        <v>3597</v>
       </c>
       <c r="F146" s="55" t="s">
         <v>50</v>
@@ -68114,13 +68224,13 @@
         <v>CPR</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D147" s="55" t="s">
-        <v>3588</v>
+        <v>3598</v>
       </c>
       <c r="E147" s="55" t="s">
-        <v>3589</v>
+        <v>3599</v>
       </c>
       <c r="F147" s="55" t="s">
         <v>50</v>
@@ -68139,13 +68249,13 @@
         <v>crab</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>3590</v>
+        <v>3600</v>
       </c>
       <c r="E148" s="55" t="s">
-        <v>3591</v>
+        <v>3601</v>
       </c>
       <c r="F148" s="55" t="s">
         <v>50</v>
@@ -68164,13 +68274,13 @@
         <v>Creole</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D149" s="55" t="s">
-        <v>3592</v>
+        <v>3602</v>
       </c>
       <c r="E149" s="55" t="s">
-        <v>3593</v>
+        <v>3603</v>
       </c>
       <c r="F149" s="55" t="s">
         <v>50</v>
@@ -68189,13 +68299,13 @@
         <v>cricket</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D150" s="55" t="s">
-        <v>3594</v>
+        <v>3604</v>
       </c>
       <c r="E150" s="55" t="s">
-        <v>3595</v>
+        <v>3605</v>
       </c>
       <c r="F150" s="55" t="s">
         <v>50</v>
@@ -68214,7 +68324,7 @@
         <v>crocodile</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>50</v>
@@ -68239,13 +68349,13 @@
         <v>curtains</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D152" s="55" t="s">
-        <v>3596</v>
+        <v>3606</v>
       </c>
       <c r="E152" s="55" t="s">
-        <v>3597</v>
+        <v>3607</v>
       </c>
       <c r="F152" s="55" t="s">
         <v>50</v>
@@ -68264,7 +68374,7 @@
         <v>cursive</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D153" s="55" t="s">
         <v>50</v>
@@ -68289,7 +68399,7 @@
         <v>dining room</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D154" s="55" t="s">
         <v>50</v>
@@ -68314,7 +68424,7 @@
         <v>dance</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D155" s="55" t="s">
         <v>50</v>
@@ -68339,7 +68449,7 @@
         <v>dandy-shandy</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D156" s="55" t="s">
         <v>50</v>
@@ -68364,7 +68474,7 @@
         <v>danger</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D157" s="55" t="s">
         <v>50</v>
@@ -68389,13 +68499,13 @@
         <v>data</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D158" s="55" t="s">
-        <v>3598</v>
+        <v>3608</v>
       </c>
       <c r="E158" s="55" t="s">
-        <v>3599</v>
+        <v>3609</v>
       </c>
       <c r="F158" s="55" t="s">
         <v>50</v>
@@ -68414,13 +68524,13 @@
         <v>December</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D159" s="55" t="s">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="E159" s="55" t="s">
-        <v>3601</v>
+        <v>3611</v>
       </c>
       <c r="F159" s="55" t="s">
         <v>50</v>
@@ -68439,13 +68549,13 @@
         <v>deed</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D160" s="55" t="s">
-        <v>3602</v>
+        <v>3612</v>
       </c>
       <c r="E160" s="55" t="s">
-        <v>3603</v>
+        <v>3613</v>
       </c>
       <c r="F160" s="55" t="s">
         <v>50</v>
@@ -68464,7 +68574,7 @@
         <v>degrees</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D161" s="55" t="s">
         <v>50</v>
@@ -68489,13 +68599,13 @@
         <v>description</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D162" s="55" t="s">
-        <v>3604</v>
+        <v>3614</v>
       </c>
       <c r="E162" s="55" t="s">
-        <v>3605</v>
+        <v>3615</v>
       </c>
       <c r="F162" s="55" t="s">
         <v>50</v>
@@ -68514,7 +68624,7 @@
         <v>desperation</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D163" s="55" t="s">
         <v>50</v>
@@ -68539,13 +68649,13 @@
         <v>Devon House</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D164" s="55" t="s">
-        <v>3606</v>
+        <v>3616</v>
       </c>
       <c r="E164" s="55" t="s">
-        <v>3607</v>
+        <v>3617</v>
       </c>
       <c r="F164" s="55" t="s">
         <v>50</v>
@@ -68564,13 +68674,13 @@
         <v>dialogue</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D165" s="55" t="s">
-        <v>3608</v>
+        <v>3618</v>
       </c>
       <c r="E165" s="55" t="s">
-        <v>3609</v>
+        <v>3619</v>
       </c>
       <c r="F165" s="55" t="s">
         <v>50</v>
@@ -68589,13 +68699,13 @@
         <v>different</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D166" s="55" t="s">
-        <v>3610</v>
+        <v>3620</v>
       </c>
       <c r="E166" s="55" t="s">
-        <v>3611</v>
+        <v>3621</v>
       </c>
       <c r="F166" s="55" t="s">
         <v>50</v>
@@ -68614,13 +68724,13 @@
         <v>door</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D167" s="55" t="s">
-        <v>3612</v>
+        <v>3622</v>
       </c>
       <c r="E167" s="55" t="s">
-        <v>3613</v>
+        <v>3623</v>
       </c>
       <c r="F167" s="55" t="s">
         <v>50</v>
@@ -68639,13 +68749,13 @@
         <v>dinner</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D168" s="55" t="s">
         <v>2585</v>
       </c>
       <c r="E168" s="55" t="s">
-        <v>3614</v>
+        <v>3624</v>
       </c>
       <c r="F168" s="55" t="s">
         <v>50</v>
@@ -68664,13 +68774,13 @@
         <v>disaster</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D169" s="55" t="s">
-        <v>3615</v>
+        <v>3625</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>3616</v>
+        <v>3626</v>
       </c>
       <c r="F169" s="55" t="s">
         <v>50</v>
@@ -68689,13 +68799,13 @@
         <v>dislike</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D170" s="55" t="s">
-        <v>3617</v>
+        <v>3627</v>
       </c>
       <c r="E170" s="55" t="s">
-        <v>3618</v>
+        <v>3628</v>
       </c>
       <c r="F170" s="55" t="s">
         <v>50</v>
@@ -68714,7 +68824,7 @@
         <v>dodge</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D171" s="55" t="s">
         <v>50</v>
@@ -68739,13 +68849,13 @@
         <v>dog</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D172" s="55" t="s">
-        <v>3619</v>
+        <v>3629</v>
       </c>
       <c r="E172" s="55" t="s">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="F172" s="55" t="s">
         <v>50</v>
@@ -68764,13 +68874,13 @@
         <v>dolphin</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>3621</v>
+        <v>3631</v>
       </c>
       <c r="E173" s="55" t="s">
-        <v>3622</v>
+        <v>3632</v>
       </c>
       <c r="F173" s="55" t="s">
         <v>50</v>
@@ -68789,13 +68899,13 @@
         <v>Dolphin Cove </v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>3623</v>
+        <v>3633</v>
       </c>
       <c r="E174" s="55" t="s">
-        <v>3624</v>
+        <v>3634</v>
       </c>
       <c r="F174" s="55" t="s">
         <v>50</v>
@@ -68814,13 +68924,13 @@
         <v>dress</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>3625</v>
+        <v>3635</v>
       </c>
       <c r="E175" s="55" t="s">
-        <v>3626</v>
+        <v>3636</v>
       </c>
       <c r="F175" s="55" t="s">
         <v>50</v>
@@ -68839,13 +68949,13 @@
         <v>down</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>3627</v>
+        <v>3637</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>3628</v>
+        <v>3638</v>
       </c>
       <c r="F176" s="55" t="s">
         <v>50</v>
@@ -68864,13 +68974,13 @@
         <v>dragon-fly</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>3629</v>
+        <v>3639</v>
       </c>
       <c r="E177" s="55" t="s">
-        <v>3630</v>
+        <v>3640</v>
       </c>
       <c r="F177" s="55" t="s">
         <v>50</v>
@@ -68889,7 +68999,7 @@
         <v>dryer</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D178" s="55" t="s">
         <v>50</v>
@@ -68914,13 +69024,13 @@
         <v>flip flops</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D179" s="55" t="s">
-        <v>3631</v>
+        <v>3641</v>
       </c>
       <c r="E179" s="55" t="s">
-        <v>3632</v>
+        <v>3642</v>
       </c>
       <c r="F179" s="55" t="s">
         <v>50</v>
@@ -68939,13 +69049,13 @@
         <v>dumpling</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>3633</v>
+        <v>3643</v>
       </c>
       <c r="E180" s="55" t="s">
-        <v>3634</v>
+        <v>3644</v>
       </c>
       <c r="F180" s="55" t="s">
         <v>50</v>
@@ -68964,13 +69074,13 @@
         <v>Dunn's River Fallls</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>3635</v>
+        <v>3645</v>
       </c>
       <c r="E181" s="55" t="s">
-        <v>3636</v>
+        <v>3646</v>
       </c>
       <c r="F181" s="55" t="s">
         <v>50</v>
@@ -68989,13 +69099,13 @@
         <v>duration</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D182" s="55" t="s">
-        <v>3637</v>
+        <v>3647</v>
       </c>
       <c r="E182" s="55" t="s">
-        <v>3638</v>
+        <v>3648</v>
       </c>
       <c r="F182" s="55" t="s">
         <v>50</v>
@@ -69014,7 +69124,7 @@
         <v>dynamics</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D183" s="55" t="s">
         <v>50</v>
@@ -69039,7 +69149,7 @@
         <v>Ear</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D184" s="55" t="s">
         <v>50</v>
@@ -69048,10 +69158,10 @@
         <v>50</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>3639</v>
+        <v>3649</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>3639</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="185">
@@ -69064,13 +69174,13 @@
         <v>earthquake</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>3640</v>
+        <v>3650</v>
       </c>
       <c r="E185" s="55" t="s">
-        <v>3641</v>
+        <v>3651</v>
       </c>
       <c r="F185" s="55" t="s">
         <v>50</v>
@@ -69089,7 +69199,7 @@
         <v>egg</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>50</v>
@@ -69114,13 +69224,13 @@
         <v>Elbow</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>3642</v>
+        <v>3652</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>3643</v>
+        <v>3653</v>
       </c>
       <c r="F187" s="55" t="s">
         <v>50</v>
@@ -69139,13 +69249,13 @@
         <v>elder</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D188" s="55" t="s">
-        <v>3644</v>
+        <v>3654</v>
       </c>
       <c r="E188" s="55" t="s">
-        <v>3645</v>
+        <v>3655</v>
       </c>
       <c r="F188" s="55" t="s">
         <v>50</v>
@@ -69164,13 +69274,13 @@
         <v>Emanciapation Park </v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>3646</v>
+        <v>3656</v>
       </c>
       <c r="E189" s="55" t="s">
-        <v>3647</v>
+        <v>3657</v>
       </c>
       <c r="F189" s="55" t="s">
         <v>50</v>
@@ -69189,13 +69299,13 @@
         <v>emergency</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D190" s="55" t="s">
-        <v>3648</v>
+        <v>3658</v>
       </c>
       <c r="E190" s="55" t="s">
-        <v>3649</v>
+        <v>3659</v>
       </c>
       <c r="F190" s="55" t="s">
         <v>50</v>
@@ -69214,13 +69324,13 @@
         <v>end</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D191" s="55" t="s">
-        <v>3650</v>
+        <v>3660</v>
       </c>
       <c r="E191" s="55" t="s">
-        <v>3651</v>
+        <v>3661</v>
       </c>
       <c r="F191" s="55" t="s">
         <v>50</v>
@@ -69239,7 +69349,7 @@
         <v>endurance</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D192" s="55" t="s">
         <v>50</v>
@@ -69264,7 +69374,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>50</v>
@@ -69289,7 +69399,7 @@
         <v>environment</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D194" s="55" t="s">
         <v>50</v>
@@ -69314,7 +69424,7 @@
         <v>estimation</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D195" s="55" t="s">
         <v>50</v>
@@ -69339,7 +69449,7 @@
         <v>ethnic</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>50</v>
@@ -69364,13 +69474,13 @@
         <v>Europe</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>3652</v>
+        <v>3662</v>
       </c>
       <c r="E197" s="55" t="s">
-        <v>3653</v>
+        <v>3663</v>
       </c>
       <c r="F197" s="55" t="s">
         <v>50</v>
@@ -69389,13 +69499,13 @@
         <v>evcuation plan</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>3654</v>
+        <v>3664</v>
       </c>
       <c r="E198" s="55" t="s">
-        <v>3655</v>
+        <v>3665</v>
       </c>
       <c r="F198" s="55" t="s">
         <v>50</v>
@@ -69414,13 +69524,13 @@
         <v>evening</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>3656</v>
+        <v>3666</v>
       </c>
       <c r="E199" s="55" t="s">
-        <v>3657</v>
+        <v>3667</v>
       </c>
       <c r="F199" s="55" t="s">
         <v>50</v>
@@ -69439,13 +69549,13 @@
         <v>exercise</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>3658</v>
+        <v>3668</v>
       </c>
       <c r="E200" s="55" t="s">
-        <v>3659</v>
+        <v>3669</v>
       </c>
       <c r="F200" s="55" t="s">
         <v>50</v>
@@ -69464,13 +69574,13 @@
         <v>exit</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D201" s="55" t="s">
         <v>1091</v>
       </c>
       <c r="E201" s="55" t="s">
-        <v>3660</v>
+        <v>3670</v>
       </c>
       <c r="F201" s="55" t="s">
         <v>50</v>
@@ -69489,13 +69599,13 @@
         <v>exploration</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>3661</v>
+        <v>3671</v>
       </c>
       <c r="E202" s="55" t="s">
-        <v>3662</v>
+        <v>3672</v>
       </c>
       <c r="F202" s="55" t="s">
         <v>50</v>
@@ -69514,13 +69624,13 @@
         <v>explosive</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>3663</v>
+        <v>3673</v>
       </c>
       <c r="E203" s="55" t="s">
-        <v>3664</v>
+        <v>3674</v>
       </c>
       <c r="F203" s="55" t="s">
         <v>50</v>
@@ -69539,13 +69649,13 @@
         <v>Eye</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>3665</v>
+        <v>3675</v>
       </c>
       <c r="E204" s="55" t="s">
-        <v>3666</v>
+        <v>3676</v>
       </c>
       <c r="F204" s="55" t="s">
         <v>50</v>
@@ -69564,13 +69674,13 @@
         <v>fact</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>3667</v>
+        <v>3677</v>
       </c>
       <c r="E205" s="55" t="s">
-        <v>3668</v>
+        <v>3678</v>
       </c>
       <c r="F205" s="55" t="s">
         <v>50</v>
@@ -69589,7 +69699,7 @@
         <v>family</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D206" s="55" t="s">
         <v>50</v>
@@ -69614,13 +69724,13 @@
         <v>farmer</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D207" s="55" t="s">
         <v>223</v>
       </c>
       <c r="E207" s="55" t="s">
-        <v>3669</v>
+        <v>3679</v>
       </c>
       <c r="F207" s="55" t="s">
         <v>50</v>
@@ -69639,19 +69749,19 @@
         <v>fat</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>3670</v>
+        <v>3680</v>
       </c>
       <c r="E208" s="55" t="s">
-        <v>3671</v>
+        <v>3681</v>
       </c>
       <c r="F208" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G208" s="55" t="s">
-        <v>3672</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="209">
@@ -69664,19 +69774,19 @@
         <v>father</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>3673</v>
+        <v>3683</v>
       </c>
       <c r="E209" s="55" t="s">
-        <v>3674</v>
+        <v>3684</v>
       </c>
       <c r="F209" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G209" s="55" t="s">
-        <v>3675</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="210">
@@ -69689,13 +69799,13 @@
         <v>February</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>3676</v>
+        <v>3686</v>
       </c>
       <c r="E210" s="55" t="s">
-        <v>3677</v>
+        <v>3687</v>
       </c>
       <c r="F210" s="55" t="s">
         <v>622</v>
@@ -69714,13 +69824,13 @@
         <v>feeling</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>3678</v>
+        <v>3688</v>
       </c>
       <c r="E211" s="55" t="s">
-        <v>3679</v>
+        <v>3689</v>
       </c>
       <c r="F211" s="55" t="s">
         <v>50</v>
@@ -69739,7 +69849,7 @@
         <v>feet</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D212" s="55" t="s">
         <v>50</v>
@@ -69764,7 +69874,7 @@
         <v>fiction</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D213" s="55" t="s">
         <v>50</v>
@@ -69789,7 +69899,7 @@
         <v>Fingers</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D214" s="55" t="s">
         <v>50</v>
@@ -69814,7 +69924,7 @@
         <v>fire</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D215" s="55" t="s">
         <v>50</v>
@@ -69839,7 +69949,7 @@
         <v>first aid</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>50</v>
@@ -69864,7 +69974,7 @@
         <v>fish</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D217" s="55" t="s">
         <v>50</v>
@@ -69889,7 +69999,7 @@
         <v>furniture</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D218" s="55" t="s">
         <v>50</v>
@@ -69914,7 +70024,7 @@
         <v>flood</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>50</v>
@@ -69939,7 +70049,7 @@
         <v>folk-tales</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D220" s="55" t="s">
         <v>50</v>
@@ -69964,7 +70074,7 @@
         <v>food</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D221" s="55" t="s">
         <v>50</v>
@@ -69989,7 +70099,7 @@
         <v>Foot</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D222" s="55" t="s">
         <v>50</v>
@@ -70014,7 +70124,7 @@
         <v>football</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D223" s="55" t="s">
         <v>50</v>
@@ -70039,7 +70149,7 @@
         <v>forehead</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D224" s="55" t="s">
         <v>50</v>
@@ -70064,7 +70174,7 @@
         <v>fowl</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D225" s="55" t="s">
         <v>50</v>
@@ -70089,7 +70199,7 @@
         <v>fractions</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>50</v>
@@ -70114,7 +70224,7 @@
         <v>Friday</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D227" s="55" t="s">
         <v>50</v>
@@ -70139,7 +70249,7 @@
         <v>friend</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D228" s="55" t="s">
         <v>50</v>
@@ -70164,7 +70274,7 @@
         <v>friend</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D229" s="55" t="s">
         <v>50</v>
@@ -70189,7 +70299,7 @@
         <v>friendship</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D230" s="55" t="s">
         <v>50</v>
@@ -70214,7 +70324,7 @@
         <v>frog</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D231" s="55" t="s">
         <v>50</v>
@@ -70239,7 +70349,7 @@
         <v>gloves</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D232" s="55" t="s">
         <v>50</v>
@@ -70264,7 +70374,7 @@
         <v>game</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D233" s="55" t="s">
         <v>50</v>
@@ -70289,7 +70399,7 @@
         <v>game</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D234" s="55" t="s">
         <v>50</v>
@@ -70314,7 +70424,7 @@
         <v>girl</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="D235" s="55" t="s">
         <v>50</v>
@@ -74975,34 +75085,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3110</v>
+        <v>3120</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>3092</v>
+        <v>3102</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>3313</v>
+        <v>3323</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>3680</v>
+        <v>3690</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>3681</v>
+        <v>3691</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>3682</v>
+        <v>3692</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>3683</v>
+        <v>3693</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>3684</v>
+        <v>3694</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>3685</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="2">
@@ -75015,28 +75125,28 @@
         <v>abstain</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>3686</v>
+        <v>3696</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>3687</v>
+        <v>3697</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>3688</v>
+        <v>3698</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>3689</v>
+        <v>3699</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>3690</v>
+        <v>3700</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>3691</v>
+        <v>3701</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>3692</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="3">
@@ -75049,28 +75159,28 @@
         <v>accomplish</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3693</v>
+        <v>3703</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3694</v>
+        <v>3704</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>3695</v>
+        <v>3705</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>3696</v>
+        <v>3706</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>3697</v>
+        <v>3707</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>3698</v>
+        <v>3708</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>3699</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="4">
@@ -75083,28 +75193,28 @@
         <v>accumulate</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3700</v>
+        <v>3710</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3701</v>
+        <v>3711</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>3702</v>
+        <v>3712</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>3703</v>
+        <v>3713</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>3704</v>
+        <v>3714</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>3705</v>
+        <v>3715</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>3706</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="5">
@@ -75117,28 +75227,28 @@
         <v>aggravate</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3707</v>
+        <v>3717</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3708</v>
+        <v>3718</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>3709</v>
+        <v>3719</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>3710</v>
+        <v>3720</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>3711</v>
+        <v>3721</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>3712</v>
+        <v>3722</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>3713</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="6">
@@ -75151,28 +75261,28 @@
         <v>aim</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3714</v>
+        <v>3724</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3715</v>
+        <v>3725</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>3716</v>
+        <v>3726</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>3717</v>
+        <v>3727</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>3718</v>
+        <v>3728</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>3719</v>
+        <v>3729</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>3720</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="7">
@@ -75185,28 +75295,28 @@
         <v>allocate</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3721</v>
+        <v>3731</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3722</v>
+        <v>3732</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>3723</v>
+        <v>3733</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>3724</v>
+        <v>3734</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>3725</v>
+        <v>3735</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>3726</v>
+        <v>3736</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>3727</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="8">
@@ -75219,28 +75329,28 @@
         <v>amplify</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3728</v>
+        <v>3738</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>1233</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>3729</v>
+        <v>3739</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>3730</v>
+        <v>3740</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>3731</v>
+        <v>3741</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>3732</v>
+        <v>3742</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>3733</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="9">
@@ -75253,28 +75363,28 @@
         <v>angle</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3734</v>
+        <v>3744</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3735</v>
+        <v>3745</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>3736</v>
+        <v>3746</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>3737</v>
+        <v>3747</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>3738</v>
+        <v>3748</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>3739</v>
+        <v>3749</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>3740</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="10">
@@ -75287,28 +75397,28 @@
         <v>answer</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3741</v>
+        <v>3751</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>3743</v>
+        <v>3753</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>3744</v>
+        <v>3754</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>3745</v>
+        <v>3755</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>3746</v>
+        <v>3756</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>3747</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="11">
@@ -75321,28 +75431,28 @@
         <v>anticipate</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3748</v>
+        <v>3758</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3749</v>
+        <v>3759</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>3750</v>
+        <v>3760</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>3751</v>
+        <v>3761</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>3752</v>
+        <v>3762</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>3753</v>
+        <v>3763</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>3754</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="12">
@@ -75355,28 +75465,28 @@
         <v>apprehend</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3755</v>
+        <v>3765</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>3756</v>
+        <v>3766</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>3757</v>
+        <v>3767</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>3758</v>
+        <v>3768</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>3759</v>
+        <v>3769</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>3760</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="13">
@@ -75389,28 +75499,28 @@
         <v>arbirate</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>754</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3761</v>
+        <v>3771</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>3762</v>
+        <v>3772</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>3763</v>
+        <v>3773</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>3764</v>
+        <v>3774</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>3765</v>
+        <v>3775</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>3766</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="14">
@@ -75423,28 +75533,28 @@
         <v>ascend</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3767</v>
+        <v>3777</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3768</v>
+        <v>3778</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>3769</v>
+        <v>3779</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>3770</v>
+        <v>3780</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>3771</v>
+        <v>3781</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>3772</v>
+        <v>3782</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>3773</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="15">
@@ -75457,28 +75567,28 @@
         <v>ask</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3774</v>
+        <v>3784</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3775</v>
+        <v>3785</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>3776</v>
+        <v>3786</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>3777</v>
+        <v>3787</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>3778</v>
+        <v>3788</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>3779</v>
+        <v>3789</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>3780</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="16">
@@ -75491,28 +75601,28 @@
         <v>aspire</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3781</v>
+        <v>3791</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3782</v>
+        <v>3792</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>3783</v>
+        <v>3793</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>3784</v>
+        <v>3794</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>3785</v>
+        <v>3795</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>3786</v>
+        <v>3796</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>3787</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="17">
@@ -75525,28 +75635,28 @@
         <v>assemble</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3788</v>
+        <v>3798</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3789</v>
+        <v>3799</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>3790</v>
+        <v>3800</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>3791</v>
+        <v>3801</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>3792</v>
+        <v>3802</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>3793</v>
+        <v>3803</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>3794</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="18">
@@ -75559,28 +75669,28 @@
         <v>attack</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3795</v>
+        <v>3805</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3796</v>
+        <v>3806</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>3797</v>
+        <v>3807</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>3798</v>
+        <v>3808</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>3799</v>
+        <v>3809</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>3800</v>
+        <v>3810</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>3801</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="19">
@@ -75593,28 +75703,28 @@
         <v>authenicate</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3802</v>
+        <v>3812</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3803</v>
+        <v>3813</v>
       </c>
       <c r="F19" s="55" t="s">
         <v>2788</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>3804</v>
+        <v>3814</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>3805</v>
+        <v>3815</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>3806</v>
+        <v>3816</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>3807</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="20">
@@ -75627,28 +75737,28 @@
         <v>baby</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3808</v>
+        <v>3818</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3809</v>
+        <v>3819</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>3811</v>
+        <v>3821</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>3812</v>
+        <v>3822</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>3813</v>
+        <v>3823</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>3814</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="21">
@@ -75661,28 +75771,28 @@
         <v>back</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3815</v>
+        <v>3825</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3816</v>
+        <v>3826</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>3817</v>
+        <v>3827</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>3818</v>
+        <v>3828</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>3819</v>
+        <v>3829</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>3820</v>
+        <v>3830</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>3821</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="22">
@@ -75695,28 +75805,28 @@
         <v>bad</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3822</v>
+        <v>3832</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3823</v>
+        <v>3833</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>3824</v>
+        <v>3834</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>3825</v>
+        <v>3835</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>3826</v>
+        <v>3836</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>3827</v>
+        <v>3837</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>3828</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="23">
@@ -75729,28 +75839,28 @@
         <v>be</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3829</v>
+        <v>3839</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3830</v>
+        <v>3840</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>3831</v>
+        <v>3841</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>3832</v>
+        <v>3842</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>3833</v>
+        <v>3843</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>3834</v>
+        <v>3844</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>3835</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="24">
@@ -75763,28 +75873,28 @@
         <v>beach</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3836</v>
+        <v>3846</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3837</v>
+        <v>3847</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>3838</v>
+        <v>3848</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>3839</v>
+        <v>3849</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>3840</v>
+        <v>3850</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>3841</v>
+        <v>3851</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>3842</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="25">
@@ -75797,28 +75907,28 @@
         <v>beg</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3843</v>
+        <v>3853</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3844</v>
+        <v>3854</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>3845</v>
+        <v>3855</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>3846</v>
+        <v>3856</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>3847</v>
+        <v>3857</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>3848</v>
+        <v>3858</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>3849</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="26">
@@ -75831,28 +75941,28 @@
         <v>beginning</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3850</v>
+        <v>3860</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3851</v>
+        <v>3861</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>3852</v>
+        <v>3862</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>3853</v>
+        <v>3863</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>3854</v>
+        <v>3864</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>3855</v>
+        <v>3865</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>3856</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="27">
@@ -75865,28 +75975,28 @@
         <v>bend</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3857</v>
+        <v>3867</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3858</v>
+        <v>3868</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>3859</v>
+        <v>3869</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>3860</v>
+        <v>3870</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>3861</v>
+        <v>3871</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>3862</v>
+        <v>3872</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>3863</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="28">
@@ -75899,28 +76009,28 @@
         <v>boiled</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3864</v>
+        <v>3874</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3865</v>
+        <v>3875</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>3866</v>
+        <v>3876</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>3867</v>
+        <v>3877</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>3868</v>
+        <v>3878</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>3869</v>
+        <v>3879</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>3870</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="29">
@@ -75933,28 +76043,28 @@
         <v>bounce</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3871</v>
+        <v>3881</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3872</v>
+        <v>3882</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>3873</v>
+        <v>3883</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>3874</v>
+        <v>3884</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>3875</v>
+        <v>3885</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>3876</v>
+        <v>3886</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>3877</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="30">
@@ -75967,28 +76077,28 @@
         <v>boxing</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3879</v>
+        <v>3889</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>3880</v>
+        <v>3890</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>3881</v>
+        <v>3891</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>3882</v>
+        <v>3892</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>3883</v>
+        <v>3893</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>3884</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="31">
@@ -76001,28 +76111,28 @@
         <v>brainstorm</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3734</v>
+        <v>3744</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>3885</v>
+        <v>3895</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>3736</v>
+        <v>3746</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>3737</v>
+        <v>3747</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>3738</v>
+        <v>3748</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>3739</v>
+        <v>3749</v>
       </c>
       <c r="J31" s="58" t="s">
-        <v>3740</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="32">
@@ -76035,28 +76145,28 @@
         <v>bread</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3886</v>
+        <v>3896</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3887</v>
+        <v>3897</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>3888</v>
+        <v>3898</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>3889</v>
+        <v>3899</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>3890</v>
+        <v>3900</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>3891</v>
+        <v>3901</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>3892</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="33">
@@ -76069,28 +76179,28 @@
         <v>breakfast</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3748</v>
+        <v>3758</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3893</v>
+        <v>3903</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>3750</v>
+        <v>3760</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>3751</v>
+        <v>3761</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>3752</v>
+        <v>3762</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>3753</v>
+        <v>3763</v>
       </c>
       <c r="J33" s="58" t="s">
-        <v>3754</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="34">
@@ -76103,22 +76213,22 @@
         <v>burn</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>3894</v>
+        <v>3904</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>3895</v>
+        <v>3905</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>3896</v>
+        <v>3906</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3897</v>
+        <v>3907</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>3898</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="35">
@@ -76131,28 +76241,28 @@
         <v>butter</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3899</v>
+        <v>3909</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3900</v>
+        <v>3910</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>3903</v>
+        <v>3913</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>3904</v>
+        <v>3914</v>
       </c>
       <c r="J35" s="58" t="s">
-        <v>3905</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="36">
@@ -82000,7 +82110,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>3110</v>
+        <v>3120</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>

--- a/app/Vocab list.xlsx
+++ b/app/Vocab list.xlsx
@@ -18,11 +18,11 @@
   <definedNames>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Adjectives!$A$1:$E$118</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">Tense!$B$1:$J$210</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EF37B758_EE2B_4163_8442_129C7087316B_.wvu.FilterData">Words!$A$3:$J$791</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_86BAAF73_D54B_4567_9E5B_E9A2392C7EB3_.wvu.FilterData">Words!$A$3:$J$791</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EF37B758-EE2B-4163-8442-129C7087316B}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{86BAAF73-D54B-4567-9E5B-E9A2392C7EB3}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="3958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9290" uniqueCount="3959">
   <si>
     <t>word</t>
   </si>
@@ -5212,6 +5212,9 @@
     <t>https://i.imgur.com/XJfGSDX.png</t>
   </si>
   <si>
+    <t>term</t>
+  </si>
+  <si>
     <t>abbo</t>
   </si>
   <si>
@@ -8764,9 +8767,6 @@
     <t>teat</t>
   </si>
   <si>
-    <t>term</t>
-  </si>
-  <si>
     <t>terrorist</t>
   </si>
   <si>
@@ -9110,6 +9110,9 @@
   </si>
   <si>
     <t>saved_phrases</t>
+  </si>
+  <si>
+    <t>I need help</t>
   </si>
   <si>
     <t>I need to use the bathroom</t>
@@ -41423,7 +41426,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EF37B758-EE2B-4163-8442-129C7087316B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{86BAAF73-D54B-4567-9E5B-E9A2392C7EB3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$3:$J$791">
         <filterColumn colId="2">
           <filters>
@@ -42462,7 +42465,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
@@ -42569,19 +42572,19 @@
     <row r="1">
       <c r="A1" s="52"/>
       <c r="B1" s="62" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>2</v>
@@ -42593,7 +42596,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="K1" s="9"/>
       <c r="O1" s="52" t="s">
@@ -42610,10 +42613,10 @@
       </c>
       <c r="D2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>16</v>
@@ -42630,10 +42633,10 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>20</v>
@@ -42650,10 +42653,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>23</v>
@@ -42670,13 +42673,13 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>27</v>
@@ -42690,13 +42693,13 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>30</v>
@@ -42710,10 +42713,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>32</v>
@@ -42730,10 +42733,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>35</v>
@@ -42747,10 +42750,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>37</v>
@@ -42764,10 +42767,10 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>1311</v>
@@ -42781,10 +42784,10 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="12">
@@ -42795,10 +42798,10 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="13">
@@ -42809,100 +42812,100 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="20">
@@ -42913,122 +42916,122 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="29">
@@ -43039,10 +43042,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="30">
@@ -43053,10 +43056,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="31">
@@ -43067,10 +43070,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="32">
@@ -43081,10 +43084,10 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="33">
@@ -43095,10 +43098,10 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="34">
@@ -43109,10 +43112,10 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="35">
@@ -43123,10 +43126,10 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="36">
@@ -43137,10 +43140,10 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="37">
@@ -43151,10 +43154,10 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="38">
@@ -43165,10 +43168,10 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="39">
@@ -43398,7 +43401,7 @@
     <row r="55">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -43944,7 +43947,7 @@
     <row r="94">
       <c r="A94" s="55"/>
       <c r="B94" s="55" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -43972,7 +43975,7 @@
     <row r="96">
       <c r="A96" s="55"/>
       <c r="B96" s="55" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -43994,7 +43997,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="98">
@@ -44008,7 +44011,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="99">
@@ -44022,7 +44025,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="100">
@@ -44036,7 +44039,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="101">
@@ -44050,7 +44053,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="102">
@@ -44064,7 +44067,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="103">
@@ -44078,7 +44081,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="104">
@@ -44092,7 +44095,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="105">
@@ -44224,7 +44227,7 @@
     <row r="114">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -44414,7 +44417,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="128">
@@ -44428,7 +44431,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="129">
@@ -44442,7 +44445,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="130">
@@ -44456,7 +44459,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="131">
@@ -44470,7 +44473,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="132">
@@ -44484,7 +44487,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="133">
@@ -44498,7 +44501,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="134">
@@ -44512,7 +44515,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="135">
@@ -44526,7 +44529,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="136">
@@ -44540,7 +44543,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="137">
@@ -44554,7 +44557,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="138">
@@ -44568,7 +44571,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="139">
@@ -44582,7 +44585,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="140">
@@ -44596,7 +44599,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="141">
@@ -44610,7 +44613,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="142">
@@ -44624,7 +44627,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="143">
@@ -44638,7 +44641,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="144">
@@ -44652,7 +44655,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="145">
@@ -44666,7 +44669,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="146">
@@ -44680,7 +44683,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="147">
@@ -44694,7 +44697,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="148">
@@ -44708,7 +44711,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="149">
@@ -44722,7 +44725,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="150">
@@ -44736,7 +44739,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="151">
@@ -44750,7 +44753,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="152">
@@ -44764,7 +44767,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="153">
@@ -44778,13 +44781,13 @@
         <v>10</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -44792,7 +44795,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>1311</v>
@@ -44809,7 +44812,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="156">
@@ -44823,7 +44826,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="157">
@@ -44837,7 +44840,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="158">
@@ -44851,7 +44854,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="159">
@@ -44865,7 +44868,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="160">
@@ -44879,7 +44882,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="161">
@@ -44893,7 +44896,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="162">
@@ -44907,7 +44910,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="163">
@@ -44921,7 +44924,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="164">
@@ -44935,7 +44938,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="165">
@@ -44949,13 +44952,13 @@
         <v>53</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -44963,7 +44966,7 @@
         <v>53</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="167">
@@ -44977,7 +44980,7 @@
         <v>53</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="168">
@@ -44991,7 +44994,7 @@
         <v>53</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="169">
@@ -45005,7 +45008,7 @@
         <v>53</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="170">
@@ -45019,7 +45022,7 @@
         <v>53</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="171">
@@ -45033,7 +45036,7 @@
         <v>53</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="172">
@@ -45047,7 +45050,7 @@
         <v>53</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="173">
@@ -45061,7 +45064,7 @@
         <v>53</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="174">
@@ -45075,7 +45078,7 @@
         <v>53</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="175">
@@ -45089,7 +45092,7 @@
         <v>53</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="176">
@@ -45103,7 +45106,7 @@
         <v>53</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="177">
@@ -45112,10 +45115,10 @@
         <v>659</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="178">
@@ -45124,10 +45127,10 @@
         <v>630</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="179">
@@ -45136,10 +45139,10 @@
         <v>1219</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="180">
@@ -45148,10 +45151,10 @@
         <v>323</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="181">
@@ -45160,22 +45163,22 @@
         <v>551</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="183">
@@ -45184,10 +45187,10 @@
         <v>1569</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="184">
@@ -45196,10 +45199,10 @@
         <v>1524</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="185">
@@ -45208,22 +45211,22 @@
         <v>1516</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="187">
@@ -45232,10 +45235,10 @@
         <v>672</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="188">
@@ -45244,10 +45247,10 @@
         <v>1631</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="189">
@@ -45256,10 +45259,10 @@
         <v>1233</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="190">
@@ -45268,10 +45271,10 @@
         <v>1461</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="191">
@@ -45280,10 +45283,10 @@
         <v>18</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="192">
@@ -45292,10 +45295,10 @@
         <v>47</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="193">
@@ -45304,10 +45307,10 @@
         <v>46</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="194">
@@ -45316,10 +45319,10 @@
         <v>683</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="195">
@@ -45328,10 +45331,10 @@
         <v>826</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="196">
@@ -45340,10 +45343,10 @@
         <v>1116</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="197">
@@ -45352,10 +45355,10 @@
         <v>802</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="198">
@@ -45364,10 +45367,10 @@
         <v>1383</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="199">
@@ -45376,10 +45379,10 @@
         <v>1560</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="200">
@@ -45388,10 +45391,10 @@
         <v>1041</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="201">
@@ -45400,10 +45403,10 @@
         <v>1018</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="202">
@@ -45412,10 +45415,10 @@
         <v>406</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="203">
@@ -45424,22 +45427,22 @@
         <v>428</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="205">
@@ -45448,22 +45451,22 @@
         <v>1321</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="207">
@@ -45472,10 +45475,10 @@
         <v>361</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="208">
@@ -45484,34 +45487,34 @@
         <v>1666</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="211">
@@ -49283,12 +49286,12 @@
     </row>
     <row r="85">
       <c r="A85" s="9" t="s">
-        <v>264</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>1806</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87">
@@ -49508,12 +49511,12 @@
     </row>
     <row r="130">
       <c r="A130" s="9" t="s">
-        <v>310</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="s">
-        <v>1850</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132">
@@ -50233,12 +50236,12 @@
     </row>
     <row r="275">
       <c r="A275" s="9" t="s">
-        <v>485</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="9" t="s">
-        <v>1994</v>
+        <v>485</v>
       </c>
     </row>
     <row r="277">
@@ -50253,12 +50256,12 @@
     </row>
     <row r="279">
       <c r="A279" s="9" t="s">
-        <v>496</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
-        <v>1997</v>
+        <v>496</v>
       </c>
     </row>
     <row r="281">
@@ -50563,12 +50566,12 @@
     </row>
     <row r="341">
       <c r="A341" s="9" t="s">
-        <v>592</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>2058</v>
+        <v>592</v>
       </c>
     </row>
     <row r="343">
@@ -50688,12 +50691,12 @@
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
-        <v>620</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
-        <v>2082</v>
+        <v>620</v>
       </c>
     </row>
     <row r="368">
@@ -55664,7 +55667,7 @@
         <v>3035</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -55701,7 +55704,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>3033</v>
+        <v>3040</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>224</v>
@@ -55709,7 +55712,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>3040</v>
+        <v>3034</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>224</v>
@@ -55744,7 +55747,7 @@
         <v>3044</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -55800,7 +55803,7 @@
         <v>3051</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -55848,7 +55851,7 @@
         <v>3057</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
@@ -55864,7 +55867,7 @@
         <v>3059</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -55880,7 +55883,7 @@
         <v>3061</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43">
@@ -55904,7 +55907,7 @@
         <v>3064</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -55912,7 +55915,7 @@
         <v>3065</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47">
@@ -55928,7 +55931,7 @@
         <v>3067</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -55944,7 +55947,7 @@
         <v>3069</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51">
@@ -55960,7 +55963,7 @@
         <v>3071</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
@@ -55968,7 +55971,7 @@
         <v>3072</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54">
@@ -55984,7 +55987,7 @@
         <v>3074</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -56000,7 +56003,7 @@
         <v>3076</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58">
@@ -56008,11 +56011,11 @@
         <v>3077</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="9" t="s">
         <v>3078</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -56020,7 +56023,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="51" t="s">
         <v>3079</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -56032,7 +56035,7 @@
         <v>3080</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -56104,7 +56107,7 @@
         <v>3089</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71">
@@ -56128,7 +56131,7 @@
         <v>3092</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
@@ -56136,7 +56139,7 @@
         <v>3093</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
@@ -56144,7 +56147,7 @@
         <v>3094</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -56168,7 +56171,7 @@
         <v>3097</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
@@ -56200,6 +56203,14 @@
         <v>3101</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -56223,74 +56234,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="52" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="10">
@@ -59287,19 +59298,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="2">
@@ -59312,13 +59323,13 @@
         <v>above</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="3">
@@ -59331,13 +59342,13 @@
         <v>adult</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="4">
@@ -59350,13 +59361,13 @@
         <v>aesthetic</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="5">
@@ -59369,13 +59380,13 @@
         <v>alive</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="6">
@@ -59388,13 +59399,13 @@
         <v>alone</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="7">
@@ -59407,13 +59418,13 @@
         <v>alternative</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="8">
@@ -59426,13 +59437,13 @@
         <v>amazing</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="9">
@@ -59445,13 +59456,13 @@
         <v>ambiguous</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="10">
@@ -59464,13 +59475,13 @@
         <v>ancient</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="11">
@@ -59483,13 +59494,13 @@
         <v>angry</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="12">
@@ -59502,13 +59513,13 @@
         <v>angry</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="13">
@@ -59521,13 +59532,13 @@
         <v>annual</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="14">
@@ -59540,13 +59551,13 @@
         <v>another</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="15">
@@ -59559,13 +59570,13 @@
         <v>anxious</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="16">
@@ -59578,13 +59589,13 @@
         <v>appropriate</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="17">
@@ -59597,13 +59608,13 @@
         <v>average</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="18">
@@ -59616,13 +59627,13 @@
         <v>baby</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="19">
@@ -59635,13 +59646,13 @@
         <v>back</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="20">
@@ -59654,13 +59665,13 @@
         <v>bad</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="21">
@@ -59673,13 +59684,13 @@
         <v>beautiful</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="22">
@@ -59692,13 +59703,13 @@
         <v>beginning</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="23">
@@ -59711,13 +59722,13 @@
         <v>believable</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="24">
@@ -59730,13 +59741,13 @@
         <v>big</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="25">
@@ -59749,13 +59760,13 @@
         <v>bitter</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="26">
@@ -59768,13 +59779,13 @@
         <v>black</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="27">
@@ -59787,13 +59798,13 @@
         <v>blue</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="28">
@@ -59806,13 +59817,13 @@
         <v>boiled</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="29">
@@ -59825,13 +59836,13 @@
         <v>bored</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="30">
@@ -59844,13 +59855,13 @@
         <v>brown</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="31">
@@ -59863,13 +59874,13 @@
         <v>bumpy</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="32">
@@ -59882,13 +59893,13 @@
         <v>centi-</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="33">
@@ -59901,13 +59912,13 @@
         <v>child</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="34">
@@ -59920,13 +59931,13 @@
         <v>cold</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="35">
@@ -59939,13 +59950,13 @@
         <v>colourful</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="36">
@@ -59958,13 +59969,13 @@
         <v>confused</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="37">
@@ -59977,13 +59988,13 @@
         <v>cool</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="38">
@@ -59996,13 +60007,13 @@
         <v>creative</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="39">
@@ -60015,13 +60026,13 @@
         <v>curious</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="40">
@@ -60034,13 +60045,13 @@
         <v>curved</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="41">
@@ -60053,13 +60064,13 @@
         <v>delicious</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="42">
@@ -60072,13 +60083,13 @@
         <v>different</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="43">
@@ -60091,13 +60102,13 @@
         <v>down</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="44">
@@ -60110,13 +60121,13 @@
         <v>dramatic</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="45">
@@ -60129,13 +60140,13 @@
         <v>eager</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="46">
@@ -60148,13 +60159,13 @@
         <v>elder</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="47">
@@ -60167,13 +60178,13 @@
         <v>elderly</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="48">
@@ -60186,13 +60197,13 @@
         <v>electronic</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="49">
@@ -60205,13 +60216,13 @@
         <v>embarrassed</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="50">
@@ -60224,13 +60235,13 @@
         <v>end</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="51">
@@ -60243,13 +60254,13 @@
         <v>envious</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="52">
@@ -60262,13 +60273,13 @@
         <v>excited</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="53">
@@ -60281,13 +60292,13 @@
         <v>exciting</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="54">
@@ -60300,13 +60311,13 @@
         <v>fat</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="55">
@@ -60319,13 +60330,13 @@
         <v>favourite</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="56">
@@ -60338,13 +60349,13 @@
         <v>fluffy</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="57">
@@ -60357,13 +60368,13 @@
         <v>fried</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="58">
@@ -60376,13 +60387,13 @@
         <v>friendly</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="59">
@@ -60395,13 +60406,13 @@
         <v>Frustrated</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="60">
@@ -60414,13 +60425,13 @@
         <v>fun</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="61">
@@ -60433,13 +60444,13 @@
         <v>funny</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="62">
@@ -60452,13 +60463,13 @@
         <v>goal</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="63">
@@ -60471,13 +60482,13 @@
         <v>good</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="64">
@@ -60490,13 +60501,13 @@
         <v>gram</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="65">
@@ -60509,13 +60520,13 @@
         <v>graphic</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="66">
@@ -60528,13 +60539,13 @@
         <v>grateful</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="67">
@@ -60547,13 +60558,13 @@
         <v>greater than</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="68">
@@ -60566,13 +60577,13 @@
         <v>green</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="69">
@@ -60585,13 +60596,13 @@
         <v>happy</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="70">
@@ -60604,13 +60615,13 @@
         <v>heavy</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="71">
@@ -60623,13 +60634,13 @@
         <v>helpful</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="72">
@@ -60642,13 +60653,13 @@
         <v>her</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="73">
@@ -60661,13 +60672,13 @@
         <v>high-pitched</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="74">
@@ -60680,13 +60691,13 @@
         <v>hot</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="75">
@@ -60699,13 +60710,13 @@
         <v>hungry</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="76">
@@ -60718,13 +60729,13 @@
         <v>ill</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="77">
@@ -60737,13 +60748,13 @@
         <v>impatient</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="78">
@@ -60756,13 +60767,13 @@
         <v>important</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="79">
@@ -60775,13 +60786,13 @@
         <v>in</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="80">
@@ -60794,13 +60805,13 @@
         <v>infant</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="81">
@@ -60813,13 +60824,13 @@
         <v>intense</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="82">
@@ -60832,13 +60843,13 @@
         <v>international</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="83">
@@ -60851,13 +60862,13 @@
         <v>intersecting</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="84">
@@ -60870,13 +60881,13 @@
         <v>jealous</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="85">
@@ -60889,13 +60900,13 @@
         <v>kick</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="86">
@@ -60908,13 +60919,13 @@
         <v>kilo-</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="87">
@@ -60927,13 +60938,13 @@
         <v>large</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="88">
@@ -60946,13 +60957,13 @@
         <v>left</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="89">
@@ -60965,13 +60976,13 @@
         <v>less than</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="90">
@@ -60984,13 +60995,13 @@
         <v>light</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="91">
@@ -61003,13 +61014,13 @@
         <v>like</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="92">
@@ -61022,13 +61033,13 @@
         <v>litre</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D92" s="55" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="93">
@@ -61041,13 +61052,13 @@
         <v>lonely</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="94">
@@ -61060,13 +61071,13 @@
         <v>long</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D94" s="55" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="95">
@@ -61079,13 +61090,13 @@
         <v>mad</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D95" s="55" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="96">
@@ -61098,13 +61109,13 @@
         <v>metre</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="97">
@@ -61117,13 +61128,13 @@
         <v>middle</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="98">
@@ -61136,7 +61147,7 @@
         <v>middle</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="99">
@@ -61149,7 +61160,7 @@
         <v>middle-aged</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="100">
@@ -61162,13 +61173,13 @@
         <v>milli-</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="101">
@@ -61181,13 +61192,13 @@
         <v>musical</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="102">
@@ -61200,13 +61211,13 @@
         <v>my</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="103">
@@ -61219,13 +61230,13 @@
         <v>narrow</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="104">
@@ -61238,13 +61249,13 @@
         <v>nervous</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="105">
@@ -61257,13 +61268,13 @@
         <v>next</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="106">
@@ -61276,13 +61287,13 @@
         <v>nice</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="107">
@@ -61295,13 +61306,13 @@
         <v>noisy</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="108">
@@ -61314,13 +61325,13 @@
         <v>older</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="109">
@@ -61333,13 +61344,13 @@
         <v>orange</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="110">
@@ -61352,13 +61363,13 @@
         <v>original</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="111">
@@ -61371,13 +61382,13 @@
         <v>outstanding</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="112">
@@ -61390,13 +61401,13 @@
         <v>oval</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="113">
@@ -61409,13 +61420,13 @@
         <v>over</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="114">
@@ -61428,13 +61439,13 @@
         <v>overjoyed</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="115">
@@ -61447,13 +61458,13 @@
         <v>parallel</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="116">
@@ -61466,13 +61477,13 @@
         <v>perpendicular</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="117">
@@ -64573,23 +64584,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="2">
@@ -64602,13 +64613,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="F2" s="55" t="s">
         <v>50</v>
@@ -64627,19 +64638,19 @@
         <v>0.04166666667</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="4">
@@ -64652,19 +64663,19 @@
         <v>0.08333333333</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="5">
@@ -64677,19 +64688,19 @@
         <v>0.125</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="6">
@@ -64702,19 +64713,19 @@
         <v>0.1666666667</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="7">
@@ -64727,19 +64738,19 @@
         <v>0.2083333333</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="8">
@@ -64752,19 +64763,19 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="9">
@@ -64777,19 +64788,19 @@
         <v>0.2916666667</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="10">
@@ -64802,19 +64813,19 @@
         <v>0.3333333333</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="11">
@@ -64827,13 +64838,13 @@
         <v>0.375</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="F11" s="55" t="s">
         <v>50</v>
@@ -64852,13 +64863,13 @@
         <v>0.4166666667</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>50</v>
@@ -64877,19 +64888,19 @@
         <v>0.4583333333</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="14">
@@ -64902,19 +64913,19 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="15">
@@ -64927,13 +64938,13 @@
         <v>0.5416666667</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>50</v>
@@ -64952,19 +64963,19 @@
         <v>0.5833333333</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="17">
@@ -64977,16 +64988,16 @@
         <v>0.625</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>50</v>
@@ -65002,19 +65013,19 @@
         <v>0.6666666667</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="19">
@@ -65027,19 +65038,19 @@
         <v>0.7083333333</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D19" s="55" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F19" s="55" t="s">
         <v>3377</v>
       </c>
-      <c r="E19" s="55" t="s">
-        <v>3378</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>3376</v>
-      </c>
       <c r="G19" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="20">
@@ -65052,19 +65063,19 @@
         <v>0.75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="21">
@@ -65077,19 +65088,19 @@
         <v>0.7916666667</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D21" s="55" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F21" s="55" t="s">
         <v>3382</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>3383</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>3381</v>
-      </c>
       <c r="G21" s="55" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="22">
@@ -65102,13 +65113,13 @@
         <v>0.8333333333</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>50</v>
@@ -65127,19 +65138,19 @@
         <v>0.875</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="24">
@@ -65152,19 +65163,19 @@
         <v>0.9166666667</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="25">
@@ -65177,19 +65188,19 @@
         <v>0.9583333333</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="26">
@@ -65202,19 +65213,19 @@
         <v>above</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="27">
@@ -65227,19 +65238,19 @@
         <v>accident</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="28">
@@ -65252,19 +65263,19 @@
         <v>achievement</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="29">
@@ -65277,19 +65288,19 @@
         <v>Ackee</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="30">
@@ -65302,19 +65313,19 @@
         <v>addition</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="31">
@@ -65327,13 +65338,13 @@
         <v>adventure</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="F31" s="55" t="s">
         <v>50</v>
@@ -65352,13 +65363,13 @@
         <v>adversary</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="F32" s="55" t="s">
         <v>50</v>
@@ -65377,13 +65388,13 @@
         <v>Africa</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="F33" s="55" t="s">
         <v>50</v>
@@ -65402,19 +65413,19 @@
         <v>ambition</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="35">
@@ -65427,19 +65438,19 @@
         <v>ambulance</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="36">
@@ -65452,13 +65463,13 @@
         <v>analysis</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="F36" s="55" t="s">
         <v>50</v>
@@ -65477,13 +65488,13 @@
         <v>ankle</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="F37" s="55" t="s">
         <v>50</v>
@@ -65502,13 +65513,13 @@
         <v>answer</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="F38" s="55" t="s">
         <v>50</v>
@@ -65527,13 +65538,13 @@
         <v>antonyms</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>50</v>
@@ -65552,13 +65563,13 @@
         <v>appetite</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="F40" s="55" t="s">
         <v>50</v>
@@ -65577,13 +65588,13 @@
         <v>apple</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>50</v>
@@ -65602,13 +65613,13 @@
         <v>April</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>50</v>
@@ -65627,13 +65638,13 @@
         <v>architecture</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>50</v>
@@ -65652,13 +65663,13 @@
         <v>Arm</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="F44" s="55" t="s">
         <v>50</v>
@@ -65677,13 +65688,13 @@
         <v>Asia</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>50</v>
@@ -65702,13 +65713,13 @@
         <v>association</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="F46" s="55" t="s">
         <v>50</v>
@@ -65727,13 +65738,13 @@
         <v>at</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>50</v>
@@ -65752,13 +65763,13 @@
         <v>athletics</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>50</v>
@@ -65777,13 +65788,13 @@
         <v>audience</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>50</v>
@@ -65802,13 +65813,13 @@
         <v>audio</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>50</v>
@@ -65827,13 +65838,13 @@
         <v>August</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>50</v>
@@ -65852,13 +65863,13 @@
         <v>aunt</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>50</v>
@@ -65877,13 +65888,13 @@
         <v>aural</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>50</v>
@@ -65902,13 +65913,13 @@
         <v>Australia</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>50</v>
@@ -65927,13 +65938,13 @@
         <v>authority</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="F55" s="55" t="s">
         <v>50</v>
@@ -65952,13 +65963,13 @@
         <v>awareness</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="F56" s="55" t="s">
         <v>50</v>
@@ -65977,13 +65988,13 @@
         <v>baby</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>50</v>
@@ -66002,13 +66013,13 @@
         <v>Back</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="F58" s="55" t="s">
         <v>50</v>
@@ -66027,13 +66038,13 @@
         <v>backpack</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="F59" s="55" t="s">
         <v>50</v>
@@ -66052,13 +66063,13 @@
         <v>backyard</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>50</v>
@@ -66077,13 +66088,13 @@
         <v>bacon</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="F61" s="55" t="s">
         <v>50</v>
@@ -66102,13 +66113,13 @@
         <v>bad</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="F62" s="55" t="s">
         <v>50</v>
@@ -66127,13 +66138,13 @@
         <v>ball</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>50</v>
@@ -66152,13 +66163,13 @@
         <v>banana</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>50</v>
@@ -66177,13 +66188,13 @@
         <v>dinner</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>50</v>
@@ -66202,13 +66213,13 @@
         <v>bar graphs</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="F66" s="55" t="s">
         <v>50</v>
@@ -66227,13 +66238,13 @@
         <v>basketball</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>50</v>
@@ -66252,13 +66263,13 @@
         <v>bat</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="F68" s="55" t="s">
         <v>50</v>
@@ -66277,13 +66288,13 @@
         <v>bat</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>50</v>
@@ -66302,13 +66313,13 @@
         <v>bathroom</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="F70" s="55" t="s">
         <v>50</v>
@@ -66327,13 +66338,13 @@
         <v>beach</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="F71" s="55" t="s">
         <v>50</v>
@@ -66352,13 +66363,13 @@
         <v>beans</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="F72" s="55" t="s">
         <v>50</v>
@@ -66377,13 +66388,13 @@
         <v>bedroom</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>50</v>
@@ -66402,13 +66413,13 @@
         <v>bee</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="F74" s="55" t="s">
         <v>50</v>
@@ -66427,13 +66438,13 @@
         <v>beginning</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="F75" s="55" t="s">
         <v>50</v>
@@ -66452,13 +66463,13 @@
         <v>behind</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>50</v>
@@ -66477,13 +66488,13 @@
         <v>belly</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="F77" s="55" t="s">
         <v>50</v>
@@ -66502,13 +66513,13 @@
         <v>belt</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="F78" s="55" t="s">
         <v>50</v>
@@ -66527,13 +66538,13 @@
         <v>bend</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="F79" s="55" t="s">
         <v>50</v>
@@ -66552,13 +66563,13 @@
         <v>bibliography</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="F80" s="55" t="s">
         <v>50</v>
@@ -66577,13 +66588,13 @@
         <v>biohazard</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="F81" s="55" t="s">
         <v>50</v>
@@ -66602,13 +66613,13 @@
         <v>bird</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="F82" s="55" t="s">
         <v>50</v>
@@ -66627,13 +66638,13 @@
         <v>birthday</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="F83" s="55" t="s">
         <v>50</v>
@@ -66652,13 +66663,13 @@
         <v>blanket</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="F84" s="55" t="s">
         <v>50</v>
@@ -66677,13 +66688,13 @@
         <v>blazer</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="F85" s="55" t="s">
         <v>50</v>
@@ -66702,13 +66713,13 @@
         <v>blouse</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>50</v>
@@ -66727,13 +66738,13 @@
         <v>Blue Mahoe</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="F87" s="55" t="s">
         <v>50</v>
@@ -66752,13 +66763,13 @@
         <v>Blue Mountain </v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="F88" s="55" t="s">
         <v>50</v>
@@ -66777,13 +66788,13 @@
         <v>body</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>50</v>
@@ -66802,13 +66813,13 @@
         <v>book</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="F90" s="55" t="s">
         <v>50</v>
@@ -66827,13 +66838,13 @@
         <v>boots</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="F91" s="55" t="s">
         <v>50</v>
@@ -66852,13 +66863,13 @@
         <v>bounce</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>50</v>
@@ -66877,13 +66888,13 @@
         <v>bread</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="F93" s="55" t="s">
         <v>50</v>
@@ -66902,13 +66913,13 @@
         <v>breakfast</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="F94" s="55" t="s">
         <v>50</v>
@@ -66927,13 +66938,13 @@
         <v>broom</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>50</v>
@@ -66952,13 +66963,13 @@
         <v>brother</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="F96" s="55" t="s">
         <v>50</v>
@@ -66977,13 +66988,13 @@
         <v>bull in a pen</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="F97" s="55" t="s">
         <v>50</v>
@@ -67002,13 +67013,13 @@
         <v>butter</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D98" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>50</v>
@@ -67027,13 +67038,13 @@
         <v>button</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="F99" s="55" t="s">
         <v>50</v>
@@ -67052,13 +67063,13 @@
         <v>cake</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="F100" s="55" t="s">
         <v>50</v>
@@ -67077,13 +67088,13 @@
         <v>calendar</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="F101" s="55" t="s">
         <v>50</v>
@@ -67102,13 +67113,13 @@
         <v>callaloo</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D102" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="F102" s="55" t="s">
         <v>50</v>
@@ -67127,13 +67138,13 @@
         <v>captain</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D103" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="F103" s="55" t="s">
         <v>50</v>
@@ -67152,13 +67163,13 @@
         <v>car</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D104" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="F104" s="55" t="s">
         <v>50</v>
@@ -67177,13 +67188,13 @@
         <v>carbohydrate</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D105" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="F105" s="55" t="s">
         <v>50</v>
@@ -67202,13 +67213,13 @@
         <v>cardigan</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D106" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="F106" s="55" t="s">
         <v>50</v>
@@ -67227,13 +67238,13 @@
         <v>career</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D107" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="F107" s="55" t="s">
         <v>50</v>
@@ -67252,13 +67263,13 @@
         <v>cargo pants</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D108" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="F108" s="55" t="s">
         <v>50</v>
@@ -67277,13 +67288,13 @@
         <v>carpet</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D109" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="F109" s="55" t="s">
         <v>50</v>
@@ -67302,13 +67313,13 @@
         <v>cartoon</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D110" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>50</v>
@@ -67327,13 +67338,13 @@
         <v>cat</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D111" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="F111" s="55" t="s">
         <v>50</v>
@@ -67352,13 +67363,13 @@
         <v>catalogue</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D112" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="F112" s="55" t="s">
         <v>50</v>
@@ -67377,13 +67388,13 @@
         <v>catch</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D113" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="F113" s="55" t="s">
         <v>50</v>
@@ -67402,13 +67413,13 @@
         <v>caution</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D114" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="F114" s="55" t="s">
         <v>50</v>
@@ -67427,13 +67438,13 @@
         <v>cell phone</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D115" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="F115" s="55" t="s">
         <v>50</v>
@@ -67452,13 +67463,13 @@
         <v>Celsius</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D116" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="F116" s="55" t="s">
         <v>50</v>
@@ -67477,13 +67488,13 @@
         <v>century</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D117" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E117" s="55" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="F117" s="55" t="s">
         <v>50</v>
@@ -67502,16 +67513,16 @@
         <v>cereal</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="F118" s="55" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="G118" s="55" t="s">
         <v>50</v>
@@ -67527,13 +67538,13 @@
         <v>chair</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E119" s="55" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="F119" s="55" t="s">
         <v>50</v>
@@ -67552,13 +67563,13 @@
         <v>chalkboard</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="E120" s="55" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="F120" s="55" t="s">
         <v>50</v>
@@ -67577,13 +67588,13 @@
         <v>chapter</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="F121" s="55" t="s">
         <v>50</v>
@@ -67602,13 +67613,13 @@
         <v>characters</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E122" s="55" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="F122" s="55" t="s">
         <v>50</v>
@@ -67627,13 +67638,13 @@
         <v>characters</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="F123" s="55" t="s">
         <v>50</v>
@@ -67652,13 +67663,13 @@
         <v>checklist </v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D124" s="55" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="E124" s="55" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="F124" s="55" t="s">
         <v>50</v>
@@ -67677,13 +67688,13 @@
         <v>Chest</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="F125" s="55" t="s">
         <v>50</v>
@@ -67702,13 +67713,13 @@
         <v>chicken</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D126" s="55" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="E126" s="55" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="F126" s="55" t="s">
         <v>50</v>
@@ -67727,13 +67738,13 @@
         <v>chiney-skip</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D127" s="55" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="F127" s="55" t="s">
         <v>50</v>
@@ -67752,16 +67763,16 @@
         <v>Christmas</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D128" s="55" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="E128" s="55" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="F128" s="55" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="G128" s="55" t="s">
         <v>692</v>
@@ -67777,13 +67788,13 @@
         <v>church</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="E129" s="55" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="F129" s="55" t="s">
         <v>50</v>
@@ -67802,13 +67813,13 @@
         <v>circle graph</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D130" s="55" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="E130" s="55" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="F130" s="55" t="s">
         <v>50</v>
@@ -67827,7 +67838,7 @@
         <v>clap</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D131" s="55" t="s">
         <v>50</v>
@@ -67836,10 +67847,10 @@
         <v>50</v>
       </c>
       <c r="F131" s="55" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="G131" s="55" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="132">
@@ -67852,13 +67863,13 @@
         <v>Clarendon</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="E132" s="55" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="F132" s="55" t="s">
         <v>50</v>
@@ -67877,13 +67888,13 @@
         <v>classroom</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E133" s="55" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="F133" s="55" t="s">
         <v>50</v>
@@ -67902,13 +67913,13 @@
         <v>coat</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E134" s="55" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="F134" s="55" t="s">
         <v>50</v>
@@ -67927,13 +67938,13 @@
         <v>collar</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E135" s="55" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="F135" s="55" t="s">
         <v>50</v>
@@ -67952,13 +67963,13 @@
         <v>cold</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E136" s="55" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="F136" s="55" t="s">
         <v>50</v>
@@ -67977,13 +67988,13 @@
         <v>cuff</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D137" s="55" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="E137" s="55" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="F137" s="55" t="s">
         <v>50</v>
@@ -68002,13 +68013,13 @@
         <v>community</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D138" s="55" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="E138" s="55" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="F138" s="55" t="s">
         <v>50</v>
@@ -68027,13 +68038,13 @@
         <v>competition</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="F139" s="55" t="s">
         <v>50</v>
@@ -68052,13 +68063,13 @@
         <v>concept</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D140" s="55" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E140" s="55" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="F140" s="55" t="s">
         <v>50</v>
@@ -68077,13 +68088,13 @@
         <v>conductor</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D141" s="55" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="E141" s="55" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="F141" s="55" t="s">
         <v>50</v>
@@ -68102,13 +68113,13 @@
         <v>country</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D142" s="55" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="E142" s="55" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="F142" s="55" t="s">
         <v>50</v>
@@ -68127,16 +68138,16 @@
         <v>couplet </v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D143" s="55" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="55" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="F143" s="55" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="144">
@@ -68149,13 +68160,13 @@
         <v>cousin</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D144" s="55" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E144" s="55" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="F144" s="55" t="s">
         <v>50</v>
@@ -68174,13 +68185,13 @@
         <v>cover page</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="E145" s="55" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="F145" s="55" t="s">
         <v>50</v>
@@ -68199,13 +68210,13 @@
         <v>cow</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D146" s="55" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E146" s="55" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="F146" s="55" t="s">
         <v>50</v>
@@ -68224,13 +68235,13 @@
         <v>CPR</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D147" s="55" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="E147" s="55" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="F147" s="55" t="s">
         <v>50</v>
@@ -68249,13 +68260,13 @@
         <v>crab</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E148" s="55" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="F148" s="55" t="s">
         <v>50</v>
@@ -68274,13 +68285,13 @@
         <v>Creole</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D149" s="55" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="E149" s="55" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="F149" s="55" t="s">
         <v>50</v>
@@ -68299,13 +68310,13 @@
         <v>cricket</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D150" s="55" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E150" s="55" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="F150" s="55" t="s">
         <v>50</v>
@@ -68324,7 +68335,7 @@
         <v>crocodile</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>50</v>
@@ -68349,13 +68360,13 @@
         <v>curtains</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D152" s="55" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="E152" s="55" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="F152" s="55" t="s">
         <v>50</v>
@@ -68374,7 +68385,7 @@
         <v>cursive</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D153" s="55" t="s">
         <v>50</v>
@@ -68399,7 +68410,7 @@
         <v>dining room</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D154" s="55" t="s">
         <v>50</v>
@@ -68424,7 +68435,7 @@
         <v>dance</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D155" s="55" t="s">
         <v>50</v>
@@ -68449,7 +68460,7 @@
         <v>dandy-shandy</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D156" s="55" t="s">
         <v>50</v>
@@ -68474,7 +68485,7 @@
         <v>danger</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D157" s="55" t="s">
         <v>50</v>
@@ -68499,13 +68510,13 @@
         <v>data</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D158" s="55" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E158" s="55" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="F158" s="55" t="s">
         <v>50</v>
@@ -68524,13 +68535,13 @@
         <v>December</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D159" s="55" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="E159" s="55" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="F159" s="55" t="s">
         <v>50</v>
@@ -68549,13 +68560,13 @@
         <v>deed</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D160" s="55" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="E160" s="55" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="F160" s="55" t="s">
         <v>50</v>
@@ -68574,7 +68585,7 @@
         <v>degrees</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D161" s="55" t="s">
         <v>50</v>
@@ -68599,13 +68610,13 @@
         <v>description</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D162" s="55" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="E162" s="55" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="F162" s="55" t="s">
         <v>50</v>
@@ -68624,7 +68635,7 @@
         <v>desperation</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D163" s="55" t="s">
         <v>50</v>
@@ -68649,13 +68660,13 @@
         <v>Devon House</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D164" s="55" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="E164" s="55" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="F164" s="55" t="s">
         <v>50</v>
@@ -68674,13 +68685,13 @@
         <v>dialogue</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D165" s="55" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="E165" s="55" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="F165" s="55" t="s">
         <v>50</v>
@@ -68699,13 +68710,13 @@
         <v>different</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D166" s="55" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="E166" s="55" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="F166" s="55" t="s">
         <v>50</v>
@@ -68724,13 +68735,13 @@
         <v>door</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D167" s="55" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="E167" s="55" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="F167" s="55" t="s">
         <v>50</v>
@@ -68749,13 +68760,13 @@
         <v>dinner</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D168" s="55" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="E168" s="55" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="F168" s="55" t="s">
         <v>50</v>
@@ -68774,13 +68785,13 @@
         <v>disaster</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D169" s="55" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="F169" s="55" t="s">
         <v>50</v>
@@ -68799,13 +68810,13 @@
         <v>dislike</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D170" s="55" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="E170" s="55" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="F170" s="55" t="s">
         <v>50</v>
@@ -68824,7 +68835,7 @@
         <v>dodge</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D171" s="55" t="s">
         <v>50</v>
@@ -68849,13 +68860,13 @@
         <v>dog</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D172" s="55" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E172" s="55" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="F172" s="55" t="s">
         <v>50</v>
@@ -68874,13 +68885,13 @@
         <v>dolphin</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D173" s="55" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="E173" s="55" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="F173" s="55" t="s">
         <v>50</v>
@@ -68899,13 +68910,13 @@
         <v>Dolphin Cove </v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D174" s="55" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="E174" s="55" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="F174" s="55" t="s">
         <v>50</v>
@@ -68924,13 +68935,13 @@
         <v>dress</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="E175" s="55" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="F175" s="55" t="s">
         <v>50</v>
@@ -68949,13 +68960,13 @@
         <v>down</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="F176" s="55" t="s">
         <v>50</v>
@@ -68974,13 +68985,13 @@
         <v>dragon-fly</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="E177" s="55" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="F177" s="55" t="s">
         <v>50</v>
@@ -68999,7 +69010,7 @@
         <v>dryer</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D178" s="55" t="s">
         <v>50</v>
@@ -69024,13 +69035,13 @@
         <v>flip flops</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D179" s="55" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="E179" s="55" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="F179" s="55" t="s">
         <v>50</v>
@@ -69049,13 +69060,13 @@
         <v>dumpling</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="E180" s="55" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="F180" s="55" t="s">
         <v>50</v>
@@ -69074,13 +69085,13 @@
         <v>Dunn's River Fallls</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="E181" s="55" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="F181" s="55" t="s">
         <v>50</v>
@@ -69099,13 +69110,13 @@
         <v>duration</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D182" s="55" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="E182" s="55" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="F182" s="55" t="s">
         <v>50</v>
@@ -69124,7 +69135,7 @@
         <v>dynamics</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D183" s="55" t="s">
         <v>50</v>
@@ -69149,7 +69160,7 @@
         <v>Ear</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D184" s="55" t="s">
         <v>50</v>
@@ -69158,10 +69169,10 @@
         <v>50</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="185">
@@ -69174,13 +69185,13 @@
         <v>earthquake</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="E185" s="55" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="F185" s="55" t="s">
         <v>50</v>
@@ -69199,7 +69210,7 @@
         <v>egg</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>50</v>
@@ -69224,13 +69235,13 @@
         <v>Elbow</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="F187" s="55" t="s">
         <v>50</v>
@@ -69249,13 +69260,13 @@
         <v>elder</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D188" s="55" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="E188" s="55" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="F188" s="55" t="s">
         <v>50</v>
@@ -69274,13 +69285,13 @@
         <v>Emanciapation Park </v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D189" s="55" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="E189" s="55" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="F189" s="55" t="s">
         <v>50</v>
@@ -69299,13 +69310,13 @@
         <v>emergency</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D190" s="55" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="E190" s="55" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="F190" s="55" t="s">
         <v>50</v>
@@ -69324,13 +69335,13 @@
         <v>end</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D191" s="55" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="E191" s="55" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="F191" s="55" t="s">
         <v>50</v>
@@ -69349,7 +69360,7 @@
         <v>endurance</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D192" s="55" t="s">
         <v>50</v>
@@ -69374,7 +69385,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>50</v>
@@ -69399,7 +69410,7 @@
         <v>environment</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D194" s="55" t="s">
         <v>50</v>
@@ -69424,7 +69435,7 @@
         <v>estimation</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D195" s="55" t="s">
         <v>50</v>
@@ -69449,7 +69460,7 @@
         <v>ethnic</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>50</v>
@@ -69474,13 +69485,13 @@
         <v>Europe</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D197" s="55" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="E197" s="55" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="F197" s="55" t="s">
         <v>50</v>
@@ -69499,13 +69510,13 @@
         <v>evcuation plan</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="E198" s="55" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="F198" s="55" t="s">
         <v>50</v>
@@ -69524,13 +69535,13 @@
         <v>evening</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D199" s="55" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="E199" s="55" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="F199" s="55" t="s">
         <v>50</v>
@@ -69549,13 +69560,13 @@
         <v>exercise</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D200" s="55" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="E200" s="55" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="F200" s="55" t="s">
         <v>50</v>
@@ -69574,13 +69585,13 @@
         <v>exit</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D201" s="55" t="s">
         <v>1091</v>
       </c>
       <c r="E201" s="55" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="F201" s="55" t="s">
         <v>50</v>
@@ -69599,13 +69610,13 @@
         <v>exploration</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D202" s="55" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="E202" s="55" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="F202" s="55" t="s">
         <v>50</v>
@@ -69624,13 +69635,13 @@
         <v>explosive</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="E203" s="55" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="F203" s="55" t="s">
         <v>50</v>
@@ -69649,13 +69660,13 @@
         <v>Eye</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D204" s="55" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="E204" s="55" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="F204" s="55" t="s">
         <v>50</v>
@@ -69674,13 +69685,13 @@
         <v>fact</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="E205" s="55" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="F205" s="55" t="s">
         <v>50</v>
@@ -69699,7 +69710,7 @@
         <v>family</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D206" s="55" t="s">
         <v>50</v>
@@ -69724,13 +69735,13 @@
         <v>farmer</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D207" s="55" t="s">
         <v>223</v>
       </c>
       <c r="E207" s="55" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="F207" s="55" t="s">
         <v>50</v>
@@ -69749,19 +69760,19 @@
         <v>fat</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="E208" s="55" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="F208" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G208" s="55" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="209">
@@ -69774,19 +69785,19 @@
         <v>father</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="E209" s="55" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="F209" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G209" s="55" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="210">
@@ -69799,13 +69810,13 @@
         <v>February</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="E210" s="55" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="F210" s="55" t="s">
         <v>622</v>
@@ -69824,13 +69835,13 @@
         <v>feeling</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="E211" s="55" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="F211" s="55" t="s">
         <v>50</v>
@@ -69849,7 +69860,7 @@
         <v>feet</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D212" s="55" t="s">
         <v>50</v>
@@ -69874,7 +69885,7 @@
         <v>fiction</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D213" s="55" t="s">
         <v>50</v>
@@ -69899,7 +69910,7 @@
         <v>Fingers</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D214" s="55" t="s">
         <v>50</v>
@@ -69924,7 +69935,7 @@
         <v>fire</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D215" s="55" t="s">
         <v>50</v>
@@ -69949,7 +69960,7 @@
         <v>first aid</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>50</v>
@@ -69974,7 +69985,7 @@
         <v>fish</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D217" s="55" t="s">
         <v>50</v>
@@ -69999,7 +70010,7 @@
         <v>furniture</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D218" s="55" t="s">
         <v>50</v>
@@ -70024,7 +70035,7 @@
         <v>flood</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>50</v>
@@ -70049,7 +70060,7 @@
         <v>folk-tales</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D220" s="55" t="s">
         <v>50</v>
@@ -70074,7 +70085,7 @@
         <v>food</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D221" s="55" t="s">
         <v>50</v>
@@ -70099,7 +70110,7 @@
         <v>Foot</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D222" s="55" t="s">
         <v>50</v>
@@ -70124,7 +70135,7 @@
         <v>football</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D223" s="55" t="s">
         <v>50</v>
@@ -70149,7 +70160,7 @@
         <v>forehead</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D224" s="55" t="s">
         <v>50</v>
@@ -70174,7 +70185,7 @@
         <v>fowl</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D225" s="55" t="s">
         <v>50</v>
@@ -70199,7 +70210,7 @@
         <v>fractions</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>50</v>
@@ -70224,7 +70235,7 @@
         <v>Friday</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D227" s="55" t="s">
         <v>50</v>
@@ -70249,7 +70260,7 @@
         <v>friend</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D228" s="55" t="s">
         <v>50</v>
@@ -70274,7 +70285,7 @@
         <v>friend</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D229" s="55" t="s">
         <v>50</v>
@@ -70299,7 +70310,7 @@
         <v>friendship</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D230" s="55" t="s">
         <v>50</v>
@@ -70324,7 +70335,7 @@
         <v>frog</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D231" s="55" t="s">
         <v>50</v>
@@ -70349,7 +70360,7 @@
         <v>gloves</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D232" s="55" t="s">
         <v>50</v>
@@ -70374,7 +70385,7 @@
         <v>game</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D233" s="55" t="s">
         <v>50</v>
@@ -70399,7 +70410,7 @@
         <v>game</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D234" s="55" t="s">
         <v>50</v>
@@ -70424,7 +70435,7 @@
         <v>girl</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D235" s="55" t="s">
         <v>50</v>
@@ -75085,34 +75096,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="2">
@@ -75125,28 +75136,28 @@
         <v>abstain</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="3">
@@ -75159,28 +75170,28 @@
         <v>accomplish</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="4">
@@ -75193,28 +75204,28 @@
         <v>accumulate</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="5">
@@ -75227,28 +75238,28 @@
         <v>aggravate</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="6">
@@ -75261,28 +75272,28 @@
         <v>aim</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="7">
@@ -75295,28 +75306,28 @@
         <v>allocate</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="8">
@@ -75329,28 +75340,28 @@
         <v>amplify</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>1233</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="9">
@@ -75363,28 +75374,28 @@
         <v>angle</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="10">
@@ -75397,28 +75408,28 @@
         <v>answer</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="11">
@@ -75431,28 +75442,28 @@
         <v>anticipate</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="12">
@@ -75465,28 +75476,28 @@
         <v>apprehend</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="13">
@@ -75499,28 +75510,28 @@
         <v>arbirate</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>754</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="14">
@@ -75533,28 +75544,28 @@
         <v>ascend</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="15">
@@ -75567,28 +75578,28 @@
         <v>ask</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="16">
@@ -75601,28 +75612,28 @@
         <v>aspire</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="17">
@@ -75635,28 +75646,28 @@
         <v>assemble</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="18">
@@ -75669,28 +75680,28 @@
         <v>attack</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="19">
@@ -75703,28 +75714,28 @@
         <v>authenicate</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="20">
@@ -75737,28 +75748,28 @@
         <v>baby</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="21">
@@ -75771,28 +75782,28 @@
         <v>back</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="22">
@@ -75805,28 +75816,28 @@
         <v>bad</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="23">
@@ -75839,28 +75850,28 @@
         <v>be</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="24">
@@ -75873,28 +75884,28 @@
         <v>beach</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="25">
@@ -75907,28 +75918,28 @@
         <v>beg</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="26">
@@ -75941,28 +75952,28 @@
         <v>beginning</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="27">
@@ -75975,28 +75986,28 @@
         <v>bend</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="28">
@@ -76009,28 +76020,28 @@
         <v>boiled</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="29">
@@ -76043,28 +76054,28 @@
         <v>bounce</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="30">
@@ -76077,28 +76088,28 @@
         <v>boxing</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="31">
@@ -76111,28 +76122,28 @@
         <v>brainstorm</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="J31" s="58" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="32">
@@ -76145,28 +76156,28 @@
         <v>bread</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="33">
@@ -76179,28 +76190,28 @@
         <v>breakfast</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="J33" s="58" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="34">
@@ -76213,22 +76224,22 @@
         <v>burn</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="35">
@@ -76241,28 +76252,28 @@
         <v>butter</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="J35" s="58" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="36">
@@ -82110,7 +82121,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>0</v>
